--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E71B8E5-87B5-4935-91A4-19197EB70D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8FF12C-9860-4DFD-AEE5-2BB16708994C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Apprenti.e</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Finished</t>
   </si>
   <si>
-    <t>Finished late</t>
-  </si>
-  <si>
     <t>In the work</t>
   </si>
   <si>
@@ -186,6 +183,33 @@
   </si>
   <si>
     <t>Not everything is done, will be finished next session</t>
+  </si>
+  <si>
+    <t>Finishing the class diagrams</t>
+  </si>
+  <si>
+    <t>Not finished</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>started 09:50</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Writing the product specifications.</t>
+  </si>
+  <si>
+    <t>This may get changed later, as this was done without Jonathan's approval, as he wasn't there</t>
+  </si>
+  <si>
+    <t>This was done in a .txt file originally, as the GitHub Project wasn't set up yet and I cannot create it</t>
+  </si>
+  <si>
+    <t>Writing new issues (NUMBER)</t>
   </si>
 </sst>
 </file>
@@ -481,6 +505,42 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -489,51 +549,190 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -930,11 +1129,11 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9:G9"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -954,65 +1153,65 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="35" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="29"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1041,7 +1240,7 @@
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="25">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1057,19 +1256,19 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="31"/>
+        <v>42</v>
+      </c>
+      <c r="B7" s="26"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>34</v>
@@ -1081,23 +1280,23 @@
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="31"/>
+        <v>39</v>
+      </c>
+      <c r="B8" s="26"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F8" s="23">
         <v>0.65625</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1110,44 +1309,78 @@
       <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="36">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="22"/>
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="25">
+        <v>45965</v>
+      </c>
+      <c r="C10" s="5">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="31"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="7">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="26"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="19"/>
+      <c r="D12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="31"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1156,7 +1389,7 @@
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="32"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
@@ -1173,17 +1406,17 @@
       <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="36">
         <f>SUM(C10:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="5"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1192,7 +1425,7 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="31"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1201,7 +1434,7 @@
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="31"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1210,7 +1443,7 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="31"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1219,7 +1452,7 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="32"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="9"/>
       <c r="D20" s="8"/>
       <c r="E20" s="10"/>
@@ -1236,17 +1469,17 @@
       <c r="C21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="36">
         <f>SUM(C16:C20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="30"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="5"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1255,7 +1488,7 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="31"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1264,7 +1497,7 @@
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="31"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1273,7 +1506,7 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="31"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1282,7 +1515,7 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="32"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="9"/>
       <c r="D26" s="8"/>
       <c r="E26" s="10"/>
@@ -1299,17 +1532,17 @@
       <c r="C27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="36">
         <f>SUM(C22:C26)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="30"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="5"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1318,7 +1551,7 @@
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="31"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1327,7 +1560,7 @@
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="31"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1336,7 +1569,7 @@
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="31"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1345,7 +1578,7 @@
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
-      <c r="B32" s="32"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="9"/>
       <c r="D32" s="8"/>
       <c r="E32" s="10"/>
@@ -1362,17 +1595,17 @@
       <c r="C33" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="36">
         <f>SUM(C28:C32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="30"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="5"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1381,7 +1614,7 @@
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="31"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1390,7 +1623,7 @@
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="31"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1399,7 +1632,7 @@
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="31"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1408,7 +1641,7 @@
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
-      <c r="B38" s="32"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="9"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
@@ -1425,17 +1658,17 @@
       <c r="C39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="36">
         <f>SUM(C34:C38)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="30"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="5"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -1444,7 +1677,7 @@
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="31"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -1453,7 +1686,7 @@
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="31"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -1462,7 +1695,7 @@
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="31"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -1471,7 +1704,7 @@
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
-      <c r="B44" s="32"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="9"/>
       <c r="D44" s="8"/>
       <c r="E44" s="10"/>
@@ -1488,17 +1721,17 @@
       <c r="C45" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="36">
         <f>SUM(C40:C44)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="37"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="30"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="5"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -1507,7 +1740,7 @@
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="31"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -1516,7 +1749,7 @@
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="31"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -1525,7 +1758,7 @@
     </row>
     <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="31"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -1534,7 +1767,7 @@
     </row>
     <row r="50" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
-      <c r="B50" s="32"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="9"/>
       <c r="D50" s="8"/>
       <c r="E50" s="10"/>
@@ -1551,22 +1784,22 @@
       <c r="C51" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="36">
         <f>SUM(C46:C50)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="37"/>
     </row>
     <row r="52" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="12">
         <f>MROUND(SUM(C6:C51) /60,0.2)</f>
-        <v>2</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="18"/>
@@ -1583,12 +1816,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B20"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -1598,20 +1837,14 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B46:B50"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C46:C50 C34:C38 C40:C44 C16:C20 B6 C10:C14 C22:C26 C28:C32 C6:C8" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
@@ -1634,8 +1867,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{57C84C53-B905-437D-BEEF-7124C39AA062}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,A1)))</xm:f>
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1645,11 +1877,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A10:E14 A16:E20 A22:E26 A28:E32 A34:E38 A40:E44 A46:E50 A52:E1048576 A1:D2 F1:F3 A3 D3 G4:G5 A9:D9 A15:D15 A21:D21 A27:D27 A33:D33 A39:D39 A45:D45 A51:D51 G52:G1048576 A4:E8 G7:G8</xm:sqref>
+          <xm:sqref>A4:E8 A10:E14 A16:E20 A22:E26 A28:E32 A34:E38 A40:E44 A46:E50 A52:E1048576 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A21:D21 A27:D27 A33:D33 A39:D39 A45:D45 A51:D51 G52:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="endsWith" priority="11" operator="endsWith" id="{FA4647AC-51FE-4597-AE79-DF1EBCADBA52}">
-            <xm:f>RIGHT(E4,LEN(Restrictions!$A$1))=Restrictions!$A$1</xm:f>
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1659,8 +1890,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{CA908F4B-0D6A-49FA-81F5-C1AAB26EE444}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$C$1,E4)))</xm:f>
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1670,8 +1900,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{BC07C843-4761-4226-B9B3-580ED2061AC2}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$D$1,E4)))</xm:f>
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1684,7 +1913,7 @@
           <xm:sqref>E4:E8 E10:E14 E16:E20 E22:E26 E28:E32 E34:E38 E40:E44 E46:E50 E52:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1698,7 +1927,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1709,10 +1938,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F10:G14</xm:sqref>
+          <xm:sqref>F10:G10 F13:G14 F11:F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1726,7 +1955,7 @@
           <xm:sqref>F16:G20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F22)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1740,7 +1969,7 @@
           <xm:sqref>F22:G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F28)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1754,7 +1983,7 @@
           <xm:sqref>F28:G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F34)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1768,7 +1997,7 @@
           <xm:sqref>F34:G38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F40)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1782,7 +2011,7 @@
           <xm:sqref>F40:G44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F46)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1795,10 +2024,23 @@
           </x14:cfRule>
           <xm:sqref>F46:G50</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G11:G12</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E11ED1A-D9E7-4F6F-A32A-17EE6B774A99}">
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
@@ -1815,9 +2057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE85185-8505-495A-B1CC-27F1C88988D0}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1826,13 +2066,13 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1841,26 +2081,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -2103,10 +2323,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2123,20 +2374,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8FF12C-9860-4DFD-AEE5-2BB16708994C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF1860A-7D0C-43B6-A64D-4F79AF3275E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>Apprenti.e</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Writing</t>
   </si>
   <si>
-    <t>started 09:50</t>
-  </si>
-  <si>
     <t>Backlog</t>
   </si>
   <si>
@@ -209,7 +206,19 @@
     <t>This was done in a .txt file originally, as the GitHub Project wasn't set up yet and I cannot create it</t>
   </si>
   <si>
-    <t>Writing new issues (NUMBER)</t>
+    <t>Designing</t>
+  </si>
+  <si>
+    <t>Writing 4 new issues</t>
+  </si>
+  <si>
+    <t>Designing 4 images for the new issues</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Started working on the code optimization</t>
   </si>
 </sst>
 </file>
@@ -557,7 +566,14 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1133,7 +1149,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1363,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>34</v>
@@ -1356,45 +1372,69 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="26"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7">
+        <v>25</v>
+      </c>
       <c r="D12" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="7">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="B14" s="27"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="19"/>
+      <c r="C14" s="9">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
@@ -1408,7 +1448,7 @@
       </c>
       <c r="D15" s="36">
         <f>SUM(C10:C14)</f>
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
@@ -1799,7 +1839,7 @@
       <c r="B52" s="29"/>
       <c r="C52" s="12">
         <f>MROUND(SUM(C6:C51) /60,0.2)</f>
-        <v>3.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="18"/>
@@ -1844,7 +1884,7 @@
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="B46:B50"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C46:C50 C34:C38 C40:C44 C16:C20 B6 C10:C14 C22:C26 C28:C32 C6:C8" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
@@ -1867,7 +1907,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1880,7 +1920,7 @@
           <xm:sqref>A4:E8 A10:E14 A16:E20 A22:E26 A28:E32 A34:E38 A40:E44 A46:E50 A52:E1048576 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A21:D21 A27:D27 A33:D33 A39:D39 A45:D45 A51:D51 G52:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1890,7 +1930,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1900,7 +1940,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1913,7 +1953,7 @@
           <xm:sqref>E4:E8 E10:E14 E16:E20 E22:E26 E28:E32 E34:E38 E40:E44 E46:E50 E52:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1927,7 +1967,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1938,10 +1978,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F10:G10 F13:G14 F11:F12</xm:sqref>
+          <xm:sqref>F10:G10 F13:G13 F11:F12 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1955,7 +1995,7 @@
           <xm:sqref>F16:G20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F22)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1969,7 +2009,7 @@
           <xm:sqref>F22:G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F28)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1983,7 +2023,7 @@
           <xm:sqref>F28:G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F34)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1997,7 +2037,7 @@
           <xm:sqref>F34:G38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F40)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2011,7 +2051,7 @@
           <xm:sqref>F40:G44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F46)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2025,7 +2065,7 @@
           <xm:sqref>F46:G50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2037,10 +2077,23 @@
           </x14:cfRule>
           <xm:sqref>G11:G12</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G14</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E11ED1A-D9E7-4F6F-A32A-17EE6B774A99}">
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>

--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF1860A-7D0C-43B6-A64D-4F79AF3275E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575913D0-3C5C-42B3-9A37-38CEF8E0265B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>Apprenti.e</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Backlog</t>
   </si>
   <si>
-    <t>Writing the product specifications.</t>
-  </si>
-  <si>
     <t>This may get changed later, as this was done without Jonathan's approval, as he wasn't there</t>
   </si>
   <si>
@@ -219,6 +216,30 @@
   </si>
   <si>
     <t>Started working on the code optimization</t>
+  </si>
+  <si>
+    <t>Debating on code optimization</t>
+  </si>
+  <si>
+    <t>Debating</t>
+  </si>
+  <si>
+    <t>Writing the product specifications</t>
+  </si>
+  <si>
+    <t>This was used for the new class diagrams</t>
+  </si>
+  <si>
+    <t>Writing the fifth issue &amp; adding the previous ones to GitHub Project</t>
+  </si>
+  <si>
+    <t>This took a while, as GitHub decided to disable issues in the project.</t>
+  </si>
+  <si>
+    <t>Continuing code optimization</t>
+  </si>
+  <si>
+    <t>Progress has been reset as the power got shut down by a classmate</t>
   </si>
 </sst>
 </file>
@@ -430,7 +451,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -514,6 +535,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -566,168 +591,7 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -1146,10 +1010,10 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1169,65 +1033,65 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="35"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1256,7 +1120,7 @@
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="26">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1279,7 +1143,7 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1298,7 +1162,7 @@
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1325,19 +1189,19 @@
       <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="37">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="26">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1358,12 +1222,12 @@
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>34</v>
@@ -1372,19 +1236,19 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>34</v>
@@ -1393,19 +1257,19 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="B13" s="27"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>34</v>
@@ -1417,14 +1281,14 @@
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="27"/>
+        <v>53</v>
+      </c>
+      <c r="B14" s="28"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>45</v>
@@ -1446,44 +1310,82 @@
       <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="37">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="19"/>
+      <c r="A16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="26">
+        <v>45971</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="23">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="7">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="19"/>
+      <c r="A18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="7">
+        <v>45</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="26"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1492,7 +1394,7 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="27"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="9"/>
       <c r="D20" s="8"/>
       <c r="E20" s="10"/>
@@ -1509,17 +1411,17 @@
       <c r="C21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="37">
         <f>SUM(C16:C20)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+        <v>145</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="5"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1528,7 +1430,7 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1537,7 +1439,7 @@
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="26"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1546,7 +1448,7 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="26"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1555,7 +1457,7 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="27"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="9"/>
       <c r="D26" s="8"/>
       <c r="E26" s="10"/>
@@ -1572,17 +1474,17 @@
       <c r="C27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="37">
         <f>SUM(C22:C26)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="25"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="5"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1591,7 +1493,7 @@
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="26"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1600,7 +1502,7 @@
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1609,7 +1511,7 @@
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="26"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1618,7 +1520,7 @@
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="9"/>
       <c r="D32" s="8"/>
       <c r="E32" s="10"/>
@@ -1635,17 +1537,17 @@
       <c r="C33" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="37">
         <f>SUM(C28:C32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="25"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="5"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1654,7 +1556,7 @@
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="26"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1663,7 +1565,7 @@
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="26"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1672,7 +1574,7 @@
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="26"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1681,7 +1583,7 @@
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
-      <c r="B38" s="27"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="9"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
@@ -1698,17 +1600,17 @@
       <c r="C39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="37">
         <f>SUM(C34:C38)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="25"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="5"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -1717,7 +1619,7 @@
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="26"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -1726,7 +1628,7 @@
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="26"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -1735,7 +1637,7 @@
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="26"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -1744,7 +1646,7 @@
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
-      <c r="B44" s="27"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="9"/>
       <c r="D44" s="8"/>
       <c r="E44" s="10"/>
@@ -1761,17 +1663,17 @@
       <c r="C45" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="37">
         <f>SUM(C40:C44)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="25"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="5"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -1780,7 +1682,7 @@
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="26"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -1789,7 +1691,7 @@
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="26"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -1798,7 +1700,7 @@
     </row>
     <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -1807,7 +1709,7 @@
     </row>
     <row r="50" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
-      <c r="B50" s="27"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="9"/>
       <c r="D50" s="8"/>
       <c r="E50" s="10"/>
@@ -1824,22 +1726,22 @@
       <c r="C51" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="37">
         <f>SUM(C46:C50)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="38"/>
     </row>
     <row r="52" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="29"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="12">
         <f>MROUND(SUM(C6:C51) /60,0.2)</f>
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="18"/>
@@ -1907,7 +1809,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1920,7 +1822,7 @@
           <xm:sqref>A4:E8 A10:E14 A16:E20 A22:E26 A28:E32 A34:E38 A40:E44 A46:E50 A52:E1048576 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A21:D21 A27:D27 A33:D33 A39:D39 A45:D45 A51:D51 G52:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1930,7 +1832,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1940,7 +1842,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1953,7 +1855,7 @@
           <xm:sqref>E4:E8 E10:E14 E16:E20 E22:E26 E28:E32 E34:E38 E40:E44 E46:E50 E52:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1967,7 +1869,21 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F16:F17 F18:G20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1978,24 +1894,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F10:G10 F13:G13 F11:F12 F14</xm:sqref>
+          <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F16:G20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F22)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2009,7 +1911,7 @@
           <xm:sqref>F22:G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F28)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2023,7 +1925,7 @@
           <xm:sqref>F28:G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F34)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2037,7 +1939,7 @@
           <xm:sqref>F34:G38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F40)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2051,7 +1953,7 @@
           <xm:sqref>F40:G44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F46)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2065,7 +1967,7 @@
           <xm:sqref>F46:G50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2078,7 +1980,7 @@
           <xm:sqref>G11:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2089,6 +1991,19 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G16:G17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575913D0-3C5C-42B3-9A37-38CEF8E0265B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FCC174-B955-4C60-A66F-8D276B008D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
     <t>Continuing code optimization</t>
   </si>
   <si>
-    <t>Progress has been reset as the power got shut down by a classmate</t>
+    <t>All progress here has been reset as the PC's power source got turned off by a classmate.</t>
   </si>
 </sst>
 </file>
@@ -539,6 +539,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -551,40 +568,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1010,10 +1010,10 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1033,65 +1033,65 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="36"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1120,7 +1120,7 @@
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="31">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1143,7 +1143,7 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1162,7 +1162,7 @@
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1189,19 +1189,19 @@
       <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="26">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="31">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1222,7 +1222,7 @@
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
@@ -1283,7 +1283,7 @@
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
@@ -1310,19 +1310,19 @@
       <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="26">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="31">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
@@ -1345,7 +1345,7 @@
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
@@ -1362,11 +1362,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
@@ -1379,50 +1379,50 @@
       <c r="F18" s="23">
         <v>0.66319444444444442</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="9"/>
+    <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="26">
+        <f>SUM(C16:C18)</f>
+        <v>145</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="37">
-        <f>SUM(C16:C20)</f>
-        <v>145</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="22"/>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="27"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="27"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="27"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="9"/>
       <c r="D26" s="8"/>
       <c r="E26" s="10"/>
@@ -1474,17 +1474,17 @@
       <c r="C27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="37">
-        <f>SUM(C22:C26)</f>
+      <c r="D27" s="26">
+        <f>SUM(C20:C26)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="26"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="5"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="27"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="27"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="27"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
-      <c r="B32" s="28"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="9"/>
       <c r="D32" s="8"/>
       <c r="E32" s="10"/>
@@ -1537,17 +1537,17 @@
       <c r="C33" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="26">
         <f>SUM(C28:C32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="26"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="5"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="27"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="27"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="27"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
-      <c r="B38" s="28"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="9"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
@@ -1600,17 +1600,17 @@
       <c r="C39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="26">
         <f>SUM(C34:C38)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="26"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="5"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="27"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="27"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="27"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
-      <c r="B44" s="28"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="9"/>
       <c r="D44" s="8"/>
       <c r="E44" s="10"/>
@@ -1663,17 +1663,17 @@
       <c r="C45" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="26">
         <f>SUM(C40:C44)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="26"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="5"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="27"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="27"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="7"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="27"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="7"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="50" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
-      <c r="B50" s="28"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="9"/>
       <c r="D50" s="8"/>
       <c r="E50" s="10"/>
@@ -1726,19 +1726,19 @@
       <c r="C51" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="37">
+      <c r="D51" s="26">
         <f>SUM(C46:C50)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="38"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="27"/>
     </row>
     <row r="52" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="30"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="12">
         <f>MROUND(SUM(C6:C51) /60,0.2)</f>
         <v>7.4</v>
@@ -1758,18 +1758,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B46:B50"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -1779,18 +1773,24 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D51:G51"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C46:C50 C34:C38 C40:C44 C16:C20 B6 C10:C14 C22:C26 C28:C32 C6:C8" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C46:C50 C34:C38 C40:C44 C16:C18 B6 C10:C14 C20:C26 C28:C32 C6:C8" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B20 B22:B26 B28:B32 B34:B38 B40:B44 B46:B50" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B26 B28:B32 B34:B38 B40:B44 B46:B50" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
@@ -1819,7 +1819,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E20 A22:E26 A28:E32 A34:E38 A40:E44 A46:E50 A52:E1048576 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A21:D21 A27:D27 A33:D33 A39:D39 A45:D45 A51:D51 G52:G1048576</xm:sqref>
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E26 A28:E32 A34:E38 A40:E44 A46:E50 A52:E1048576 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A27:D27 A33:D33 A39:D39 A45:D45 A51:D51 G52:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="14" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
@@ -1852,7 +1852,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E8 E10:E14 E16:E20 E22:E26 E28:E32 E34:E38 E40:E44 E46:E50 E52:E1048576</xm:sqref>
+          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E26 E28:E32 E34:E38 E40:E44 E46:E50 E52:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="11" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
@@ -1880,7 +1880,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F16:F17 F18:G20</xm:sqref>
+          <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="10" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
@@ -1898,7 +1898,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="8" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F22)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1908,7 +1908,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F22:G26</xm:sqref>
+          <xm:sqref>F20:G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="7" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
@@ -2003,7 +2003,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G16:G17</xm:sqref>
+          <xm:sqref>G16:G18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2013,7 +2013,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E20 E22:E26 E28:E32 E34:E38 E40:E44 E46:E50 E52:E1048576</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E26 E28:E32 E34:E38 E40:E44 E46:E50 E52:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2049,6 +2049,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -2291,27 +2311,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2328,23 +2347,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FCC174-B955-4C60-A66F-8D276B008D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC467B-8B3B-48FA-A937-B244C09DB9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Restrictions" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$47</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>Apprenti.e</t>
   </si>
@@ -239,7 +239,19 @@
     <t>Continuing code optimization</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>All progress here has been reset as the PC's power source got turned off by a classmate.</t>
+  </si>
+  <si>
+    <t>Working on a presentation for another class</t>
+  </si>
+  <si>
+    <t>I'm not adding the duration, as this wasn't part of the project. However, it did take up some of the allocated project time. I'll take time off during a weekend to compensate for it.</t>
+  </si>
+  <si>
+    <t>Character.cs, Projectile.cs, Obstacle.cs</t>
   </si>
 </sst>
 </file>
@@ -591,7 +603,14 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1007,13 +1026,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1399,7 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1401,37 +1420,70 @@
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="31"/>
+    <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="31">
+        <v>45972</v>
+      </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="D20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="B21" s="32"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="19"/>
+      <c r="C21" s="7">
+        <v>105</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="26">
+        <f>SUM(C20:C21)</f>
+        <v>105</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="22"/>
@@ -1443,7 +1495,7 @@
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1455,46 +1507,46 @@
       <c r="F25" s="7"/>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="9"/>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="7"/>
       <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="17" t="s">
+      <c r="B28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="26">
-        <f>SUM(C20:C26)</f>
+      <c r="D28" s="26">
+        <f>SUM(C23:C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="19"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="22"/>
@@ -1506,7 +1558,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1518,46 +1570,46 @@
       <c r="F31" s="7"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="9"/>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="10"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="7"/>
       <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="17" t="s">
+      <c r="B34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="26">
-        <f>SUM(C28:C32)</f>
+      <c r="D34" s="26">
+        <f>SUM(C29:C33)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
-    </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="19"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="22"/>
@@ -1569,7 +1621,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1581,46 +1633,46 @@
       <c r="F37" s="7"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="9"/>
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="10"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="7"/>
       <c r="G38" s="19"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="9"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="17" t="s">
+      <c r="B40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="26">
-        <f>SUM(C34:C38)</f>
+      <c r="D40" s="26">
+        <f>SUM(C35:C39)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="27"/>
-    </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="19"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="7"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="22"/>
@@ -1632,7 +1684,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="7"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1644,126 +1696,72 @@
       <c r="F43" s="7"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="9"/>
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="10"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="7"/>
       <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="17" t="s">
+      <c r="B46" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="26">
-        <f>SUM(C40:C44)</f>
+      <c r="D46" s="26">
+        <f>SUM(C41:C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="27"/>
-    </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="26">
-        <f>SUM(C46:C50)</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="27"/>
-    </row>
-    <row r="52" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="27"/>
+    </row>
+    <row r="47" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="12">
-        <f>MROUND(SUM(C6:C51) /60,0.2)</f>
-        <v>7.4</v>
-      </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="14"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="B47" s="39"/>
+      <c r="C47" s="12">
+        <f>MROUND(SUM(C6:C46) /60,0.2)</f>
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B41:B45"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -1780,17 +1778,17 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D46:G46"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C46:C50 C34:C38 C40:C44 C16:C18 B6 C10:C14 C20:C26 C28:C32 C6:C8" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C41:C45 C29:C33 C35:C39 C16:C18 B6 C10:C14 C20:C21 C23:C27 C6:C8" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B26 B28:B32 B34:B38 B40:B44 B46:B50" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B23:B27 B29:B33 B35:B39 B41:B45" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
@@ -1809,7 +1807,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1819,10 +1817,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E26 A28:E32 A34:E38 A40:E44 A46:E50 A52:E1048576 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A27:D27 A33:D33 A39:D39 A45:D45 A51:D51 G52:G1048576</xm:sqref>
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E27 A29:E33 A35:E39 A41:E45 A47:E1048576 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A28:D28 A34:D34 A40:D40 A46:D46 G47:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1832,7 +1830,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1842,7 +1840,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1852,10 +1850,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E26 E28:E32 E34:E38 E40:E44 E46:E50 E52:E1048576</xm:sqref>
+          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E27 E29:E33 E35:E39 E41:E45 E47:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1869,7 +1867,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1883,7 +1881,7 @@
           <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1897,7 +1895,7 @@
           <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1908,11 +1906,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F20:G26</xm:sqref>
+          <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F28)))</xm:f>
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F23)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1922,11 +1920,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F28:G32</xm:sqref>
+          <xm:sqref>F23:G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F34)))</xm:f>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F29)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1936,11 +1934,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F34:G38</xm:sqref>
+          <xm:sqref>F29:G33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F40)))</xm:f>
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F35)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1950,11 +1948,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F40:G44</xm:sqref>
+          <xm:sqref>F35:G39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F46)))</xm:f>
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F41)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1964,10 +1962,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F46:G50</xm:sqref>
+          <xm:sqref>F41:G45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1980,7 +1978,7 @@
           <xm:sqref>G11:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1993,7 +1991,7 @@
           <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2005,6 +2003,19 @@
           </x14:cfRule>
           <xm:sqref>G16:G18</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G20:G21</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2013,7 +2024,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E26 E28:E32 E34:E38 E40:E44 E46:E50 E52:E1048576</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E23:E27 E29:E33 E35:E39 E41:E45 E47:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC467B-8B3B-48FA-A937-B244C09DB9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8272E5B0-E862-476F-A312-E1EB5A167B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>Apprenti.e</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Character.cs, Projectile.cs, Obstacle.cs</t>
+  </si>
+  <si>
+    <t>Started 13:10</t>
   </si>
 </sst>
 </file>
@@ -551,6 +554,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -559,44 +598,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1028,11 +1031,11 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1052,65 +1055,65 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1139,7 +1142,7 @@
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="26">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1162,7 +1165,7 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1181,7 +1184,7 @@
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1208,19 +1211,19 @@
       <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="37">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="26">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1241,7 +1244,7 @@
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
@@ -1262,7 +1265,7 @@
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
@@ -1283,7 +1286,7 @@
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
@@ -1302,7 +1305,7 @@
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
@@ -1329,19 +1332,19 @@
       <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="37">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="26">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
@@ -1364,7 +1367,7 @@
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
@@ -1385,7 +1388,7 @@
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
@@ -1412,19 +1415,19 @@
       <c r="C19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="37">
         <f>SUM(C16:C18)</f>
         <v>145</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="26">
         <v>45972</v>
       </c>
       <c r="C20" s="5"/>
@@ -1445,7 +1448,7 @@
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="7">
         <v>105</v>
       </c>
@@ -1472,26 +1475,34 @@
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="37">
         <f>SUM(C20:C21)</f>
         <v>105</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="22"/>
+      <c r="D23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="32"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1500,7 +1511,7 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="32"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1509,7 +1520,7 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="32"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1518,7 +1529,7 @@
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
-      <c r="B27" s="33"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="9"/>
       <c r="D27" s="8"/>
       <c r="E27" s="10"/>
@@ -1535,17 +1546,17 @@
       <c r="C28" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="37">
         <f>SUM(C23:C27)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="31"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="5"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1554,7 +1565,7 @@
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="32"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1563,7 +1574,7 @@
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="32"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1572,7 +1583,7 @@
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="32"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1581,7 +1592,7 @@
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
-      <c r="B33" s="33"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="9"/>
       <c r="D33" s="8"/>
       <c r="E33" s="10"/>
@@ -1598,17 +1609,17 @@
       <c r="C34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="37">
         <f>SUM(C29:C33)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="38"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="31"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="5"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1617,7 +1628,7 @@
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="32"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1626,7 +1637,7 @@
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="32"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1635,7 +1646,7 @@
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="32"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -1644,7 +1655,7 @@
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="33"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="9"/>
       <c r="D39" s="8"/>
       <c r="E39" s="10"/>
@@ -1661,17 +1672,17 @@
       <c r="C40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="37">
         <f>SUM(C35:C39)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="27"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="38"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="31"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="5"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -1680,7 +1691,7 @@
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="32"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -1689,7 +1700,7 @@
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="32"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="7"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -1698,7 +1709,7 @@
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="32"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -1707,7 +1718,7 @@
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
-      <c r="B45" s="33"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="9"/>
       <c r="D45" s="8"/>
       <c r="E45" s="10"/>
@@ -1724,19 +1735,19 @@
       <c r="C46" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D46" s="37">
         <f>SUM(C41:C45)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="27"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38"/>
     </row>
     <row r="47" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="39"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="12">
         <f>MROUND(SUM(C6:C46) /60,0.2)</f>
         <v>9.2000000000000011</v>
@@ -1756,12 +1767,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -1771,18 +1788,12 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B41:B45"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C41:C45 C29:C33 C35:C39 C16:C18 B6 C10:C14 C20:C21 C23:C27 C6:C8" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
@@ -1881,6 +1892,20 @@
           <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F20:F21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="11" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
@@ -1893,20 +1918,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="8" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
@@ -2060,26 +2071,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -2322,10 +2313,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2342,20 +2364,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8272E5B0-E862-476F-A312-E1EB5A167B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36734FCB-9680-48F9-9E2F-8ADDE1847C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Restrictions" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$45</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>Apprenti.e</t>
   </si>
@@ -254,7 +254,16 @@
     <t>Character.cs, Projectile.cs, Obstacle.cs</t>
   </si>
   <si>
-    <t>Started 13:10</t>
+    <t>Enemy.cs, along with fixes for Character, Projectile and Obstacle.</t>
+  </si>
+  <si>
+    <t>Analyzing the code to see if I missed anything that could be optimized</t>
+  </si>
+  <si>
+    <t>Implementing Jonathan's optimisation</t>
+  </si>
+  <si>
+    <t>Still needs some fixing</t>
   </si>
 </sst>
 </file>
@@ -554,6 +563,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -566,47 +592,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1029,13 +1052,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1055,65 +1078,65 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="36"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1142,7 +1165,7 @@
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="31">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1165,7 +1188,7 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1184,7 +1207,7 @@
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1211,19 +1234,19 @@
       <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="26">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="31">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1244,7 +1267,7 @@
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
@@ -1265,7 +1288,7 @@
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
@@ -1286,7 +1309,7 @@
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
@@ -1305,7 +1328,7 @@
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
@@ -1332,19 +1355,19 @@
       <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="26">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="31">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
@@ -1367,7 +1390,7 @@
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
@@ -1388,7 +1411,7 @@
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
@@ -1415,19 +1438,19 @@
       <c r="C19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="26">
         <f>SUM(C16:C18)</f>
         <v>145</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="31">
         <v>45972</v>
       </c>
       <c r="C20" s="5"/>
@@ -1448,7 +1471,7 @@
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="7">
         <v>105</v>
       </c>
@@ -1475,310 +1498,314 @@
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="26">
         <f>SUM(C20:C21)</f>
         <v>105</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="31">
+        <v>45978</v>
+      </c>
+      <c r="C23" s="5">
+        <v>105</v>
+      </c>
       <c r="D23" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="22"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="7">
+        <v>10</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0.63888888888888895</v>
+      </c>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="9"/>
+    <row r="25" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="9">
+        <v>25</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="23">
+        <v>0.65625</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="26">
+        <f>SUM(C23:C25)</f>
+        <v>140</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="37">
-        <f>SUM(C23:C27)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="22"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="27"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="22"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="7"/>
+    <row r="31" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="7"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="9"/>
+    <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="26">
+        <f>SUM(C27:C31)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="37">
-        <f>SUM(C29:C33)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="38"/>
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="22"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="27"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="22"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="7"/>
+    <row r="37" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="7"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="9"/>
+    <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="26">
+        <f>SUM(C33:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+    </row>
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="19"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="37">
-        <f>SUM(C35:C39)</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="19"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="5"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="22"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="19"/>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="27"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="22"/>
+      <c r="F42" s="7"/>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="7"/>
+    <row r="43" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="7"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+    <row r="44" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B44" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C44" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="37">
-        <f>SUM(C41:C45)</f>
+      <c r="D44" s="26">
+        <f>SUM(C39:C43)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="38"/>
-    </row>
-    <row r="47" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="12">
-        <f>MROUND(SUM(C6:C46) /60,0.2)</f>
-        <v>9.2000000000000011</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="14"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="B45" s="39"/>
+      <c r="C45" s="12">
+        <f>MROUND(SUM(C6:C44) /60,0.2)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B39:B43"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -1788,18 +1815,24 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D44:G44"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C41:C45 C29:C33 C35:C39 C16:C18 B6 C10:C14 C20:C21 C23:C27 C6:C8" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C39:C43 C27:C31 C33:C37 C16:C18 B6 C10:C14 C20:C21 C6:C8 C23:C25" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B23:B27 B29:B33 B35:B39 B41:B45" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B39:B43 B27:B31 B33:B37 B23:B25" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
@@ -1818,7 +1851,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1828,10 +1861,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E27 A29:E33 A35:E39 A41:E45 A47:E1048576 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A28:D28 A34:D34 A40:D40 A46:D46 G47:G1048576</xm:sqref>
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A27:E31 A33:E37 A39:E43 A45:E1048576 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A32:D32 A38:D38 A44:D44 G45:G1048576 A23:E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1841,7 +1874,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1851,7 +1884,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1861,10 +1894,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E27 E29:E33 E35:E39 E41:E45 E47:E1048576</xm:sqref>
+          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E27:E31 E33:E37 E39:E43 E45:E1048576 E23:E25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1878,7 +1911,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1892,7 +1925,7 @@
           <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1906,7 +1939,7 @@
           <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1920,7 +1953,7 @@
           <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F23)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1931,11 +1964,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F23:G27</xm:sqref>
+          <xm:sqref>F23 F24:G24 F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F29)))</xm:f>
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F27)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1945,11 +1978,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F29:G33</xm:sqref>
+          <xm:sqref>F27:G31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F35)))</xm:f>
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F33)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1959,11 +1992,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F35:G39</xm:sqref>
+          <xm:sqref>F33:G37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F41)))</xm:f>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F39)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1973,10 +2006,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F41:G45</xm:sqref>
+          <xm:sqref>F39:G43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1989,7 +2022,7 @@
           <xm:sqref>G11:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2002,7 +2035,7 @@
           <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2015,7 +2048,7 @@
           <xm:sqref>G16:G18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2027,6 +2060,32 @@
           </x14:cfRule>
           <xm:sqref>G20:G21</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G25</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2035,7 +2094,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E23:E27 E29:E33 E35:E39 E41:E45 E47:E1048576</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E45:E1048576 E27:E31 E33:E37 E39:E43 E23:E25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2071,6 +2130,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -2313,27 +2392,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2350,23 +2428,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36734FCB-9680-48F9-9E2F-8ADDE1847C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CCB610-5C9D-499F-A0F9-395543B3848E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Restrictions" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$43</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
   <si>
     <t>Apprenti.e</t>
   </si>
@@ -264,6 +264,22 @@
   </si>
   <si>
     <t>Still needs some fixing</t>
+  </si>
+  <si>
+    <t>Fixing rendering issues with the new system</t>
+  </si>
+  <si>
+    <t>Fixing projectiles with the new system</t>
+  </si>
+  <si>
+    <t>Since the optimization was so big, a lot of things broke and had to be changed
+There are still some issues, but I'll need Jonathan to help out</t>
+  </si>
+  <si>
+    <t>They shoot again, but have some issues that will need more fixing</t>
+  </si>
+  <si>
+    <t>Re-adding health bar visuals (obstacle, characters)</t>
   </si>
 </sst>
 </file>
@@ -563,6 +579,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -571,51 +623,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1052,13 +1075,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1078,65 +1101,65 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1165,7 +1188,7 @@
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="26">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1188,7 +1211,7 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1207,7 +1230,7 @@
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1234,19 +1257,19 @@
       <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="37">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="26">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1267,7 +1290,7 @@
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
@@ -1288,7 +1311,7 @@
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
@@ -1309,7 +1332,7 @@
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
@@ -1328,7 +1351,7 @@
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
@@ -1355,19 +1378,19 @@
       <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="37">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="26">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
@@ -1390,7 +1413,7 @@
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
@@ -1411,7 +1434,7 @@
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
@@ -1438,19 +1461,19 @@
       <c r="C19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="37">
         <f>SUM(C16:C18)</f>
         <v>145</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="26">
         <v>45972</v>
       </c>
       <c r="C20" s="5"/>
@@ -1471,7 +1494,7 @@
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="7">
         <v>105</v>
       </c>
@@ -1498,19 +1521,19 @@
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="37">
         <f>SUM(C20:C21)</f>
         <v>105</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="26">
         <v>45978</v>
       </c>
       <c r="C23" s="5">
@@ -1533,7 +1556,7 @@
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="7">
         <v>10</v>
       </c>
@@ -1552,7 +1575,7 @@
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="9">
         <v>25</v>
       </c>
@@ -1579,233 +1602,257 @@
       <c r="C26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="37">
         <f>SUM(C23:C25)</f>
         <v>140</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="7"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="26">
+        <v>45979</v>
+      </c>
+      <c r="C27" s="5">
+        <v>100</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="7">
+        <v>45</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0.46875</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="7">
+        <v>10</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="23">
+        <v>0.47569444444444442</v>
+      </c>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="9"/>
+    <row r="30" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="37">
+        <f>SUM(C27:C29)</f>
+        <v>155</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="26">
-        <f>SUM(C27:C31)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="32"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="22"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="7"/>
+    <row r="35" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="7"/>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="9"/>
+    <row r="36" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="37">
+        <f>SUM(C31:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="38"/>
+    </row>
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="26">
-        <f>SUM(C33:C37)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="27"/>
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="22"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="19"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="32"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="22"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="7"/>
+    <row r="41" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="7"/>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+    <row r="42" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B42" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C42" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="26">
-        <f>SUM(C39:C43)</f>
+      <c r="D42" s="37">
+        <f>SUM(C37:C41)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="27"/>
-    </row>
-    <row r="45" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="38" t="s">
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="38"/>
+    </row>
+    <row r="43" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="12">
-        <f>MROUND(SUM(C6:C44) /60,0.2)</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="14"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="B43" s="30"/>
+      <c r="C43" s="12">
+        <f>MROUND(SUM(C6:C42) /60,0.2)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -1815,24 +1862,18 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B37:B41"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C39:C43 C27:C31 C33:C37 C16:C18 B6 C10:C14 C20:C21 C6:C8 C23:C25" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C37:C41 C27:C29 C31:C35 C16:C18 B6 C10:C14 C20:C21 C6:C8 C23:C25" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B39:B43 B27:B31 B33:B37 B23:B25" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B37:B41 B27:B29 B31:B35 B23:B25" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
@@ -1851,7 +1892,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1861,10 +1902,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A27:E31 A33:E37 A39:E43 A45:E1048576 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A32:D32 A38:D38 A44:D44 G45:G1048576 A23:E25</xm:sqref>
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A31:E35 A37:E41 A43:E1048576 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A36:D36 A42:D42 G43:G1048576 A27:E29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1874,7 +1915,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1884,7 +1925,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1894,10 +1935,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E27:E31 E33:E37 E39:E43 E45:E1048576 E23:E25</xm:sqref>
+          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E35 E37:E41 E43:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1911,7 +1952,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1925,7 +1966,7 @@
           <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1939,7 +1980,21 @@
           <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F23)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F23 F24:G24 F25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1953,21 +2008,7 @@
           <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F23)))</xm:f>
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F23 F24:G24 F25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F27)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1978,11 +2019,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F27:G31</xm:sqref>
+          <xm:sqref>F29:G29 F27:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F33)))</xm:f>
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F31)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1992,11 +2033,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F33:G37</xm:sqref>
+          <xm:sqref>F31:G35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F39)))</xm:f>
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F37)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2006,10 +2047,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F39:G43</xm:sqref>
+          <xm:sqref>F37:G41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2022,7 +2063,7 @@
           <xm:sqref>G11:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2035,7 +2076,7 @@
           <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2048,7 +2089,7 @@
           <xm:sqref>G16:G18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2061,7 +2102,7 @@
           <xm:sqref>G20:G21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2074,7 +2115,7 @@
           <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2086,6 +2127,19 @@
           </x14:cfRule>
           <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G27:G28</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2094,7 +2148,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E45:E1048576 E27:E31 E33:E37 E39:E43 E23:E25</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E43:E1048576 E27:E29 E31:E35 E37:E41 E23:E25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2130,26 +2184,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -2392,10 +2426,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2412,20 +2477,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CCB610-5C9D-499F-A0F9-395543B3848E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924D7B02-AE76-451A-AC13-79A98711FE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Restrictions" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$65</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
   <si>
     <t>Apprenti.e</t>
   </si>
@@ -280,6 +280,48 @@
   </si>
   <si>
     <t>Re-adding health bar visuals (obstacle, characters)</t>
+  </si>
+  <si>
+    <t>Fixing an issue with zombies teleporting to 0 0</t>
+  </si>
+  <si>
+    <t>Testing the old app to see if it was easier to fix than the current one</t>
+  </si>
+  <si>
+    <t>V1 used DrawImage instead of Picturebox, which isn't as resource-heavy.</t>
+  </si>
+  <si>
+    <t>Re-implementing the old CFrame system</t>
+  </si>
+  <si>
+    <t>Adapting Enemy to work with the new CFrame system</t>
+  </si>
+  <si>
+    <t>Adapting Character to work with the new CFrame system</t>
+  </si>
+  <si>
+    <t>Adapting Obstacle to work with the new CFrame system</t>
+  </si>
+  <si>
+    <t>Jour 9</t>
+  </si>
+  <si>
+    <t>Jour 10</t>
+  </si>
+  <si>
+    <t>Jour 11</t>
+  </si>
+  <si>
+    <t>Adapting Projectile to work with the new CFrame system</t>
+  </si>
+  <si>
+    <t>Writing 1 new issue</t>
+  </si>
+  <si>
+    <t>Designing an image for the new issue</t>
+  </si>
+  <si>
+    <t>Will finish it tomorrow</t>
   </si>
 </sst>
 </file>
@@ -579,6 +621,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -591,47 +650,142 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1075,13 +1229,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1101,65 +1255,65 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="36"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1188,7 +1342,7 @@
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="31">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1211,7 +1365,7 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1230,7 +1384,7 @@
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1257,19 +1411,19 @@
       <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="26">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="31">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1290,7 +1444,7 @@
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
@@ -1311,7 +1465,7 @@
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
@@ -1332,7 +1486,7 @@
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
@@ -1351,7 +1505,7 @@
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
@@ -1378,19 +1532,19 @@
       <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="26">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="31">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
@@ -1413,7 +1567,7 @@
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
@@ -1434,7 +1588,7 @@
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
@@ -1461,19 +1615,19 @@
       <c r="C19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="26">
         <f>SUM(C16:C18)</f>
         <v>145</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="31">
         <v>45972</v>
       </c>
       <c r="C20" s="5"/>
@@ -1494,7 +1648,7 @@
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="7">
         <v>105</v>
       </c>
@@ -1521,19 +1675,19 @@
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="26">
         <f>SUM(C20:C21)</f>
         <v>105</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="31">
         <v>45978</v>
       </c>
       <c r="C23" s="5">
@@ -1556,7 +1710,7 @@
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="27"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="7">
         <v>10</v>
       </c>
@@ -1575,7 +1729,7 @@
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="9">
         <v>25</v>
       </c>
@@ -1602,19 +1756,19 @@
       <c r="C26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="26">
         <f>SUM(C23:C25)</f>
         <v>140</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="31">
         <v>45979</v>
       </c>
       <c r="C27" s="5">
@@ -1637,7 +1791,7 @@
       <c r="A28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="7">
         <v>45</v>
       </c>
@@ -1658,7 +1812,7 @@
       <c r="A29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="7">
         <v>10</v>
       </c>
@@ -1683,176 +1837,492 @@
       <c r="C30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="26">
         <f>SUM(C27:C29)</f>
         <v>155</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="22"/>
+      <c r="A31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="31">
+        <v>45985</v>
+      </c>
+      <c r="C31" s="5">
+        <v>10</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="23">
+        <v>0.55555555555555558</v>
+      </c>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="19"/>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="7">
+        <v>20</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="7"/>
+      <c r="A33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="7">
+        <v>30</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="23">
+        <v>0.59027777777777779</v>
+      </c>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="7"/>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="7">
+        <v>15</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="23">
+        <v>0.60069444444444442</v>
+      </c>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="7"/>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="7">
+        <v>10</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="23">
+        <v>0.60763888888888895</v>
+      </c>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="7">
+        <v>10</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="23">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="7">
+        <v>30</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="7">
+        <v>5</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="23">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="7">
+        <v>10</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="23">
+        <v>0.65625</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="37">
-        <f>SUM(C31:C35)</f>
+      <c r="D40" s="26">
+        <f>SUM(C31:C39)</f>
+        <v>140</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
+    </row>
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="26">
+        <f>SUM(C41:C45)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38"/>
-    </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="19"/>
-    </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="27"/>
+    </row>
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="17" t="s">
+      <c r="B52" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="37">
-        <f>SUM(C37:C41)</f>
+      <c r="D52" s="26">
+        <f>SUM(C47:C51)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="38"/>
-    </row>
-    <row r="43" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="27"/>
+    </row>
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="26">
+        <f>SUM(C53:C57)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="27"/>
+    </row>
+    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="19"/>
+    </row>
+    <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="19"/>
+    </row>
+    <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="19"/>
+    </row>
+    <row r="63" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="19"/>
+    </row>
+    <row r="64" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="26">
+        <f>SUM(C59:C63)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="27"/>
+    </row>
+    <row r="65" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="12">
-        <f>MROUND(SUM(C6:C42) /60,0.2)</f>
+      <c r="B65" s="39"/>
+      <c r="C65" s="12">
+        <f>MROUND(SUM(C6:C64) /60,0.2)</f>
+        <v>16.400000000000002</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B18"/>
+  <mergeCells count="33">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B47:B51"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -1862,18 +2332,27 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D52:G52"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C37:C41 C27:C29 C31:C35 C16:C18 B6 C10:C14 C20:C21 C6:C8 C23:C25" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C59:C63 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C53:C57 C47:C51 C41:C45" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B37:B41 B27:B29 B31:B35 B23:B25" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B59:B63 B27:B29 B23:B25 B31:B39 B53:B57 B47:B51 B41:B45" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
@@ -1892,7 +2371,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1902,10 +2381,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A31:E35 A37:E41 A43:E1048576 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A36:D36 A42:D42 G43:G1048576 A27:E29</xm:sqref>
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A59:E63 A65:E1048576 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A64:D64 G65:G1048576 A31:E39 A53:E57 A58:D58 A47:E51 A52:D52 A41:E45 A46:D46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1915,7 +2394,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1925,7 +2404,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -1935,10 +2414,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E35 E37:E41 E43:E1048576</xm:sqref>
+          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E59:E63 E65:E1048576 E31:E39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1952,7 +2431,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1966,7 +2445,7 @@
           <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1980,7 +2459,7 @@
           <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F23)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -1994,7 +2473,21 @@
           <xm:sqref>F23 F24:G24 F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F27)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F27:F28 F29:G29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2008,8 +2501,8 @@
           <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F27)))</xm:f>
+          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F31)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2019,11 +2512,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F29:G29 F27:F28</xm:sqref>
+          <xm:sqref>F31:G31 F32 F33:G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F31)))</xm:f>
+          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F59)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2033,24 +2526,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F31:G35</xm:sqref>
+          <xm:sqref>F59:G63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F37)))</xm:f>
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F37:G41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2063,7 +2542,7 @@
           <xm:sqref>G11:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2076,7 +2555,7 @@
           <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2089,7 +2568,7 @@
           <xm:sqref>G16:G18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2102,7 +2581,7 @@
           <xm:sqref>G20:G21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2115,7 +2594,7 @@
           <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2128,7 +2607,7 @@
           <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2139,6 +2618,201 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>G27:G28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{024A5688-302F-4ECA-A486-E8593BFA07A5}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F35)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F35:G37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F38)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F38:G38 F39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{1078C977-9C97-4C62-9B51-0ACFCEFF16B7}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{C8F44381-9E3F-41A8-B780-789FB71729B2}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{8B954690-3338-4C9D-94AB-D077188DE2BD}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E53:E57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{A9768957-7C49-4EEE-AEFF-F52C90BA7D29}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F53)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F53:G57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E47:E51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F47)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F47:G51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E41:E45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F41)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F41:G45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2148,7 +2822,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E43:E1048576 E27:E29 E31:E35 E37:E41 E23:E25</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E65:E1048576 E27:E29 E23:E25 E59:E63 E31:E39 E53:E57 E47:E51 E41:E45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2184,6 +2858,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -2426,27 +3120,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2463,23 +3156,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924D7B02-AE76-451A-AC13-79A98711FE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED03BF6C-08C3-47F1-B0B7-BDCAD7CA4857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Restrictions" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$62</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="93">
   <si>
     <t>Apprenti.e</t>
   </si>
@@ -322,6 +322,15 @@
   </si>
   <si>
     <t>Will finish it tomorrow</t>
+  </si>
+  <si>
+    <t>Continuation of the new issue's design</t>
+  </si>
+  <si>
+    <t>Adapting the main program to work with the new CFrame system</t>
+  </si>
+  <si>
+    <t>This took a while, as there was a big memory leak to fix. I also made the camera follow the player during that time. This is not finished yet.</t>
   </si>
 </sst>
 </file>
@@ -621,6 +630,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -629,44 +674,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -691,6 +700,146 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -712,13 +861,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -740,13 +882,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -762,132 +897,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1229,13 +1238,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1255,65 +1264,65 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1342,7 +1351,7 @@
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="26">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1365,7 +1374,7 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1384,7 +1393,7 @@
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1411,19 +1420,19 @@
       <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="37">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="26">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1444,7 +1453,7 @@
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
@@ -1465,7 +1474,7 @@
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
@@ -1486,7 +1495,7 @@
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
@@ -1505,7 +1514,7 @@
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
@@ -1532,19 +1541,19 @@
       <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="37">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="26">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
@@ -1567,7 +1576,7 @@
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
@@ -1588,7 +1597,7 @@
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
@@ -1615,19 +1624,19 @@
       <c r="C19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="37">
         <f>SUM(C16:C18)</f>
         <v>145</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="26">
         <v>45972</v>
       </c>
       <c r="C20" s="5"/>
@@ -1648,7 +1657,7 @@
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="7">
         <v>105</v>
       </c>
@@ -1675,19 +1684,19 @@
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="37">
         <f>SUM(C20:C21)</f>
         <v>105</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="26">
         <v>45978</v>
       </c>
       <c r="C23" s="5">
@@ -1710,7 +1719,7 @@
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="7">
         <v>10</v>
       </c>
@@ -1729,7 +1738,7 @@
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="9">
         <v>25</v>
       </c>
@@ -1756,19 +1765,19 @@
       <c r="C26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="37">
         <f>SUM(C23:C25)</f>
         <v>140</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
     </row>
     <row r="27" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="26">
         <v>45979</v>
       </c>
       <c r="C27" s="5">
@@ -1791,7 +1800,7 @@
       <c r="A28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="32"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="7">
         <v>45</v>
       </c>
@@ -1812,7 +1821,7 @@
       <c r="A29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="32"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="7">
         <v>10</v>
       </c>
@@ -1837,19 +1846,19 @@
       <c r="C30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="37">
         <f>SUM(C27:C29)</f>
         <v>155</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="26">
         <v>45985</v>
       </c>
       <c r="C31" s="5">
@@ -1870,7 +1879,7 @@
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="7">
         <v>20</v>
       </c>
@@ -1891,7 +1900,7 @@
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="7">
         <v>30</v>
       </c>
@@ -1910,7 +1919,7 @@
       <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="7">
         <v>15</v>
       </c>
@@ -1929,7 +1938,7 @@
       <c r="A35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="7">
         <v>10</v>
       </c>
@@ -1948,7 +1957,7 @@
       <c r="A36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="7">
         <v>10</v>
       </c>
@@ -1967,7 +1976,7 @@
       <c r="A37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="32"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="7">
         <v>30</v>
       </c>
@@ -1986,7 +1995,7 @@
       <c r="A38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="7">
         <v>5</v>
       </c>
@@ -2002,8 +2011,10 @@
       <c r="G38" s="19"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="27"/>
       <c r="C39" s="7">
         <v>10</v>
       </c>
@@ -2030,299 +2041,302 @@
       <c r="C40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="37">
         <f>SUM(C31:C39)</f>
         <v>140</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="27"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="38"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="22"/>
+      <c r="A41" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="26">
+        <v>45986</v>
+      </c>
+      <c r="C41" s="5">
+        <v>15</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="23">
+        <v>0.34375</v>
+      </c>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="19"/>
+    <row r="42" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="7">
+        <v>175</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="25">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="37">
+        <f>SUM(C41:C42)</f>
+        <v>190</v>
+      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="38"/>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="7"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="22"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="9"/>
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="7"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="22"/>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="26">
-        <f>SUM(C41:C45)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="27"/>
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="5"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="22"/>
+      <c r="F47" s="7"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="7"/>
+    <row r="48" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="22"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="7"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="19"/>
+    <row r="49" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="37">
+        <f>SUM(C44:C48)</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="38"/>
     </row>
     <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="7"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="7"/>
+      <c r="F50" s="22"/>
       <c r="G50" s="19"/>
     </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="9"/>
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="7"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="22"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="26">
-        <f>SUM(C47:C51)</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="27"/>
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="19"/>
     </row>
     <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="5"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="22"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="19"/>
     </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="7"/>
+    <row r="54" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="22"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="19"/>
     </row>
-    <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="19"/>
+    <row r="55" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="37">
+        <f>SUM(C50:C54)</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="38"/>
     </row>
     <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="7"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="7"/>
+      <c r="F56" s="22"/>
       <c r="G56" s="19"/>
     </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="9"/>
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="7"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="22"/>
       <c r="G57" s="19"/>
     </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="26">
-        <f>SUM(C53:C57)</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="27"/>
+    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="19"/>
     </row>
     <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="5"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="22"/>
+      <c r="F59" s="7"/>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="7"/>
+    <row r="60" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="22"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="7"/>
       <c r="G60" s="19"/>
     </row>
-    <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="19"/>
-    </row>
-    <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="19"/>
-    </row>
-    <row r="63" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="19"/>
-    </row>
-    <row r="64" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
+    <row r="61" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B61" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C61" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="26">
-        <f>SUM(C59:C63)</f>
+      <c r="D61" s="37">
+        <f>SUM(C56:C60)</f>
         <v>0</v>
       </c>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="27"/>
-    </row>
-    <row r="65" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="38" t="s">
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="38"/>
+    </row>
+    <row r="62" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="12">
-        <f>MROUND(SUM(C6:C64) /60,0.2)</f>
-        <v>16.400000000000002</v>
-      </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="14"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="B62" s="29"/>
+      <c r="C62" s="12">
+        <f>MROUND(SUM(C6:C61) /60,0.2)</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -2332,27 +2346,21 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B44:B48"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C59:C63 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C53:C57 C47:C51 C41:C45" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C56:C60 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C50:C54 C44:C48 C41:C42" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B59:B63 B27:B29 B23:B25 B31:B39 B53:B57 B47:B51 B41:B45" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B56:B60 B27:B29 B23:B25 B31:B39 B50:B54 B44:B48 B41:B42" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
@@ -2371,7 +2379,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2381,10 +2389,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A59:E63 A65:E1048576 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A64:D64 G65:G1048576 A31:E39 A53:E57 A58:D58 A47:E51 A52:D52 A41:E45 A46:D46</xm:sqref>
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A56:E60 A62:E1048576 A50:E54 A44:E48 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A49:D49 A55:D55 A61:D61 G62:G1048576 A41:E42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2394,7 +2402,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2404,7 +2412,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2414,10 +2422,109 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E59:E63 E65:E1048576 E31:E39</xm:sqref>
+          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E56:E60 E62:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E41:E42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E44:E48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{1078C977-9C97-4C62-9B51-0ACFCEFF16B7}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{C8F44381-9E3F-41A8-B780-789FB71729B2}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{8B954690-3338-4C9D-94AB-D077188DE2BD}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E50:E54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2431,7 +2538,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2445,7 +2552,7 @@
           <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2459,7 +2566,7 @@
           <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F23)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2473,7 +2580,7 @@
           <xm:sqref>F23 F24:G24 F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F27)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2487,7 +2594,7 @@
           <xm:sqref>F27:F28 F29:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2501,7 +2608,7 @@
           <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F31)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2512,11 +2619,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F31:G31 F32 F33:G34</xm:sqref>
+          <xm:sqref>F31:G31 F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F59)))</xm:f>
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F33)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2526,10 +2633,66 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F59:G63</xm:sqref>
+          <xm:sqref>F33:G38 F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F41)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F41:G41 F42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F44)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F44:G48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{A9768957-7C49-4EEE-AEFF-F52C90BA7D29}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F50)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F50:G54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F56)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F56:G60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2542,7 +2705,7 @@
           <xm:sqref>G11:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2555,7 +2718,7 @@
           <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2568,7 +2731,7 @@
           <xm:sqref>G16:G18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2581,7 +2744,7 @@
           <xm:sqref>G20:G21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2594,7 +2757,7 @@
           <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2607,7 +2770,7 @@
           <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2620,7 +2783,7 @@
           <xm:sqref>G27:G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2633,8 +2796,7 @@
           <xm:sqref>G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{024A5688-302F-4ECA-A486-E8593BFA07A5}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F35)))</xm:f>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2644,11 +2806,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F35:G37</xm:sqref>
+          <xm:sqref>G39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F38)))</xm:f>
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2658,161 +2819,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F38:G38 F39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{1078C977-9C97-4C62-9B51-0ACFCEFF16B7}">
-            <xm:f>Restrictions!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{C8F44381-9E3F-41A8-B780-789FB71729B2}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{8B954690-3338-4C9D-94AB-D077188DE2BD}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E53:E57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{A9768957-7C49-4EEE-AEFF-F52C90BA7D29}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F53)))</xm:f>
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F53:G57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
-            <xm:f>Restrictions!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E47:E51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F47)))</xm:f>
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F47:G51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
-            <xm:f>Restrictions!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E41:E45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F41)))</xm:f>
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F41:G45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G39</xm:sqref>
+          <xm:sqref>G42</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2822,7 +2829,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E65:E1048576 E27:E29 E23:E25 E59:E63 E31:E39 E53:E57 E47:E51 E41:E45</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E62:E1048576 E27:E29 E23:E25 E56:E60 E31:E39 E50:E54 E44:E48 E41:E42</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2858,26 +2865,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -3120,10 +3107,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3140,20 +3158,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED03BF6C-08C3-47F1-B0B7-BDCAD7CA4857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD95841-740B-40B2-BBEF-795A4263AF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Restrictions" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$58</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="95">
   <si>
     <t>Apprenti.e</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>This took a while, as there was a big memory leak to fix. I also made the camera follow the player during that time. This is not finished yet.</t>
+  </si>
+  <si>
+    <t>Fixing the memory leak</t>
+  </si>
+  <si>
+    <t>Still not done, but I got an idea, which is to do a using(Bitmap Sprite = GetSprite(Type)) instead of storing a sprite for each entity</t>
   </si>
 </sst>
 </file>
@@ -542,7 +548,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -634,16 +640,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -660,29 +681,29 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1238,13 +1259,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1264,65 +1285,65 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="36"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1351,7 +1372,7 @@
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="32">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1374,7 +1395,7 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1393,7 +1414,7 @@
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1420,19 +1441,19 @@
       <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="27">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="32">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1453,7 +1474,7 @@
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
@@ -1474,7 +1495,7 @@
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
@@ -1495,7 +1516,7 @@
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
@@ -1514,7 +1535,7 @@
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
@@ -1541,19 +1562,19 @@
       <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="27">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="32">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
@@ -1576,7 +1597,7 @@
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
@@ -1597,7 +1618,7 @@
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
@@ -1624,19 +1645,19 @@
       <c r="C19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="27">
         <f>SUM(C16:C18)</f>
         <v>145</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="32">
         <v>45972</v>
       </c>
       <c r="C20" s="5"/>
@@ -1657,7 +1678,7 @@
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="7">
         <v>105</v>
       </c>
@@ -1684,19 +1705,19 @@
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="27">
         <f>SUM(C20:C21)</f>
         <v>105</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="32">
         <v>45978</v>
       </c>
       <c r="C23" s="5">
@@ -1719,7 +1740,7 @@
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="27"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="7">
         <v>10</v>
       </c>
@@ -1738,7 +1759,7 @@
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="27"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="9">
         <v>25</v>
       </c>
@@ -1765,19 +1786,19 @@
       <c r="C26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="27">
         <f>SUM(C23:C25)</f>
         <v>140</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="32">
         <v>45979</v>
       </c>
       <c r="C27" s="5">
@@ -1800,7 +1821,7 @@
       <c r="A28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="7">
         <v>45</v>
       </c>
@@ -1821,7 +1842,7 @@
       <c r="A29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="27"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="7">
         <v>10</v>
       </c>
@@ -1846,19 +1867,19 @@
       <c r="C30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="27">
         <f>SUM(C27:C29)</f>
         <v>155</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="32">
         <v>45985</v>
       </c>
       <c r="C31" s="5">
@@ -1879,7 +1900,7 @@
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="27"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="7">
         <v>20</v>
       </c>
@@ -1900,7 +1921,7 @@
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="27"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="7">
         <v>30</v>
       </c>
@@ -1919,7 +1940,7 @@
       <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="27"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="7">
         <v>15</v>
       </c>
@@ -1938,7 +1959,7 @@
       <c r="A35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="27"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="7">
         <v>10</v>
       </c>
@@ -1957,7 +1978,7 @@
       <c r="A36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="7">
         <v>10</v>
       </c>
@@ -1976,7 +1997,7 @@
       <c r="A37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="27"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="7">
         <v>30</v>
       </c>
@@ -1995,7 +2016,7 @@
       <c r="A38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="27"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="7">
         <v>5</v>
       </c>
@@ -2014,7 +2035,7 @@
       <c r="A39" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="27"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="7">
         <v>10</v>
       </c>
@@ -2041,19 +2062,19 @@
       <c r="C40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="27">
         <f>SUM(C31:C39)</f>
         <v>140</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="32">
         <v>45986</v>
       </c>
       <c r="C41" s="5">
@@ -2074,7 +2095,7 @@
       <c r="A42" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="27"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="7">
         <v>175</v>
       </c>
@@ -2101,242 +2122,219 @@
       <c r="C43" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="27">
         <f>SUM(C41:C42)</f>
         <v>190</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="38"/>
-    </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="26"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="26">
+        <v>45992</v>
+      </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="19"/>
+      <c r="D44" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="41">
+        <v>140</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="27">
+        <f>SUM(C44:C44)</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="7"/>
+      <c r="A46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="32">
+        <v>45993</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="22"/>
       <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="27"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="7"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="7"/>
+      <c r="F47" s="22"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="9"/>
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="10"/>
+      <c r="E48" s="8"/>
       <c r="F48" s="7"/>
       <c r="G48" s="19"/>
     </row>
-    <row r="49" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="17" t="s">
+      <c r="B51" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="37">
-        <f>SUM(C44:C48)</f>
+      <c r="D51" s="27">
+        <f>SUM(C46:C50)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
-    </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="19"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
     </row>
     <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="7"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="22"/>
       <c r="G52" s="19"/>
     </row>
     <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="27"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="7"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="22"/>
       <c r="G53" s="19"/>
     </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="9"/>
+    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="10"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="7"/>
       <c r="G54" s="19"/>
     </row>
-    <row r="55" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="17" t="s">
+      <c r="B57" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="37">
-        <f>SUM(C50:C54)</f>
+      <c r="D57" s="27">
+        <f>SUM(C52:C56)</f>
         <v>0</v>
       </c>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="38"/>
-    </row>
-    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="19"/>
-    </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="37">
-        <f>SUM(C56:C60)</f>
-        <v>0</v>
-      </c>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="38"/>
-    </row>
-    <row r="62" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="28" t="s">
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="28"/>
+    </row>
+    <row r="58" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="12">
-        <f>MROUND(SUM(C6:C61) /60,0.2)</f>
+      <c r="B58" s="40"/>
+      <c r="C58" s="12">
+        <f>MROUND(SUM(C6:C57) /60,0.2)</f>
         <v>19.600000000000001</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="14"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+      <c r="D58" s="13"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B18"/>
+  <mergeCells count="32">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -2346,21 +2344,27 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D45:G45"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C56:C60 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C50:C54 C44:C48 C41:C42" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C52:C56 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C46:C50 C44 C41:C42" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B56:B60 B27:B29 B23:B25 B31:B39 B50:B54 B44:B48 B41:B42" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B52:B56 B27:B29 B23:B25 B31:B39 B46:B50 B44 B41:B42" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
@@ -2379,7 +2383,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2389,10 +2393,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A56:E60 A62:E1048576 A50:E54 A44:E48 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A49:D49 A55:D55 A61:D61 G62:G1048576 A41:E42</xm:sqref>
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A52:E56 A58:E1048576 A46:E50 A44:E44 A41:E42 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A51:D51 A57:D57 G58:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2402,7 +2406,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2412,7 +2416,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2422,10 +2426,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E56:E60 E62:E1048576</xm:sqref>
+          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E52:E56 E58:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2435,7 +2439,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2445,7 +2449,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2458,7 +2462,7 @@
           <xm:sqref>E41:E42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2468,7 +2472,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2478,7 +2482,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2488,10 +2492,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E44:E48</xm:sqref>
+          <xm:sqref>E44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{1078C977-9C97-4C62-9B51-0ACFCEFF16B7}">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{1078C977-9C97-4C62-9B51-0ACFCEFF16B7}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2501,7 +2505,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{C8F44381-9E3F-41A8-B780-789FB71729B2}">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{C8F44381-9E3F-41A8-B780-789FB71729B2}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2511,7 +2515,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{8B954690-3338-4C9D-94AB-D077188DE2BD}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{8B954690-3338-4C9D-94AB-D077188DE2BD}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2521,10 +2525,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E50:E54</xm:sqref>
+          <xm:sqref>E46:E50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2538,7 +2542,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2552,7 +2556,7 @@
           <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2566,7 +2570,7 @@
           <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F23)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2580,7 +2584,7 @@
           <xm:sqref>F23 F24:G24 F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F27)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2594,7 +2598,7 @@
           <xm:sqref>F27:F28 F29:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2608,7 +2612,7 @@
           <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F31)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2622,7 +2626,7 @@
           <xm:sqref>F31:G31 F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F33)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2636,7 +2640,7 @@
           <xm:sqref>F33:G38 F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F41)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2650,7 +2654,7 @@
           <xm:sqref>F41:G41 F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F44)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2661,11 +2665,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F44:G48</xm:sqref>
+          <xm:sqref>F44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{A9768957-7C49-4EEE-AEFF-F52C90BA7D29}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F50)))</xm:f>
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{A9768957-7C49-4EEE-AEFF-F52C90BA7D29}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F46)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2675,11 +2679,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F50:G54</xm:sqref>
+          <xm:sqref>F46:G50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F56)))</xm:f>
+          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F52)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2689,10 +2693,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F56:G60</xm:sqref>
+          <xm:sqref>F52:G56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2705,7 +2709,7 @@
           <xm:sqref>G11:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2718,7 +2722,7 @@
           <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2731,7 +2735,7 @@
           <xm:sqref>G16:G18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2744,7 +2748,7 @@
           <xm:sqref>G20:G21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2757,7 +2761,7 @@
           <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2770,7 +2774,7 @@
           <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2783,7 +2787,7 @@
           <xm:sqref>G27:G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2796,7 +2800,7 @@
           <xm:sqref>G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2809,7 +2813,7 @@
           <xm:sqref>G39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2820,6 +2824,19 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>G42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G44</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2829,7 +2846,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E62:E1048576 E27:E29 E23:E25 E56:E60 E31:E39 E50:E54 E44:E48 E41:E42</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E58:E1048576 E27:E29 E23:E25 E52:E56 E31:E39 E46:E50 E44 E41:E42</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2865,6 +2882,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -3107,27 +3144,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3144,23 +3180,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD95841-740B-40B2-BBEF-795A4263AF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE89EA2-E2B4-4883-B3B4-D68BEAB12819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
   <si>
     <t>Apprenti.e</t>
   </si>
@@ -337,6 +337,21 @@
   </si>
   <si>
     <t>Still not done, but I got an idea, which is to do a using(Bitmap Sprite = GetSprite(Type)) instead of storing a sprite for each entity</t>
+  </si>
+  <si>
+    <t>Getting better sprites, and renaming them in the code</t>
+  </si>
+  <si>
+    <t>Images/Coding</t>
+  </si>
+  <si>
+    <t>Re-adding health bar visuals (obstacle, characters) and creating a better GenerateWaves()</t>
+  </si>
+  <si>
+    <t>Creating better collisions</t>
+  </si>
+  <si>
+    <t>Implemented a background image to the game</t>
   </si>
 </sst>
 </file>
@@ -548,7 +563,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -640,6 +655,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -648,55 +699,50 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1261,11 +1307,11 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1285,65 +1331,65 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="36"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1372,7 +1418,7 @@
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="27">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1395,7 +1441,7 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1414,7 +1460,7 @@
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1441,19 +1487,19 @@
       <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="38">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="27">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1474,7 +1520,7 @@
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
@@ -1495,7 +1541,7 @@
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
@@ -1516,7 +1562,7 @@
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
@@ -1535,7 +1581,7 @@
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
@@ -1562,19 +1608,19 @@
       <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="38">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="27">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
@@ -1597,7 +1643,7 @@
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
@@ -1618,7 +1664,7 @@
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
@@ -1645,19 +1691,19 @@
       <c r="C19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="38">
         <f>SUM(C16:C18)</f>
         <v>145</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="27">
         <v>45972</v>
       </c>
       <c r="C20" s="5"/>
@@ -1678,7 +1724,7 @@
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="7">
         <v>105</v>
       </c>
@@ -1705,19 +1751,19 @@
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="38">
         <f>SUM(C20:C21)</f>
         <v>105</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="27">
         <v>45978</v>
       </c>
       <c r="C23" s="5">
@@ -1740,7 +1786,7 @@
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="7">
         <v>10</v>
       </c>
@@ -1759,7 +1805,7 @@
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="33"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="9">
         <v>25</v>
       </c>
@@ -1786,19 +1832,19 @@
       <c r="C26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="38">
         <f>SUM(C23:C25)</f>
         <v>140</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="27">
         <v>45979</v>
       </c>
       <c r="C27" s="5">
@@ -1821,7 +1867,7 @@
       <c r="A28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="7">
         <v>45</v>
       </c>
@@ -1842,7 +1888,7 @@
       <c r="A29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="7">
         <v>10</v>
       </c>
@@ -1867,19 +1913,19 @@
       <c r="C30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="38">
         <f>SUM(C27:C29)</f>
         <v>155</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="27">
         <v>45985</v>
       </c>
       <c r="C31" s="5">
@@ -1900,7 +1946,7 @@
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="33"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="7">
         <v>20</v>
       </c>
@@ -1921,7 +1967,7 @@
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="33"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="7">
         <v>30</v>
       </c>
@@ -1940,7 +1986,7 @@
       <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="33"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="7">
         <v>15</v>
       </c>
@@ -1959,7 +2005,7 @@
       <c r="A35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="7">
         <v>10</v>
       </c>
@@ -1978,7 +2024,7 @@
       <c r="A36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="7">
         <v>10</v>
       </c>
@@ -1997,7 +2043,7 @@
       <c r="A37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="33"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="7">
         <v>30</v>
       </c>
@@ -2016,7 +2062,7 @@
       <c r="A38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="33"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="7">
         <v>5</v>
       </c>
@@ -2035,7 +2081,7 @@
       <c r="A39" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="33"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="7">
         <v>10</v>
       </c>
@@ -2062,19 +2108,19 @@
       <c r="C40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="38">
         <f>SUM(C31:C39)</f>
         <v>140</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="27">
         <v>45986</v>
       </c>
       <c r="C41" s="5">
@@ -2095,7 +2141,7 @@
       <c r="A42" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="33"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="7">
         <v>175</v>
       </c>
@@ -2122,13 +2168,13 @@
       <c r="C43" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43" s="38">
         <f>SUM(C41:C42)</f>
         <v>190</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="39"/>
     </row>
     <row r="44" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -2137,15 +2183,17 @@
       <c r="B44" s="26">
         <v>45992</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C44" s="5">
+        <v>140</v>
+      </c>
       <c r="D44" s="8" t="s">
         <v>93</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="41">
-        <v>140</v>
+      <c r="F44" s="23">
+        <v>0.65625</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>94</v>
@@ -2161,65 +2209,109 @@
       <c r="C45" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="38">
         <f>SUM(C44:C44)</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="28"/>
+        <v>140</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="39"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="32">
+      <c r="B46" s="27">
         <v>45993</v>
       </c>
-      <c r="C46" s="5"/>
+      <c r="C46" s="5">
+        <v>45</v>
+      </c>
       <c r="D46" s="8" t="s">
         <v>93</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F46" s="22"/>
+        <v>34</v>
+      </c>
+      <c r="F46" s="23">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="G46" s="19"/>
     </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="22"/>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="28"/>
+      <c r="C47" s="7">
+        <v>75</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="23">
+        <v>0.42708333333333331</v>
+      </c>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="7"/>
+    <row r="48" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="28"/>
+      <c r="C48" s="7">
+        <v>15</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="23">
+        <v>0.4375</v>
+      </c>
       <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="7"/>
+      <c r="A49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="28"/>
+      <c r="C49" s="7">
+        <v>10</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="23">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="G49" s="19"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="7"/>
+    <row r="50" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="28"/>
+      <c r="C50" s="7">
+        <v>10</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="23">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="G50" s="19"/>
     </row>
     <row r="51" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2232,17 +2324,17 @@
       <c r="C51" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="38">
         <f>SUM(C46:C50)</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="28"/>
+        <v>155</v>
+      </c>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="32"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="5"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2251,7 +2343,7 @@
     </row>
     <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="33"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="7"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2260,7 +2352,7 @@
     </row>
     <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="33"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="7"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2269,7 +2361,7 @@
     </row>
     <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="33"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="7"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2278,7 +2370,7 @@
     </row>
     <row r="56" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
-      <c r="B56" s="34"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="9"/>
       <c r="D56" s="8"/>
       <c r="E56" s="10"/>
@@ -2295,22 +2387,22 @@
       <c r="C57" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="27">
+      <c r="D57" s="38">
         <f>SUM(C52:C56)</f>
         <v>0</v>
       </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="28"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="39"/>
     </row>
     <row r="58" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="40"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="12">
         <f>MROUND(SUM(C6:C57) /60,0.2)</f>
-        <v>19.600000000000001</v>
+        <v>24.6</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="18"/>
@@ -2327,14 +2419,21 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -2344,27 +2443,20 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B41:B42"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C52:C56 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C46:C50 C44 C41:C42" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C52:C56 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C50" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B52:B56 B27:B29 B23:B25 B31:B39 B46:B50 B44 B41:B42" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B52:B56 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B50" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
@@ -2383,7 +2475,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2393,10 +2485,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A52:E56 A58:E1048576 A46:E50 A44:E44 A41:E42 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A51:D51 A57:D57 G58:G1048576</xm:sqref>
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A52:E56 A58:E1048576 A44:E44 A41:E42 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A51:D51 A57:D57 G58:G1048576 A46:E50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2406,7 +2498,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2416,7 +2508,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2429,7 +2521,7 @@
           <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E52:E56 E58:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2439,7 +2531,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2449,7 +2541,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2462,7 +2554,7 @@
           <xm:sqref>E41:E42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2472,7 +2564,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2482,7 +2574,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2495,7 +2587,7 @@
           <xm:sqref>E44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{1078C977-9C97-4C62-9B51-0ACFCEFF16B7}">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{1078C977-9C97-4C62-9B51-0ACFCEFF16B7}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2505,7 +2597,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{C8F44381-9E3F-41A8-B780-789FB71729B2}">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{C8F44381-9E3F-41A8-B780-789FB71729B2}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2515,7 +2607,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{8B954690-3338-4C9D-94AB-D077188DE2BD}">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{8B954690-3338-4C9D-94AB-D077188DE2BD}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2525,10 +2617,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E46:E50</xm:sqref>
+          <xm:sqref>E46:E49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <x14:cfRule type="containsText" priority="38" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2542,7 +2634,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="36" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2556,7 +2648,7 @@
           <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="30" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2570,7 +2662,7 @@
           <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F23)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2584,7 +2676,7 @@
           <xm:sqref>F23 F24:G24 F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="28" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F27)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2598,7 +2690,21 @@
           <xm:sqref>F27:F28 F29:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F44)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="37" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2612,7 +2718,7 @@
           <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F31)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2626,7 +2732,7 @@
           <xm:sqref>F31:G31 F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F33)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2640,7 +2746,7 @@
           <xm:sqref>F33:G38 F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F41)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2654,8 +2760,8 @@
           <xm:sqref>F41:G41 F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F44)))</xm:f>
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{A9768957-7C49-4EEE-AEFF-F52C90BA7D29}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,G46)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2665,24 +2771,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F44</xm:sqref>
+          <xm:sqref>G46:G49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{A9768957-7C49-4EEE-AEFF-F52C90BA7D29}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F46)))</xm:f>
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F46:G50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F52)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2696,7 +2788,7 @@
           <xm:sqref>F52:G56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2709,7 +2801,7 @@
           <xm:sqref>G11:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2722,7 +2814,7 @@
           <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2735,7 +2827,7 @@
           <xm:sqref>G16:G18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
+          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2748,7 +2840,7 @@
           <xm:sqref>G20:G21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
+          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2761,7 +2853,7 @@
           <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2774,7 +2866,7 @@
           <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2787,7 +2879,7 @@
           <xm:sqref>G27:G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2800,7 +2892,7 @@
           <xm:sqref>G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2813,7 +2905,7 @@
           <xm:sqref>G39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2826,7 +2918,7 @@
           <xm:sqref>G42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2837,6 +2929,67 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>G44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{670AA369-23B3-423E-BBC6-44D0B56E67BC}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F46)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F46:F49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F50)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F50:G50</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2846,7 +2999,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E58:E1048576 E27:E29 E23:E25 E52:E56 E31:E39 E46:E50 E44 E41:E42</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E58:E1048576 E27:E29 E23:E25 E52:E56 E31:E39 E41:E42 E44 E46:E50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2882,26 +3035,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -3144,10 +3277,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3164,20 +3328,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE89EA2-E2B4-4883-B3B4-D68BEAB12819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0DDCEF-9EEF-47E1-8913-1890B2F6A97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Restrictions" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$59</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
   <si>
     <t>Apprenti.e</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>Implemented a background image to the game</t>
+  </si>
+  <si>
+    <t>Setting up the presentation PC</t>
   </si>
 </sst>
 </file>
@@ -1305,13 +1308,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51:XFD51"/>
+      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2315,36 +2318,46 @@
       <c r="G50" s="19"/>
     </row>
     <row r="51" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="28"/>
+      <c r="C51" s="7">
+        <v>35</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="23">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B52" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C52" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="38">
-        <f>SUM(C46:C50)</f>
-        <v>155</v>
-      </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="39"/>
-    </row>
-    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="19"/>
+      <c r="D52" s="38">
+        <f>SUM(C46:C51)</f>
+        <v>190</v>
+      </c>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="39"/>
     </row>
     <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="7"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="22"/>
@@ -2356,7 +2369,7 @@
       <c r="C54" s="7"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="7"/>
+      <c r="F54" s="22"/>
       <c r="G54" s="19"/>
     </row>
     <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2368,54 +2381,63 @@
       <c r="F55" s="7"/>
       <c r="G55" s="19"/>
     </row>
-    <row r="56" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="9"/>
+    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="10"/>
+      <c r="E56" s="8"/>
       <c r="F56" s="7"/>
       <c r="G56" s="19"/>
     </row>
     <row r="57" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="9"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B58" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C58" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="38">
-        <f>SUM(C52:C56)</f>
+      <c r="D58" s="38">
+        <f>SUM(C53:C57)</f>
         <v>0</v>
       </c>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="39"/>
-    </row>
-    <row r="58" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="39"/>
+    </row>
+    <row r="59" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="12">
-        <f>MROUND(SUM(C6:C57) /60,0.2)</f>
-        <v>24.6</v>
-      </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="14"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="B59" s="30"/>
+      <c r="C59" s="12">
+        <f>MROUND(SUM(C6:C58) /60,0.2)</f>
+        <v>25</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -2423,8 +2445,8 @@
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D52:G52"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="D45:G45"/>
     <mergeCell ref="D9:G9"/>
@@ -2446,17 +2468,17 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
     <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B46:B51"/>
     <mergeCell ref="B41:B42"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C52:C56 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C50" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C53:C57 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B52:B56 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B50" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B53:B57 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
@@ -2485,7 +2507,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A52:E56 A58:E1048576 A44:E44 A41:E42 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A51:D51 A57:D57 G58:G1048576 A46:E50</xm:sqref>
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A53:E57 A59:E1048576 A44:E44 A41:E42 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A58:D58 G59:G1048576 A46:E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="41" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
@@ -2518,7 +2540,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E52:E56 E58:E1048576</xm:sqref>
+          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E53:E57 E59:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="10" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
@@ -2775,7 +2797,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="31" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F52)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F53)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2785,7 +2807,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F52:G56</xm:sqref>
+          <xm:sqref>F53:G57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="30" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
@@ -2975,7 +2997,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E50</xm:sqref>
+          <xm:sqref>E50:E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
@@ -2989,7 +3011,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F50:G50</xm:sqref>
+          <xm:sqref>F50:G51</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2999,7 +3021,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E58:E1048576 E27:E29 E23:E25 E52:E56 E31:E39 E41:E42 E44 E46:E50</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E59:E1048576 E27:E29 E23:E25 E53:E57 E31:E39 E41:E42 E44 E46:E51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0DDCEF-9EEF-47E1-8913-1890B2F6A97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F27CBEB-2AE5-4CF3-89BA-90BD357F1379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Restrictions" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$87</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="111">
   <si>
     <t>Apprenti.e</t>
   </si>
@@ -356,12 +356,42 @@
   <si>
     <t>Setting up the presentation PC</t>
   </si>
+  <si>
+    <t>Jour 12</t>
+  </si>
+  <si>
+    <t>Jour 13</t>
+  </si>
+  <si>
+    <t>Jour 14</t>
+  </si>
+  <si>
+    <t>Jour 15</t>
+  </si>
+  <si>
+    <t>Jour 16</t>
+  </si>
+  <si>
+    <t>Preparation</t>
+  </si>
+  <si>
+    <t>Preparing today's PC</t>
+  </si>
+  <si>
+    <t>I had issues with this, as Visual Studio 2022 wasn't, and couldn't, be installed, so we had to result in trying to use VSC, then installing VS2026</t>
+  </si>
+  <si>
+    <t>Creating new enemy types</t>
+  </si>
+  <si>
+    <t>Implemented the wither, but not any other (didn't have time)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Century Gothic"/>
@@ -396,6 +426,12 @@
       <sz val="10"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -658,6 +694,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -665,12 +718,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -688,29 +735,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="58">
     <dxf>
       <fill>
         <patternFill>
@@ -721,6 +757,209 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -742,168 +981,84 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1308,13 +1463,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomRight" activeCell="D56" sqref="D56:G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1334,65 +1489,65 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="37"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="37"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1421,7 +1576,7 @@
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="32">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1444,7 +1599,7 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1463,7 +1618,7 @@
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1490,19 +1645,19 @@
       <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="27">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="32">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1523,7 +1678,7 @@
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
@@ -1544,7 +1699,7 @@
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
@@ -1565,7 +1720,7 @@
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
@@ -1584,7 +1739,7 @@
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
@@ -1611,19 +1766,19 @@
       <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="27">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="32">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
@@ -1646,7 +1801,7 @@
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
@@ -1667,7 +1822,7 @@
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
@@ -1694,19 +1849,19 @@
       <c r="C19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="27">
         <f>SUM(C16:C18)</f>
         <v>145</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="32">
         <v>45972</v>
       </c>
       <c r="C20" s="5"/>
@@ -1727,7 +1882,7 @@
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="7">
         <v>105</v>
       </c>
@@ -1754,19 +1909,19 @@
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="27">
         <f>SUM(C20:C21)</f>
         <v>105</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="32">
         <v>45978</v>
       </c>
       <c r="C23" s="5">
@@ -1789,7 +1944,7 @@
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="7">
         <v>10</v>
       </c>
@@ -1808,7 +1963,7 @@
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="9">
         <v>25</v>
       </c>
@@ -1835,19 +1990,19 @@
       <c r="C26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="27">
         <f>SUM(C23:C25)</f>
         <v>140</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="32">
         <v>45979</v>
       </c>
       <c r="C27" s="5">
@@ -1870,7 +2025,7 @@
       <c r="A28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="7">
         <v>45</v>
       </c>
@@ -1891,7 +2046,7 @@
       <c r="A29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="28"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="7">
         <v>10</v>
       </c>
@@ -1916,19 +2071,19 @@
       <c r="C30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="27">
         <f>SUM(C27:C29)</f>
         <v>155</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="32">
         <v>45985</v>
       </c>
       <c r="C31" s="5">
@@ -1949,7 +2104,7 @@
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="28"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="7">
         <v>20</v>
       </c>
@@ -1970,7 +2125,7 @@
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="28"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="7">
         <v>30</v>
       </c>
@@ -1989,7 +2144,7 @@
       <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="28"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="7">
         <v>15</v>
       </c>
@@ -2008,7 +2163,7 @@
       <c r="A35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="28"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="7">
         <v>10</v>
       </c>
@@ -2027,7 +2182,7 @@
       <c r="A36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="7">
         <v>10</v>
       </c>
@@ -2046,7 +2201,7 @@
       <c r="A37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="7">
         <v>30</v>
       </c>
@@ -2065,7 +2220,7 @@
       <c r="A38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="28"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="7">
         <v>5</v>
       </c>
@@ -2084,7 +2239,7 @@
       <c r="A39" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="28"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="7">
         <v>10</v>
       </c>
@@ -2111,19 +2266,19 @@
       <c r="C40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="27">
         <f>SUM(C31:C39)</f>
         <v>140</v>
       </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="32">
         <v>45986</v>
       </c>
       <c r="C41" s="5">
@@ -2144,7 +2299,7 @@
       <c r="A42" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="28"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="7">
         <v>175</v>
       </c>
@@ -2171,13 +2326,13 @@
       <c r="C43" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="27">
         <f>SUM(C41:C42)</f>
         <v>190</v>
       </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="39"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -2212,19 +2367,19 @@
       <c r="C45" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="27">
         <f>SUM(C44:C44)</f>
         <v>140</v>
       </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46" s="32">
         <v>45993</v>
       </c>
       <c r="C46" s="5">
@@ -2245,7 +2400,7 @@
       <c r="A47" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="28"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="7">
         <v>75</v>
       </c>
@@ -2264,7 +2419,7 @@
       <c r="A48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="28"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="7">
         <v>15</v>
       </c>
@@ -2283,7 +2438,7 @@
       <c r="A49" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="28"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="7">
         <v>10</v>
       </c>
@@ -2302,7 +2457,7 @@
       <c r="A50" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="28"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="7">
         <v>10</v>
       </c>
@@ -2321,7 +2476,7 @@
       <c r="A51" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="28"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="7">
         <v>35</v>
       </c>
@@ -2346,116 +2501,447 @@
       <c r="C52" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="38">
+      <c r="D52" s="27">
         <f>SUM(C46:C51)</f>
         <v>190</v>
       </c>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="39"/>
-    </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="19"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
+    </row>
+    <row r="53" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="32">
+        <v>45999</v>
+      </c>
+      <c r="C53" s="5">
+        <v>60</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="22"/>
+      <c r="A54" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="33"/>
+      <c r="C54" s="7">
+        <v>15</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="23">
+        <v>0.38541666666666669</v>
+      </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="19"/>
-    </row>
-    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="19"/>
-    </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="9"/>
+    <row r="55" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="7">
+        <v>65</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="23">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="27">
+        <f>SUM(C53:C55)</f>
+        <v>140</v>
+      </c>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="28"/>
+    </row>
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="7"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="22"/>
       <c r="G57" s="19"/>
     </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="19"/>
+    </row>
+    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="19"/>
+    </row>
+    <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="19"/>
+    </row>
+    <row r="61" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="19"/>
+    </row>
+    <row r="62" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" s="17" t="s">
+      <c r="B62" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="38">
-        <f>SUM(C53:C57)</f>
+      <c r="D62" s="27">
+        <f>SUM(C57:C61)</f>
         <v>0</v>
       </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="39"/>
-    </row>
-    <row r="59" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29" t="s">
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="28"/>
+    </row>
+    <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="19"/>
+    </row>
+    <row r="64" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="19"/>
+    </row>
+    <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="19"/>
+    </row>
+    <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="19"/>
+    </row>
+    <row r="67" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="19"/>
+    </row>
+    <row r="68" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="27">
+        <f>SUM(C63:C67)</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="28"/>
+    </row>
+    <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="19"/>
+    </row>
+    <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="19"/>
+    </row>
+    <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="19"/>
+    </row>
+    <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="19"/>
+    </row>
+    <row r="73" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="9"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="19"/>
+    </row>
+    <row r="74" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="27">
+        <f>SUM(C69:C73)</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="28"/>
+    </row>
+    <row r="75" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="19"/>
+    </row>
+    <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="19"/>
+    </row>
+    <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="19"/>
+    </row>
+    <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="19"/>
+    </row>
+    <row r="79" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="9"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="19"/>
+    </row>
+    <row r="80" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="27">
+        <f>SUM(C75:C79)</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="28"/>
+    </row>
+    <row r="81" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="19"/>
+    </row>
+    <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="33"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="19"/>
+    </row>
+    <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="19"/>
+    </row>
+    <row r="85" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="19"/>
+    </row>
+    <row r="86" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="27">
+        <f>SUM(C81:C85)</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="28"/>
+    </row>
+    <row r="87" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="12">
-        <f>MROUND(SUM(C6:C58) /60,0.2)</f>
-        <v>25</v>
-      </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="14"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
+      <c r="B87" s="40"/>
+      <c r="C87" s="12">
+        <f>MROUND(SUM(C6:C86) /60,0.2)</f>
+        <v>27.400000000000002</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="14"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B18"/>
+  <mergeCells count="42">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B63:B67"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -2465,20 +2951,33 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D68:G68"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C53:C57 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C81:C85 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51 C75:C79 C69:C73 C63:C67 C57:C61 C53:C55" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B53:B57 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B81:B85 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51 B75:B79 B69:B73 B63:B67 B57:B61 B53:B55" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
@@ -2487,7 +2986,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Etml_font,Normal"&amp;22ETML&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;14&amp;D&amp;R&amp;14Journal</oddFooter>
@@ -2497,7 +2996,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2507,10 +3006,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A53:E57 A59:E1048576 A44:E44 A41:E42 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A58:D58 G59:G1048576 A46:E51</xm:sqref>
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A81:E85 A87:E1048576 A44:E44 A41:E42 A46:E51 A75:E79 A69:E73 A63:E67 A57:E61 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A62:D62 A68:D68 A74:D74 A80:D80 A86:D86 G87:G1048576 A53:E55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2520,7 +3019,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+          <x14:cfRule type="cellIs" priority="65" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2530,7 +3029,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2540,10 +3039,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E53:E57 E59:E1048576</xm:sqref>
+          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E81:E85 E87:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
+          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2553,7 +3052,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
+          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2563,7 +3062,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
+          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2576,7 +3075,7 @@
           <xm:sqref>E41:E42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2586,7 +3085,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2596,7 +3095,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2609,7 +3108,7 @@
           <xm:sqref>E44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{1078C977-9C97-4C62-9B51-0ACFCEFF16B7}">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2619,7 +3118,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{C8F44381-9E3F-41A8-B780-789FB71729B2}">
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2629,7 +3128,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{8B954690-3338-4C9D-94AB-D077188DE2BD}">
+          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2639,10 +3138,175 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E46:E49</xm:sqref>
+          <xm:sqref>E46:E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="38" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{38CC099F-2CFB-4F51-BCC6-9A8C062F12D6}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{97B7369B-F3E2-421C-8B11-B917735F9E01}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{9BE9A0C0-12EE-4A06-AA91-2B2C7773C591}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E53:E55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{CE91AE07-0A4B-4CA1-864E-4494D1FD3F2D}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{E33B63BE-9C2D-46FB-840B-160E77C144D1}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{06F1F730-9D3E-44F6-9858-23332EAE481C}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E57:E61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{6138D6EC-9477-4522-A720-100D44F804C5}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{7FB697E4-A1F6-44CC-8422-CFE46191EC29}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{F3D48842-32E0-470D-8962-C942EB8B670B}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E63:E67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{CF4E2A7B-2831-4A8E-8CB0-05A3819B6512}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{5A6DBF38-AB31-41CF-92EB-6F71330B8A51}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{806E81D0-33D7-43D5-9F66-9ACF5303AA2B}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E69:E73</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{EC003FB1-6A08-40D6-88B1-588BCE936C35}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{CCF6CA8D-69A5-48BE-8938-2E3B52B06A90}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{5E85ED66-7E81-44BB-AFFF-3FBE898F7448}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E75:E79</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2656,7 +3320,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="36" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2670,7 +3334,7 @@
           <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2684,7 +3348,7 @@
           <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+          <x14:cfRule type="containsText" priority="56" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F23)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2698,7 +3362,7 @@
           <xm:sqref>F23 F24:G24 F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+          <x14:cfRule type="containsText" priority="55" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F27)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2712,7 +3376,7 @@
           <xm:sqref>F27:F28 F29:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
+          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F44)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2726,7 +3390,21 @@
           <xm:sqref>F44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="37" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{2CEED9A6-BF96-4A7D-A6A3-A1CBCB1BBB33}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F53)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F53 F54:G54 F55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2740,7 +3418,7 @@
           <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+          <x14:cfRule type="containsText" priority="54" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F31)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2754,7 +3432,7 @@
           <xm:sqref>F31:G31 F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
+          <x14:cfRule type="containsText" priority="43" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F33)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2768,7 +3446,7 @@
           <xm:sqref>F33:G38 F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F41)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -2782,8 +3460,8 @@
           <xm:sqref>F41:G41 F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{A9768957-7C49-4EEE-AEFF-F52C90BA7D29}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,G46)))</xm:f>
+          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F46)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2793,11 +3471,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G46:G49</xm:sqref>
+          <xm:sqref>F46:G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F53)))</xm:f>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{9846E030-D336-4ABF-8549-0B217B1EE9C0}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F57)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2807,10 +3485,66 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F53:G57</xm:sqref>
+          <xm:sqref>F57:G61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F63)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F63:G67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{FBCB4E68-F50D-4BE4-8CEE-A9CE7EAE06EE}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F69)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F69:G73</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{A87BC3C4-539A-4D6D-94C0-DF4DFEA06C8A}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F75)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F75:G79</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="53" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F81)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F81:G85</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2823,7 +3557,7 @@
           <xm:sqref>G11:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2836,7 +3570,7 @@
           <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2849,7 +3583,7 @@
           <xm:sqref>G16:G18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
+          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2862,7 +3596,7 @@
           <xm:sqref>G20:G21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
+          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2875,7 +3609,7 @@
           <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
+          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2888,7 +3622,7 @@
           <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
+          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2901,7 +3635,7 @@
           <xm:sqref>G27:G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
+          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2914,7 +3648,7 @@
           <xm:sqref>G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
+          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2927,7 +3661,7 @@
           <xm:sqref>G39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2940,7 +3674,7 @@
           <xm:sqref>G42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2953,8 +3687,7 @@
           <xm:sqref>G44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{670AA369-23B3-423E-BBC6-44D0B56E67BC}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F46)))</xm:f>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{7506C776-F73B-475A-A848-0E98C716D28F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -2964,44 +3697,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F46:F49</xm:sqref>
+          <xm:sqref>G53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
-            <xm:f>Restrictions!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E50:E51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F50)))</xm:f>
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{EEDBCFEE-8EE0-4370-A603-3DD0D0A3C004}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3011,7 +3710,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F50:G51</xm:sqref>
+          <xm:sqref>G55</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3021,7 +3720,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E59:E1048576 E27:E29 E23:E25 E53:E57 E31:E39 E41:E42 E44 E46:E51</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E87:E1048576 E27:E29 E23:E25 E81:E85 E31:E39 E41:E42 E44 E46:E51 E75:E79 E69:E73 E63:E67 E57:E61 E53:E55</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3057,6 +3756,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -3299,27 +4018,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3336,23 +4054,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F27CBEB-2AE5-4CF3-89BA-90BD357F1379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9639DDE6-060F-44E5-BB42-1EE69617400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="115">
   <si>
     <t>Apprenti.e</t>
   </si>
@@ -385,6 +385,18 @@
   </si>
   <si>
     <t>Implemented the wither, but not any other (didn't have time)</t>
+  </si>
+  <si>
+    <t>Downloading VS2026 on the usual PC</t>
+  </si>
+  <si>
+    <t>Since we upgraded the project to .NET 10.0, we had to upgrade VS2022 to VS2026</t>
+  </si>
+  <si>
+    <t>I also optimized the code, so that enemies only store one lastCooldown variable in case they can shoot</t>
+  </si>
+  <si>
+    <t>Creating new boss types</t>
   </si>
 </sst>
 </file>
@@ -694,23 +706,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -718,6 +713,12 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -735,18 +736,29 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="59">
     <dxf>
       <fill>
         <patternFill>
@@ -960,6 +972,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -981,6 +1007,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -988,6 +1021,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -995,6 +1035,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1030,6 +1091,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1044,6 +1112,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1051,6 +1126,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1065,6 +1147,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1073,76 +1162,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1466,10 +1485,10 @@
   <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56:G56"/>
+      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1489,65 +1508,65 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="36"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1576,7 +1595,7 @@
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="27">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1599,7 +1618,7 @@
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1618,7 +1637,7 @@
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1645,19 +1664,19 @@
       <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="38">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="27">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1678,7 +1697,7 @@
       <c r="A11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
@@ -1699,7 +1718,7 @@
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
@@ -1720,7 +1739,7 @@
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
@@ -1739,7 +1758,7 @@
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
@@ -1766,19 +1785,19 @@
       <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="38">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="27">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
@@ -1801,7 +1820,7 @@
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
@@ -1822,7 +1841,7 @@
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
@@ -1849,19 +1868,19 @@
       <c r="C19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="38">
         <f>SUM(C16:C18)</f>
         <v>145</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="27">
         <v>45972</v>
       </c>
       <c r="C20" s="5"/>
@@ -1882,7 +1901,7 @@
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="7">
         <v>105</v>
       </c>
@@ -1909,19 +1928,19 @@
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="38">
         <f>SUM(C20:C21)</f>
         <v>105</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="27">
         <v>45978</v>
       </c>
       <c r="C23" s="5">
@@ -1944,7 +1963,7 @@
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="7">
         <v>10</v>
       </c>
@@ -1963,7 +1982,7 @@
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="33"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="9">
         <v>25</v>
       </c>
@@ -1990,19 +2009,19 @@
       <c r="C26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="38">
         <f>SUM(C23:C25)</f>
         <v>140</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="27">
         <v>45979</v>
       </c>
       <c r="C27" s="5">
@@ -2025,7 +2044,7 @@
       <c r="A28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="7">
         <v>45</v>
       </c>
@@ -2046,7 +2065,7 @@
       <c r="A29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="7">
         <v>10</v>
       </c>
@@ -2071,19 +2090,19 @@
       <c r="C30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="38">
         <f>SUM(C27:C29)</f>
         <v>155</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="27">
         <v>45985</v>
       </c>
       <c r="C31" s="5">
@@ -2104,7 +2123,7 @@
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="33"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="7">
         <v>20</v>
       </c>
@@ -2125,7 +2144,7 @@
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="33"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="7">
         <v>30</v>
       </c>
@@ -2144,7 +2163,7 @@
       <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="33"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="7">
         <v>15</v>
       </c>
@@ -2163,7 +2182,7 @@
       <c r="A35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="7">
         <v>10</v>
       </c>
@@ -2182,7 +2201,7 @@
       <c r="A36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="7">
         <v>10</v>
       </c>
@@ -2201,7 +2220,7 @@
       <c r="A37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="33"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="7">
         <v>30</v>
       </c>
@@ -2220,7 +2239,7 @@
       <c r="A38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="33"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="7">
         <v>5</v>
       </c>
@@ -2239,7 +2258,7 @@
       <c r="A39" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="33"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="7">
         <v>10</v>
       </c>
@@ -2266,19 +2285,19 @@
       <c r="C40" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="38">
         <f>SUM(C31:C39)</f>
         <v>140</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="27">
         <v>45986</v>
       </c>
       <c r="C41" s="5">
@@ -2299,7 +2318,7 @@
       <c r="A42" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="33"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="7">
         <v>175</v>
       </c>
@@ -2326,13 +2345,13 @@
       <c r="C43" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43" s="38">
         <f>SUM(C41:C42)</f>
         <v>190</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="39"/>
     </row>
     <row r="44" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -2367,19 +2386,19 @@
       <c r="C45" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="38">
         <f>SUM(C44:C44)</f>
         <v>140</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="28"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="39"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="32">
+      <c r="B46" s="27">
         <v>45993</v>
       </c>
       <c r="C46" s="5">
@@ -2400,7 +2419,7 @@
       <c r="A47" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="33"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="7">
         <v>75</v>
       </c>
@@ -2419,7 +2438,7 @@
       <c r="A48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="33"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="7">
         <v>15</v>
       </c>
@@ -2438,7 +2457,7 @@
       <c r="A49" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="33"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="7">
         <v>10</v>
       </c>
@@ -2457,7 +2476,7 @@
       <c r="A50" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="33"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="7">
         <v>10</v>
       </c>
@@ -2476,7 +2495,7 @@
       <c r="A51" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="33"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="7">
         <v>35</v>
       </c>
@@ -2501,19 +2520,19 @@
       <c r="C52" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="38">
         <f>SUM(C46:C51)</f>
         <v>190</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="28"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="39"/>
     </row>
     <row r="53" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="32">
+      <c r="B53" s="27">
         <v>45999</v>
       </c>
       <c r="C53" s="5">
@@ -2536,7 +2555,7 @@
       <c r="A54" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="33"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="7">
         <v>15</v>
       </c>
@@ -2555,7 +2574,7 @@
       <c r="A55" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="33"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="7">
         <v>65</v>
       </c>
@@ -2582,35 +2601,61 @@
       <c r="C56" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D56" s="38">
         <f>SUM(C53:C55)</f>
         <v>140</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
-    </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="19"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="39"/>
+    </row>
+    <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="27">
+        <v>45999</v>
+      </c>
+      <c r="C57" s="5">
+        <v>20</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="23">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="28"/>
+      <c r="C58" s="7">
+        <v>125</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="23">
+        <v>0.65625</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="33"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2619,7 +2664,7 @@
     </row>
     <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="33"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="7"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2628,7 +2673,7 @@
     </row>
     <row r="61" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
-      <c r="B61" s="34"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="9"/>
       <c r="D61" s="8"/>
       <c r="E61" s="10"/>
@@ -2645,17 +2690,17 @@
       <c r="C62" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="27">
+      <c r="D62" s="38">
         <f>SUM(C57:C61)</f>
-        <v>0</v>
-      </c>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="28"/>
+        <v>145</v>
+      </c>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="39"/>
     </row>
     <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="32"/>
+      <c r="B63" s="27"/>
       <c r="C63" s="5"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -2664,7 +2709,7 @@
     </row>
     <row r="64" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="33"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -2673,7 +2718,7 @@
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
-      <c r="B65" s="33"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -2682,7 +2727,7 @@
     </row>
     <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
-      <c r="B66" s="33"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -2691,7 +2736,7 @@
     </row>
     <row r="67" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
-      <c r="B67" s="34"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="9"/>
       <c r="D67" s="8"/>
       <c r="E67" s="10"/>
@@ -2708,17 +2753,17 @@
       <c r="C68" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="27">
+      <c r="D68" s="38">
         <f>SUM(C63:C67)</f>
         <v>0</v>
       </c>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="28"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="39"/>
     </row>
     <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="32"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="5"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -2727,7 +2772,7 @@
     </row>
     <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
-      <c r="B70" s="33"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="7"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -2736,7 +2781,7 @@
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
-      <c r="B71" s="33"/>
+      <c r="B71" s="28"/>
       <c r="C71" s="7"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -2745,7 +2790,7 @@
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
-      <c r="B72" s="33"/>
+      <c r="B72" s="28"/>
       <c r="C72" s="7"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -2754,7 +2799,7 @@
     </row>
     <row r="73" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
-      <c r="B73" s="34"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="9"/>
       <c r="D73" s="8"/>
       <c r="E73" s="10"/>
@@ -2771,17 +2816,17 @@
       <c r="C74" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="27">
+      <c r="D74" s="38">
         <f>SUM(C69:C73)</f>
         <v>0</v>
       </c>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="28"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="39"/>
     </row>
     <row r="75" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="32"/>
+      <c r="B75" s="27"/>
       <c r="C75" s="5"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -2790,7 +2835,7 @@
     </row>
     <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
-      <c r="B76" s="33"/>
+      <c r="B76" s="28"/>
       <c r="C76" s="7"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -2799,7 +2844,7 @@
     </row>
     <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
-      <c r="B77" s="33"/>
+      <c r="B77" s="28"/>
       <c r="C77" s="7"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -2808,7 +2853,7 @@
     </row>
     <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
-      <c r="B78" s="33"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -2817,7 +2862,7 @@
     </row>
     <row r="79" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
-      <c r="B79" s="34"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="9"/>
       <c r="D79" s="8"/>
       <c r="E79" s="10"/>
@@ -2834,17 +2879,17 @@
       <c r="C80" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="27">
+      <c r="D80" s="38">
         <f>SUM(C75:C79)</f>
         <v>0</v>
       </c>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="28"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="39"/>
     </row>
     <row r="81" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="32"/>
+      <c r="B81" s="27"/>
       <c r="C81" s="5"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -2853,7 +2898,7 @@
     </row>
     <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
-      <c r="B82" s="33"/>
+      <c r="B82" s="28"/>
       <c r="C82" s="7"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -2862,7 +2907,7 @@
     </row>
     <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
-      <c r="B83" s="33"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="7"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -2871,7 +2916,7 @@
     </row>
     <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
-      <c r="B84" s="33"/>
+      <c r="B84" s="28"/>
       <c r="C84" s="7"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -2880,7 +2925,7 @@
     </row>
     <row r="85" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
-      <c r="B85" s="34"/>
+      <c r="B85" s="31"/>
       <c r="C85" s="9"/>
       <c r="D85" s="8"/>
       <c r="E85" s="10"/>
@@ -2897,22 +2942,22 @@
       <c r="C86" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="27">
+      <c r="D86" s="38">
         <f>SUM(C81:C85)</f>
         <v>0</v>
       </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="28"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="39"/>
     </row>
     <row r="87" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="39" t="s">
+      <c r="A87" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="40"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="12">
         <f>MROUND(SUM(C6:C86) /60,0.2)</f>
-        <v>27.400000000000002</v>
+        <v>29.8</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="18"/>
@@ -2929,6 +2974,35 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B27:B29"/>
@@ -2942,35 +3016,6 @@
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B57:B61"/>
     <mergeCell ref="B63:B67"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D68:G68"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
@@ -2986,7 +3031,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Etml_font,Normal"&amp;22ETML&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;14&amp;D&amp;R&amp;14Journal</oddFooter>
@@ -2996,7 +3041,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="65" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3006,35 +3051,35 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A81:E85 A87:E1048576 A44:E44 A41:E42 A46:E51 A75:E79 A69:E73 A63:E67 A57:E61 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A62:D62 A68:D68 A74:D74 A80:D80 A86:D86 G87:G1048576 A53:E55</xm:sqref>
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A81:E85 A87:E1048576 A44:E44 A41:E42 A46:E51 A75:E79 A69:E73 A63:E67 A57:E61 A53:E55 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A62:D62 A68:D68 A74:D74 A80:D80 A86:D86 G87:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
                   <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="65" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -3042,7 +3087,7 @@
           <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E81:E85 E87:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
+          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3052,7 +3097,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
+          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3062,7 +3107,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
+          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3075,32 +3120,32 @@
           <xm:sqref>E41:E42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
                   <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -3108,7 +3153,17 @@
           <xm:sqref>E44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
+          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3118,17 +3173,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
+          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3141,7 +3186,7 @@
           <xm:sqref>E46:E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{38CC099F-2CFB-4F51-BCC6-9A8C062F12D6}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{38CC099F-2CFB-4F51-BCC6-9A8C062F12D6}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3151,7 +3196,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{97B7369B-F3E2-421C-8B11-B917735F9E01}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{97B7369B-F3E2-421C-8B11-B917735F9E01}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3161,7 +3206,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{9BE9A0C0-12EE-4A06-AA91-2B2C7773C591}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{9BE9A0C0-12EE-4A06-AA91-2B2C7773C591}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3174,7 +3219,7 @@
           <xm:sqref>E53:E55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{CE91AE07-0A4B-4CA1-864E-4494D1FD3F2D}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{CE91AE07-0A4B-4CA1-864E-4494D1FD3F2D}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3184,7 +3229,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{E33B63BE-9C2D-46FB-840B-160E77C144D1}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{E33B63BE-9C2D-46FB-840B-160E77C144D1}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3194,7 +3239,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{06F1F730-9D3E-44F6-9858-23332EAE481C}">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{06F1F730-9D3E-44F6-9858-23332EAE481C}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3207,32 +3252,32 @@
           <xm:sqref>E57:E61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{6138D6EC-9477-4522-A720-100D44F804C5}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{F3D48842-32E0-470D-8962-C942EB8B670B}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{7FB697E4-A1F6-44CC-8422-CFE46191EC29}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{6138D6EC-9477-4522-A720-100D44F804C5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
                   <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{7FB697E4-A1F6-44CC-8422-CFE46191EC29}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{F3D48842-32E0-470D-8962-C942EB8B670B}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -3240,32 +3285,32 @@
           <xm:sqref>E63:E67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{CF4E2A7B-2831-4A8E-8CB0-05A3819B6512}">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{806E81D0-33D7-43D5-9F66-9ACF5303AA2B}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{5A6DBF38-AB31-41CF-92EB-6F71330B8A51}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{CF4E2A7B-2831-4A8E-8CB0-05A3819B6512}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
                   <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{5A6DBF38-AB31-41CF-92EB-6F71330B8A51}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{806E81D0-33D7-43D5-9F66-9ACF5303AA2B}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -3273,32 +3318,32 @@
           <xm:sqref>E69:E73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{EC003FB1-6A08-40D6-88B1-588BCE936C35}">
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{CCF6CA8D-69A5-48BE-8938-2E3B52B06A90}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{5E85ED66-7E81-44BB-AFFF-3FBE898F7448}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{EC003FB1-6A08-40D6-88B1-588BCE936C35}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
                   <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{CCF6CA8D-69A5-48BE-8938-2E3B52B06A90}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{5E85ED66-7E81-44BB-AFFF-3FBE898F7448}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -3306,7 +3351,7 @@
           <xm:sqref>E75:E79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3320,7 +3365,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3334,7 +3379,7 @@
           <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3348,7 +3393,7 @@
           <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="56" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F23)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3362,7 +3407,7 @@
           <xm:sqref>F23 F24:G24 F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="55" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+          <x14:cfRule type="containsText" priority="56" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F27)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3376,7 +3421,7 @@
           <xm:sqref>F27:F28 F29:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
+          <x14:cfRule type="containsText" priority="36" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F44)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3390,7 +3435,7 @@
           <xm:sqref>F44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{2CEED9A6-BF96-4A7D-A6A3-A1CBCB1BBB33}">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{2CEED9A6-BF96-4A7D-A6A3-A1CBCB1BBB33}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F53)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3404,7 +3449,7 @@
           <xm:sqref>F53 F54:G54 F55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3418,7 +3463,7 @@
           <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="54" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+          <x14:cfRule type="containsText" priority="55" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F31)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3432,7 +3477,7 @@
           <xm:sqref>F31:G31 F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="43" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
+          <x14:cfRule type="containsText" priority="44" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F33)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3446,7 +3491,7 @@
           <xm:sqref>F33:G38 F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
+          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F41)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3460,7 +3505,7 @@
           <xm:sqref>F41:G41 F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
+          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F46)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3474,7 +3519,7 @@
           <xm:sqref>F46:G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{9846E030-D336-4ABF-8549-0B217B1EE9C0}">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{9846E030-D336-4ABF-8549-0B217B1EE9C0}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F57)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3485,10 +3530,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F57:G61</xm:sqref>
+          <xm:sqref>F59:G61 F57:F58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F63)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3502,7 +3547,7 @@
           <xm:sqref>F63:G67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{FBCB4E68-F50D-4BE4-8CEE-A9CE7EAE06EE}">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{FBCB4E68-F50D-4BE4-8CEE-A9CE7EAE06EE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F69)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3516,7 +3561,7 @@
           <xm:sqref>F69:G73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{A87BC3C4-539A-4D6D-94C0-DF4DFEA06C8A}">
+          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{A87BC3C4-539A-4D6D-94C0-DF4DFEA06C8A}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F75)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3530,7 +3575,7 @@
           <xm:sqref>F75:G79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="53" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+          <x14:cfRule type="containsText" priority="54" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F81)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3544,7 +3589,7 @@
           <xm:sqref>F81:G85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3557,7 +3602,7 @@
           <xm:sqref>G11:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3570,7 +3615,7 @@
           <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3583,7 +3628,7 @@
           <xm:sqref>G16:G18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
+          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3596,7 +3641,7 @@
           <xm:sqref>G20:G21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
+          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3609,7 +3654,7 @@
           <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
+          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3622,7 +3667,7 @@
           <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
+          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3635,7 +3680,7 @@
           <xm:sqref>G27:G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
+          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3648,7 +3693,7 @@
           <xm:sqref>G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
+          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3661,7 +3706,7 @@
           <xm:sqref>G39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
+          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3674,7 +3719,7 @@
           <xm:sqref>G42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3687,7 +3732,7 @@
           <xm:sqref>G44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{7506C776-F73B-475A-A848-0E98C716D28F}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{7506C776-F73B-475A-A848-0E98C716D28F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3700,7 +3745,7 @@
           <xm:sqref>G53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{EEDBCFEE-8EE0-4370-A603-3DD0D0A3C004}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{EEDBCFEE-8EE0-4370-A603-3DD0D0A3C004}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3711,6 +3756,19 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>G55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{EBD16DC6-D1FA-4FC5-B74B-CA3CF0413675}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G57:G58</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3756,26 +3814,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -4018,10 +4056,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4038,20 +4107,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9639DDE6-060F-44E5-BB42-1EE69617400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2181784-5C5C-4382-BF52-C78C403E94D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Restrictions" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$83</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,16 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="115">
-  <si>
-    <t>Apprenti.e</t>
-  </si>
-  <si>
-    <t>Durée total (h ou p)</t>
-  </si>
-  <si>
-    <t>Classe ou Groupe</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="119">
   <si>
     <t>Experts </t>
   </si>
@@ -57,83 +48,9 @@
     <t>-</t>
   </si>
   <si>
-    <t>Chef.fe de Projet</t>
-  </si>
-  <si>
-    <t>Bulle / Domaine / Module</t>
-  </si>
-  <si>
-    <t>Sujet </t>
-  </si>
-  <si>
-    <t>Tâches</t>
-  </si>
-  <si>
     <t>Dates</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Durées </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>[min]</t>
-    </r>
-  </si>
-  <si>
-    <t>Sources, liens, références, commits …</t>
-  </si>
-  <si>
-    <t>Bilan du jour :</t>
-  </si>
-  <si>
-    <t>Total en heures</t>
-  </si>
-  <si>
-    <t>Si nécessaire, [ Copier ] &amp; [ Insérer ] un ou des jours supplémentaires avant la ligne du total</t>
-  </si>
-  <si>
-    <t>Explications</t>
-  </si>
-  <si>
-    <t>Etats</t>
-  </si>
-  <si>
-    <t>Date de fin</t>
-  </si>
-  <si>
-    <t>Durée totale:</t>
-  </si>
-  <si>
-    <t>Jour 1</t>
-  </si>
-  <si>
-    <t>Jour 2</t>
-  </si>
-  <si>
-    <t>Jour 3</t>
-  </si>
-  <si>
-    <t>Jour 4</t>
-  </si>
-  <si>
-    <t>Jour 5</t>
-  </si>
-  <si>
-    <t>Jour 6</t>
-  </si>
-  <si>
-    <t>Jour 7</t>
-  </si>
-  <si>
-    <t>Jour 8</t>
-  </si>
-  <si>
     <t>Néo Darbellay</t>
   </si>
   <si>
@@ -144,9 +61,6 @@
   </si>
   <si>
     <t>Craft Me Up</t>
-  </si>
-  <si>
-    <t>S. Oliveira</t>
   </si>
   <si>
     <t>Setting up the work environment</t>
@@ -303,15 +217,6 @@
     <t>Adapting Obstacle to work with the new CFrame system</t>
   </si>
   <si>
-    <t>Jour 9</t>
-  </si>
-  <si>
-    <t>Jour 10</t>
-  </si>
-  <si>
-    <t>Jour 11</t>
-  </si>
-  <si>
     <t>Adapting Projectile to work with the new CFrame system</t>
   </si>
   <si>
@@ -357,21 +262,6 @@
     <t>Setting up the presentation PC</t>
   </si>
   <si>
-    <t>Jour 12</t>
-  </si>
-  <si>
-    <t>Jour 13</t>
-  </si>
-  <si>
-    <t>Jour 14</t>
-  </si>
-  <si>
-    <t>Jour 15</t>
-  </si>
-  <si>
-    <t>Jour 16</t>
-  </si>
-  <si>
     <t>Preparation</t>
   </si>
   <si>
@@ -387,9 +277,6 @@
     <t>Implemented the wither, but not any other (didn't have time)</t>
   </si>
   <si>
-    <t>Downloading VS2026 on the usual PC</t>
-  </si>
-  <si>
     <t>Since we upgraded the project to .NET 10.0, we had to upgrade VS2022 to VS2026</t>
   </si>
   <si>
@@ -397,6 +284,120 @@
   </si>
   <si>
     <t>Creating new boss types</t>
+  </si>
+  <si>
+    <t>Downloading VS2026 on the current PC</t>
+  </si>
+  <si>
+    <t>Apprentice</t>
+  </si>
+  <si>
+    <t>Class/Group</t>
+  </si>
+  <si>
+    <t>Project Manager(s)</t>
+  </si>
+  <si>
+    <t>S. Oliveira and G. Bianco</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Total duration (in periods of 45 minutes)</t>
+  </si>
+  <si>
+    <t>Bubble / Domain / Module</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Durations</t>
+  </si>
+  <si>
+    <t>States</t>
+  </si>
+  <si>
+    <t>End time</t>
+  </si>
+  <si>
+    <t>Sources, links, references, commits …</t>
+  </si>
+  <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <t>Total duration:</t>
+  </si>
+  <si>
+    <t>Daily review:</t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>Day 6</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <t>Day 9</t>
+  </si>
+  <si>
+    <t>Day 10</t>
+  </si>
+  <si>
+    <t>Day 11</t>
+  </si>
+  <si>
+    <t>Day 12</t>
+  </si>
+  <si>
+    <t>Day 13</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Day 15</t>
+  </si>
+  <si>
+    <t>Day 16</t>
+  </si>
+  <si>
+    <t>Total time spent (in hours)</t>
+  </si>
+  <si>
+    <t>This too longer than expected, as I had some issues getting the right permissions and had to make a virtual machine instead</t>
+  </si>
+  <si>
+    <t>Downloading VS2026 on a VM</t>
+  </si>
+  <si>
+    <t>Adding sprites to the new boss types and</t>
+  </si>
+  <si>
+    <t>Making some bosses ignore obstacles</t>
+  </si>
+  <si>
+    <t>Fixing the pause button issues</t>
+  </si>
+  <si>
+    <t>I also implemented DeltaTime movement</t>
   </si>
 </sst>
 </file>
@@ -614,7 +615,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -706,6 +707,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -713,12 +731,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -736,29 +748,21 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="61">
     <dxf>
       <fill>
         <patternFill>
@@ -979,6 +983,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1007,6 +1039,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1014,6 +1053,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1021,6 +1067,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1028,6 +1081,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1035,6 +1095,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1042,6 +1109,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1091,77 +1172,14 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1482,13 +1500,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomRight" activeCell="A64" sqref="A64:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1506,127 +1524,127 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="33"/>
+        <v>82</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="37"/>
+        <v>84</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="37"/>
+        <v>86</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="27">
+        <v>8</v>
+      </c>
+      <c r="B6" s="32">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
         <v>30</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F6" s="23">
         <v>0.59027777777777779</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="28"/>
+        <v>17</v>
+      </c>
+      <c r="B7" s="33"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F7" s="23">
         <v>0.61458333333333337</v>
@@ -1635,58 +1653,58 @@
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="28"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="33"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F8" s="23">
         <v>0.65625</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="38">
+        <v>95</v>
+      </c>
+      <c r="D9" s="27">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="27">
+        <v>14</v>
+      </c>
+      <c r="B10" s="32">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
         <v>30</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F10" s="23">
         <v>0.36458333333333331</v>
@@ -1695,59 +1713,59 @@
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="28"/>
+        <v>21</v>
+      </c>
+      <c r="B11" s="33"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F11" s="23">
         <v>0.39930555555555558</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="28"/>
+        <v>22</v>
+      </c>
+      <c r="B12" s="33"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F12" s="23">
         <v>0.42708333333333331</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="B13" s="33"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F13" s="23">
         <v>0.4513888888888889</v>
@@ -1756,222 +1774,222 @@
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="31"/>
+        <v>28</v>
+      </c>
+      <c r="B14" s="34"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F14" s="23">
         <v>0.47569444444444442</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="38">
+        <v>95</v>
+      </c>
+      <c r="D15" s="27">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="27">
+        <v>31</v>
+      </c>
+      <c r="B16" s="32">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
         <v>45</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F16" s="23">
         <v>0.57986111111111105</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="28"/>
+        <v>22</v>
+      </c>
+      <c r="B17" s="33"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F17" s="25">
         <v>0.63194444444444442</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B18" s="33"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F18" s="23">
         <v>0.66319444444444442</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="38">
+        <v>95</v>
+      </c>
+      <c r="D19" s="27">
         <f>SUM(C16:C18)</f>
         <v>145</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="27">
+        <v>37</v>
+      </c>
+      <c r="B20" s="32">
         <v>45972</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="8" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F20" s="23">
         <v>0.3923611111111111</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B21" s="33"/>
       <c r="C21" s="7">
         <v>105</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F21" s="25">
         <v>0.47569444444444442</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="38">
+        <v>95</v>
+      </c>
+      <c r="D22" s="27">
         <f>SUM(C20:C21)</f>
         <v>105</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="27">
+        <v>28</v>
+      </c>
+      <c r="B23" s="32">
         <v>45978</v>
       </c>
       <c r="C23" s="5">
         <v>105</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F23" s="23">
         <v>0.63194444444444442</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B24" s="33"/>
       <c r="C24" s="7">
         <v>10</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F24" s="23">
         <v>0.63888888888888895</v>
@@ -1980,100 +1998,100 @@
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B25" s="33"/>
       <c r="C25" s="9">
         <v>25</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F25" s="23">
         <v>0.65625</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="38">
+        <v>95</v>
+      </c>
+      <c r="D26" s="27">
         <f>SUM(C23:C25)</f>
         <v>140</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="27">
+        <v>28</v>
+      </c>
+      <c r="B27" s="32">
         <v>45979</v>
       </c>
       <c r="C27" s="5">
         <v>100</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F27" s="23">
         <v>0.4375</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B28" s="33"/>
       <c r="C28" s="7">
         <v>45</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F28" s="23">
         <v>0.46875</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="33"/>
       <c r="C29" s="7">
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F29" s="23">
         <v>0.47569444444444442</v>
@@ -2082,37 +2100,37 @@
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="38">
+        <v>95</v>
+      </c>
+      <c r="D30" s="27">
         <f>SUM(C27:C29)</f>
         <v>155</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="27">
+        <v>28</v>
+      </c>
+      <c r="B31" s="32">
         <v>45985</v>
       </c>
       <c r="C31" s="5">
         <v>10</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F31" s="23">
         <v>0.55555555555555558</v>
@@ -2121,38 +2139,38 @@
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="33"/>
       <c r="C32" s="7">
         <v>20</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F32" s="23">
         <v>0.56944444444444442</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B33" s="33"/>
       <c r="C33" s="7">
         <v>30</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F33" s="23">
         <v>0.59027777777777779</v>
@@ -2161,17 +2179,17 @@
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="33"/>
       <c r="C34" s="7">
         <v>15</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F34" s="23">
         <v>0.60069444444444442</v>
@@ -2180,17 +2198,17 @@
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B35" s="33"/>
       <c r="C35" s="7">
         <v>10</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F35" s="23">
         <v>0.60763888888888895</v>
@@ -2199,17 +2217,17 @@
     </row>
     <row r="36" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B36" s="33"/>
       <c r="C36" s="7">
         <v>10</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F36" s="23">
         <v>0.61458333333333337</v>
@@ -2218,17 +2236,17 @@
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B37" s="33"/>
       <c r="C37" s="7">
         <v>30</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F37" s="23">
         <v>0.64583333333333337</v>
@@ -2237,17 +2255,17 @@
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="28"/>
+        <v>22</v>
+      </c>
+      <c r="B38" s="33"/>
       <c r="C38" s="7">
         <v>5</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F38" s="23">
         <v>0.64930555555555558</v>
@@ -2256,58 +2274,58 @@
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="B39" s="33"/>
       <c r="C39" s="7">
         <v>10</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F39" s="23">
         <v>0.65625</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="38">
+        <v>95</v>
+      </c>
+      <c r="D40" s="27">
         <f>SUM(C31:C39)</f>
         <v>140</v>
       </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="39"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="27">
+        <v>25</v>
+      </c>
+      <c r="B41" s="32">
         <v>45986</v>
       </c>
       <c r="C41" s="5">
         <v>15</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F41" s="23">
         <v>0.34375</v>
@@ -2316,46 +2334,46 @@
     </row>
     <row r="42" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B42" s="33"/>
       <c r="C42" s="7">
         <v>175</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F42" s="25">
         <v>0.47569444444444442</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="38">
+        <v>95</v>
+      </c>
+      <c r="D43" s="27">
         <f>SUM(C41:C42)</f>
         <v>190</v>
       </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="39"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B44" s="26">
         <v>45992</v>
@@ -2364,51 +2382,51 @@
         <v>140</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F44" s="23">
         <v>0.65625</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="38">
+        <v>95</v>
+      </c>
+      <c r="D45" s="27">
         <f>SUM(C44:C44)</f>
         <v>140</v>
       </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="27">
+        <v>28</v>
+      </c>
+      <c r="B46" s="32">
         <v>45993</v>
       </c>
       <c r="C46" s="5">
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F46" s="23">
         <v>0.36458333333333331</v>
@@ -2417,17 +2435,17 @@
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="28"/>
+        <v>68</v>
+      </c>
+      <c r="B47" s="33"/>
       <c r="C47" s="7">
         <v>75</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F47" s="23">
         <v>0.42708333333333331</v>
@@ -2436,17 +2454,17 @@
     </row>
     <row r="48" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B48" s="33"/>
       <c r="C48" s="7">
         <v>15</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F48" s="23">
         <v>0.4375</v>
@@ -2455,17 +2473,17 @@
     </row>
     <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B49" s="33"/>
       <c r="C49" s="7">
         <v>10</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F49" s="23">
         <v>0.44444444444444442</v>
@@ -2474,17 +2492,17 @@
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B50" s="33"/>
       <c r="C50" s="7">
         <v>10</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F50" s="23">
         <v>0.4513888888888889</v>
@@ -2493,17 +2511,17 @@
     </row>
     <row r="51" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="B51" s="33"/>
       <c r="C51" s="7">
         <v>35</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F51" s="23">
         <v>0.47569444444444442</v>
@@ -2512,58 +2530,58 @@
     </row>
     <row r="52" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="38">
+        <v>95</v>
+      </c>
+      <c r="D52" s="27">
         <f>SUM(C46:C51)</f>
         <v>190</v>
       </c>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="39"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
     </row>
     <row r="53" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="27">
+        <v>73</v>
+      </c>
+      <c r="B53" s="32">
         <v>45999</v>
       </c>
       <c r="C53" s="5">
         <v>60</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F53" s="23">
         <v>0.375</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="B54" s="33"/>
       <c r="C54" s="7">
         <v>15</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F54" s="23">
         <v>0.38541666666666669</v>
@@ -2572,428 +2590,429 @@
     </row>
     <row r="55" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B55" s="33"/>
       <c r="C55" s="7">
         <v>65</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F55" s="23">
         <v>0.44097222222222227</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="38">
+        <v>95</v>
+      </c>
+      <c r="D56" s="27">
         <f>SUM(C53:C55)</f>
         <v>140</v>
       </c>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="39"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="28"/>
     </row>
     <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="27">
-        <v>45999</v>
+        <v>73</v>
+      </c>
+      <c r="B57" s="32">
+        <v>46006</v>
       </c>
       <c r="C57" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F57" s="23">
         <v>0.55902777777777779</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B58" s="33"/>
       <c r="C58" s="7">
         <v>125</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F58" s="23">
         <v>0.65625</v>
       </c>
       <c r="G58" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="27">
+        <f>SUM(C57:C58)</f>
+        <v>140</v>
+      </c>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="28"/>
+    </row>
+    <row r="60" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="32">
+        <v>46007</v>
+      </c>
+      <c r="C60" s="5">
+        <v>60</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="23">
+        <v>0.375</v>
+      </c>
+      <c r="G60" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="7"/>
+    <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="33"/>
+      <c r="C61" s="7">
+        <v>10</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="23">
+        <v>0.38194444444444442</v>
+      </c>
       <c r="G61" s="19"/>
     </row>
-    <row r="62" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="38">
-        <f>SUM(C57:C61)</f>
-        <v>145</v>
-      </c>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="39"/>
-    </row>
-    <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="19"/>
-    </row>
-    <row r="64" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="19"/>
+    <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="33"/>
+      <c r="C62" s="7">
+        <v>45</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="23">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="G62" s="19"/>
+    </row>
+    <row r="63" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="33"/>
+      <c r="C63" s="7">
+        <v>65</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="23">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="27">
+        <f>SUM(C60:C63)</f>
+        <v>180</v>
+      </c>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="28"/>
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="7"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="7"/>
+      <c r="F65" s="22"/>
       <c r="G65" s="19"/>
     </row>
     <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="7"/>
+      <c r="F66" s="22"/>
       <c r="G66" s="19"/>
     </row>
-    <row r="67" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="9"/>
+    <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="8"/>
-      <c r="E67" s="10"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="7"/>
       <c r="G67" s="19"/>
     </row>
-    <row r="68" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="38">
-        <f>SUM(C63:C67)</f>
+    <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="19"/>
+    </row>
+    <row r="69" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="19"/>
+    </row>
+    <row r="70" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="27">
+        <f>SUM(C65:C69)</f>
         <v>0</v>
       </c>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="39"/>
-    </row>
-    <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="19"/>
-    </row>
-    <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="19"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="28"/>
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="7"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
-      <c r="F71" s="7"/>
+      <c r="F71" s="22"/>
       <c r="G71" s="19"/>
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="7"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
-      <c r="F72" s="7"/>
+      <c r="F72" s="22"/>
       <c r="G72" s="19"/>
     </row>
-    <row r="73" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="9"/>
+    <row r="73" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="7"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="10"/>
+      <c r="E73" s="8"/>
       <c r="F73" s="7"/>
       <c r="G73" s="19"/>
     </row>
-    <row r="74" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="38">
-        <f>SUM(C69:C73)</f>
+    <row r="74" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="19"/>
+    </row>
+    <row r="75" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="19"/>
+    </row>
+    <row r="76" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="27">
+        <f>SUM(C71:C75)</f>
         <v>0</v>
       </c>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="39"/>
-    </row>
-    <row r="75" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="19"/>
-    </row>
-    <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="19"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="28"/>
     </row>
     <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="7"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
-      <c r="F77" s="7"/>
+      <c r="F77" s="22"/>
       <c r="G77" s="19"/>
     </row>
     <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
-      <c r="B78" s="28"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="7"/>
+      <c r="F78" s="22"/>
       <c r="G78" s="19"/>
     </row>
-    <row r="79" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="9"/>
+    <row r="79" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="8"/>
-      <c r="E79" s="10"/>
+      <c r="E79" s="8"/>
       <c r="F79" s="7"/>
       <c r="G79" s="19"/>
     </row>
-    <row r="80" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="38">
-        <f>SUM(C75:C79)</f>
+    <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="19"/>
+    </row>
+    <row r="81" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="19"/>
+    </row>
+    <row r="82" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" s="27">
+        <f>SUM(C77:C81)</f>
         <v>0</v>
       </c>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="39"/>
-    </row>
-    <row r="81" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="19"/>
-    </row>
-    <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="19"/>
-    </row>
-    <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="19"/>
-    </row>
-    <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="19"/>
-    </row>
-    <row r="85" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="9"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="19"/>
-    </row>
-    <row r="86" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D86" s="38">
-        <f>SUM(C81:C85)</f>
-        <v>0</v>
-      </c>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="39"/>
-    </row>
-    <row r="87" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="30"/>
-      <c r="C87" s="12">
-        <f>MROUND(SUM(C6:C86) /60,0.2)</f>
-        <v>29.8</v>
-      </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="14"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="28"/>
+    </row>
+    <row r="83" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" s="40"/>
+      <c r="C83" s="12">
+        <f>MROUND(SUM(C6:C82) /60,0.2)</f>
+        <v>32.800000000000004</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="14"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="15"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B63"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -3003,26 +3022,33 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D64:G64"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C81:C85 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51 C75:C79 C69:C73 C63:C67 C57:C61 C53:C55" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C77:C81 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51 C71:C75 C65:C69 C60:C63 C57:C58 C53:C55" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B81:B85 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51 B75:B79 B69:B73 B63:B67 B57:B61 B53:B55" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B77:B81 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51 B71:B75 B65:B69 B60:B63 B57:B58 B53:B55" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
@@ -3031,7 +3057,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Etml_font,Normal"&amp;22ETML&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;14&amp;D&amp;R&amp;14Journal</oddFooter>
@@ -3041,7 +3067,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="65" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3051,10 +3077,20 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A81:E85 A87:E1048576 A44:E44 A41:E42 A46:E51 A75:E79 A69:E73 A63:E67 A57:E61 A53:E55 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A62:D62 A68:D68 A74:D74 A80:D80 A86:D86 G87:G1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A77:E81 A83:E1048576 A44:E44 A41:E42 A46:E51 A71:E75 A65:E69 A57:E58 A53:E55 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 G83:G1048576 A60:E63 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A59:D59 A64:D64 A70:D70 A76:D76 A82:D82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3064,7 +3100,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3074,7 +3110,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E77:E81 E83:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3084,10 +3123,30 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E81:E85 E87:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E41:E42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3097,7 +3156,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
+          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3107,7 +3166,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
+          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3117,10 +3176,30 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E41:E42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
+          <xm:sqref>E44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3130,7 +3209,20 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
+          <xm:sqref>E46:E51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{38CC099F-2CFB-4F51-BCC6-9A8C062F12D6}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{97B7369B-F3E2-421C-8B11-B917735F9E01}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3140,7 +3232,20 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{9BE9A0C0-12EE-4A06-AA91-2B2C7773C591}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E53:E55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{CE91AE07-0A4B-4CA1-864E-4494D1FD3F2D}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3150,10 +3255,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{E33B63BE-9C2D-46FB-840B-160E77C144D1}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3163,7 +3265,20 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{06F1F730-9D3E-44F6-9858-23332EAE481C}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E57:E58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{6138D6EC-9477-4522-A720-100D44F804C5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3173,7 +3288,17 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{7FB697E4-A1F6-44CC-8422-CFE46191EC29}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{F3D48842-32E0-470D-8962-C942EB8B670B}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3183,10 +3308,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E46:E51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{38CC099F-2CFB-4F51-BCC6-9A8C062F12D6}">
+          <xm:sqref>E60:E63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{CF4E2A7B-2831-4A8E-8CB0-05A3819B6512}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3196,7 +3321,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{97B7369B-F3E2-421C-8B11-B917735F9E01}">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{5A6DBF38-AB31-41CF-92EB-6F71330B8A51}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3206,7 +3331,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{9BE9A0C0-12EE-4A06-AA91-2B2C7773C591}">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{806E81D0-33D7-43D5-9F66-9ACF5303AA2B}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3216,10 +3341,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E53:E55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{CE91AE07-0A4B-4CA1-864E-4494D1FD3F2D}">
+          <xm:sqref>E65:E69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{EC003FB1-6A08-40D6-88B1-588BCE936C35}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3229,7 +3354,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{E33B63BE-9C2D-46FB-840B-160E77C144D1}">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{CCF6CA8D-69A5-48BE-8938-2E3B52B06A90}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3239,7 +3364,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{06F1F730-9D3E-44F6-9858-23332EAE481C}">
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{5E85ED66-7E81-44BB-AFFF-3FBE898F7448}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3249,109 +3374,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E57:E61</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{F3D48842-32E0-470D-8962-C942EB8B670B}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{7FB697E4-A1F6-44CC-8422-CFE46191EC29}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{6138D6EC-9477-4522-A720-100D44F804C5}">
-            <xm:f>Restrictions!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E63:E67</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{806E81D0-33D7-43D5-9F66-9ACF5303AA2B}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{5A6DBF38-AB31-41CF-92EB-6F71330B8A51}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{CF4E2A7B-2831-4A8E-8CB0-05A3819B6512}">
-            <xm:f>Restrictions!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E69:E73</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{CCF6CA8D-69A5-48BE-8938-2E3B52B06A90}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{5E85ED66-7E81-44BB-AFFF-3FBE898F7448}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{EC003FB1-6A08-40D6-88B1-588BCE936C35}">
-            <xm:f>Restrictions!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E75:E79</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <xm:sqref>E71:E75</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="63" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3365,7 +3391,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3379,7 +3405,7 @@
           <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3393,7 +3419,7 @@
           <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F23)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3407,7 +3433,7 @@
           <xm:sqref>F23 F24:G24 F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="56" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F27)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3421,7 +3447,7 @@
           <xm:sqref>F27:F28 F29:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="36" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
+          <x14:cfRule type="containsText" priority="38" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F44)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3435,7 +3461,7 @@
           <xm:sqref>F44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{2CEED9A6-BF96-4A7D-A6A3-A1CBCB1BBB33}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{2CEED9A6-BF96-4A7D-A6A3-A1CBCB1BBB33}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F53)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3449,7 +3475,21 @@
           <xm:sqref>F53 F54:G54 F55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{9846E030-D336-4ABF-8549-0B217B1EE9C0}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F57)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F57:F58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="62" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3463,7 +3503,7 @@
           <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="55" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F31)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3477,7 +3517,7 @@
           <xm:sqref>F31:G31 F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="44" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
+          <x14:cfRule type="containsText" priority="46" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F33)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3491,7 +3531,7 @@
           <xm:sqref>F33:G38 F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
+          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F41)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3505,7 +3545,7 @@
           <xm:sqref>F41:G41 F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="24" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
+          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F46)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3519,8 +3559,8 @@
           <xm:sqref>F46:G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{9846E030-D336-4ABF-8549-0B217B1EE9C0}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F57)))</xm:f>
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F60)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3530,11 +3570,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F59:G61 F57:F58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F63)))</xm:f>
+          <xm:sqref>F61:G62 F60 F63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{FBCB4E68-F50D-4BE4-8CEE-A9CE7EAE06EE}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F65)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3544,11 +3584,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F63:G67</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{FBCB4E68-F50D-4BE4-8CEE-A9CE7EAE06EE}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F69)))</xm:f>
+          <xm:sqref>F65:G69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{A87BC3C4-539A-4D6D-94C0-DF4DFEA06C8A}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F71)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3558,11 +3598,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F69:G73</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="20" operator="containsText" id="{A87BC3C4-539A-4D6D-94C0-DF4DFEA06C8A}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F75)))</xm:f>
+          <xm:sqref>F71:G75</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="56" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F77)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3572,11 +3612,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F75:G79</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="54" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F81)))</xm:f>
+          <xm:sqref>F77:G81</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3586,10 +3625,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F81:G85</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+          <xm:sqref>G11:G12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3599,10 +3638,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G11:G12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+          <xm:sqref>G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3612,10 +3651,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+          <xm:sqref>G16:G18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3625,10 +3664,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G16:G18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
+          <xm:sqref>G20:G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3638,10 +3677,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G20:G21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
+          <xm:sqref>G23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3651,10 +3690,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
+          <xm:sqref>G25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3664,10 +3703,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
+          <xm:sqref>G27:G28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3677,10 +3716,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G27:G28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
+          <xm:sqref>G32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3690,10 +3729,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
+          <xm:sqref>G39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3703,10 +3742,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
+          <xm:sqref>G42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3716,10 +3755,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
+          <xm:sqref>G44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{7506C776-F73B-475A-A848-0E98C716D28F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3729,10 +3768,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{7506C776-F73B-475A-A848-0E98C716D28F}">
+          <xm:sqref>G53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{EEDBCFEE-8EE0-4370-A603-3DD0D0A3C004}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3742,10 +3781,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{EEDBCFEE-8EE0-4370-A603-3DD0D0A3C004}">
+          <xm:sqref>G55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{EBD16DC6-D1FA-4FC5-B74B-CA3CF0413675}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3755,10 +3794,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{EBD16DC6-D1FA-4FC5-B74B-CA3CF0413675}">
+          <xm:sqref>G57:G58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{CB5C53FD-3D5D-4030-A78E-D6ACDDA5D5F7}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3768,7 +3807,20 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G57:G58</xm:sqref>
+          <xm:sqref>G60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{28414CE1-4551-493E-98F2-E4708C3326DE}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G63</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3778,7 +3830,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E87:E1048576 E27:E29 E23:E25 E81:E85 E31:E39 E41:E42 E44 E46:E51 E75:E79 E69:E73 E63:E67 E57:E61 E53:E55</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E83:E1048576 E27:E29 E23:E25 E77:E81 E31:E39 E41:E42 E44 E46:E51 E71:E75 E65:E69 E60:E63 E57:E58 E53:E55</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3796,16 +3848,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3814,6 +3866,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -4056,27 +4128,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4093,23 +4164,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2181784-5C5C-4382-BF52-C78C403E94D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B84283-DCDF-4660-B876-1EAF2FD733B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="125">
   <si>
     <t>Experts </t>
   </si>
@@ -388,9 +388,6 @@
     <t>Downloading VS2026 on a VM</t>
   </si>
   <si>
-    <t>Adding sprites to the new boss types and</t>
-  </si>
-  <si>
     <t>Making some bosses ignore obstacles</t>
   </si>
   <si>
@@ -398,6 +395,27 @@
   </si>
   <si>
     <t>I also implemented DeltaTime movement</t>
+  </si>
+  <si>
+    <t>Fixing some technical issues</t>
+  </si>
+  <si>
+    <t>Adding sprites to the new boss types and making them work</t>
+  </si>
+  <si>
+    <t>Reviewing the code</t>
+  </si>
+  <si>
+    <t>Adding heart sprites to the game</t>
+  </si>
+  <si>
+    <t>Fixing issues regarding enemy spawning and enemy shooting</t>
+  </si>
+  <si>
+    <t>Making the skeletons smarter</t>
+  </si>
+  <si>
+    <t>https://github.com/Jonathan150408/Craft-Me-Up/issues/7</t>
   </si>
 </sst>
 </file>
@@ -707,6 +725,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -753,9 +774,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1503,10 +1521,10 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A64" sqref="A64:XFD68"/>
+      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1526,65 +1544,65 @@
       <c r="A1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1593,7 +1611,7 @@
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="27" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1613,7 +1631,7 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="33">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1636,7 +1654,7 @@
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1655,7 +1673,7 @@
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1682,19 +1700,19 @@
       <c r="C9" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="28">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="33">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1715,7 +1733,7 @@
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
@@ -1736,7 +1754,7 @@
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
@@ -1757,7 +1775,7 @@
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
@@ -1776,7 +1794,7 @@
       <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
@@ -1803,19 +1821,19 @@
       <c r="C15" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="28">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="33">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
@@ -1838,7 +1856,7 @@
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
@@ -1859,7 +1877,7 @@
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
@@ -1886,19 +1904,19 @@
       <c r="C19" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="28">
         <f>SUM(C16:C18)</f>
         <v>145</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="33">
         <v>45972</v>
       </c>
       <c r="C20" s="5"/>
@@ -1919,7 +1937,7 @@
       <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="7">
         <v>105</v>
       </c>
@@ -1946,19 +1964,19 @@
       <c r="C22" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="28">
         <f>SUM(C20:C21)</f>
         <v>105</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="33">
         <v>45978</v>
       </c>
       <c r="C23" s="5">
@@ -1981,7 +1999,7 @@
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="7">
         <v>10</v>
       </c>
@@ -2000,7 +2018,7 @@
       <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="33"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="9">
         <v>25</v>
       </c>
@@ -2027,19 +2045,19 @@
       <c r="C26" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="28">
         <f>SUM(C23:C25)</f>
         <v>140</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="33">
         <v>45979</v>
       </c>
       <c r="C27" s="5">
@@ -2062,7 +2080,7 @@
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="7">
         <v>45</v>
       </c>
@@ -2083,7 +2101,7 @@
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="7">
         <v>10</v>
       </c>
@@ -2108,19 +2126,19 @@
       <c r="C30" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="28">
         <f>SUM(C27:C29)</f>
         <v>155</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="33">
         <v>45985</v>
       </c>
       <c r="C31" s="5">
@@ -2141,7 +2159,7 @@
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="33"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="7">
         <v>20</v>
       </c>
@@ -2162,7 +2180,7 @@
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="33"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="7">
         <v>30</v>
       </c>
@@ -2181,7 +2199,7 @@
       <c r="A34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="33"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="7">
         <v>15</v>
       </c>
@@ -2200,7 +2218,7 @@
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="7">
         <v>10</v>
       </c>
@@ -2219,7 +2237,7 @@
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="7">
         <v>10</v>
       </c>
@@ -2238,7 +2256,7 @@
       <c r="A37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="33"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="7">
         <v>30</v>
       </c>
@@ -2257,7 +2275,7 @@
       <c r="A38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="33"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="7">
         <v>5</v>
       </c>
@@ -2276,7 +2294,7 @@
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="33"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="7">
         <v>10</v>
       </c>
@@ -2303,19 +2321,19 @@
       <c r="C40" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="28">
         <f>SUM(C31:C39)</f>
         <v>140</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="33">
         <v>45986</v>
       </c>
       <c r="C41" s="5">
@@ -2336,7 +2354,7 @@
       <c r="A42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="33"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="7">
         <v>175</v>
       </c>
@@ -2363,13 +2381,13 @@
       <c r="C43" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43" s="28">
         <f>SUM(C41:C42)</f>
         <v>190</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -2404,19 +2422,19 @@
       <c r="C45" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="28">
         <f>SUM(C44:C44)</f>
         <v>140</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="32">
+      <c r="B46" s="33">
         <v>45993</v>
       </c>
       <c r="C46" s="5">
@@ -2437,7 +2455,7 @@
       <c r="A47" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="33"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="7">
         <v>75</v>
       </c>
@@ -2456,7 +2474,7 @@
       <c r="A48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="33"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="7">
         <v>15</v>
       </c>
@@ -2475,7 +2493,7 @@
       <c r="A49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="33"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="7">
         <v>10</v>
       </c>
@@ -2494,7 +2512,7 @@
       <c r="A50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="33"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="7">
         <v>10</v>
       </c>
@@ -2513,7 +2531,7 @@
       <c r="A51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="33"/>
+      <c r="B51" s="34"/>
       <c r="C51" s="7">
         <v>35</v>
       </c>
@@ -2538,19 +2556,19 @@
       <c r="C52" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="28">
         <f>SUM(C46:C51)</f>
         <v>190</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29"/>
     </row>
     <row r="53" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="32">
+      <c r="B53" s="33">
         <v>45999</v>
       </c>
       <c r="C53" s="5">
@@ -2573,7 +2591,7 @@
       <c r="A54" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="33"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="7">
         <v>15</v>
       </c>
@@ -2592,7 +2610,7 @@
       <c r="A55" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="33"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="7">
         <v>65</v>
       </c>
@@ -2619,19 +2637,19 @@
       <c r="C56" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D56" s="28">
         <f>SUM(C53:C55)</f>
         <v>140</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="32">
+      <c r="B57" s="33">
         <v>46006</v>
       </c>
       <c r="C57" s="5">
@@ -2654,7 +2672,7 @@
       <c r="A58" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="33"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="7">
         <v>125</v>
       </c>
@@ -2681,19 +2699,19 @@
       <c r="C59" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="27">
+      <c r="D59" s="28">
         <f>SUM(C57:C58)</f>
         <v>140</v>
       </c>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="29"/>
     </row>
     <row r="60" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="32">
+      <c r="B60" s="33">
         <v>46007</v>
       </c>
       <c r="C60" s="5">
@@ -2712,16 +2730,16 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="33"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="7">
         <v>10</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>9</v>
@@ -2735,12 +2753,12 @@
       <c r="A62" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="33"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="7">
         <v>45</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>9</v>
@@ -2754,12 +2772,12 @@
       <c r="A63" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="33"/>
+      <c r="B63" s="34"/>
       <c r="C63" s="7">
         <v>65</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>9</v>
@@ -2768,7 +2786,7 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2781,58 +2799,112 @@
       <c r="C64" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="27">
+      <c r="D64" s="28">
         <f>SUM(C60:C63)</f>
         <v>180</v>
       </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="29"/>
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="22"/>
+      <c r="A65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="33">
+        <v>46027</v>
+      </c>
+      <c r="C65" s="5">
+        <v>10</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="23">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="G65" s="19"/>
     </row>
     <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="22"/>
+      <c r="A66" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="34"/>
+      <c r="C66" s="7">
+        <v>10</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="23">
+        <v>0.55902777777777779</v>
+      </c>
       <c r="G66" s="19"/>
     </row>
     <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="7"/>
+      <c r="A67" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="34"/>
+      <c r="C67" s="7">
+        <v>10</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="23">
+        <v>0.56597222222222221</v>
+      </c>
       <c r="G67" s="19"/>
     </row>
-    <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="7"/>
+    <row r="68" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="34"/>
+      <c r="C68" s="7">
+        <v>45</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="23">
+        <v>0.59722222222222221</v>
+      </c>
       <c r="G68" s="19"/>
     </row>
     <row r="69" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9"/>
+      <c r="A69" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="B69" s="34"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="19"/>
+      <c r="C69" s="7">
+        <v>70</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="23">
+        <v>0.65625</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="70" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
@@ -2844,17 +2916,17 @@
       <c r="C70" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D70" s="27">
+      <c r="D70" s="28">
         <f>SUM(C65:C69)</f>
-        <v>0</v>
-      </c>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="28"/>
+        <v>145</v>
+      </c>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="29"/>
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="32"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="5"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -2863,7 +2935,7 @@
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
-      <c r="B72" s="33"/>
+      <c r="B72" s="34"/>
       <c r="C72" s="7"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -2872,7 +2944,7 @@
     </row>
     <row r="73" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
-      <c r="B73" s="33"/>
+      <c r="B73" s="34"/>
       <c r="C73" s="7"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -2881,7 +2953,7 @@
     </row>
     <row r="74" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
-      <c r="B74" s="33"/>
+      <c r="B74" s="34"/>
       <c r="C74" s="7"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -2890,7 +2962,7 @@
     </row>
     <row r="75" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
-      <c r="B75" s="34"/>
+      <c r="B75" s="35"/>
       <c r="C75" s="9"/>
       <c r="D75" s="8"/>
       <c r="E75" s="10"/>
@@ -2907,17 +2979,17 @@
       <c r="C76" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="27">
+      <c r="D76" s="28">
         <f>SUM(C71:C75)</f>
         <v>0</v>
       </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="29"/>
     </row>
     <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="32"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="5"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -2926,7 +2998,7 @@
     </row>
     <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
-      <c r="B78" s="33"/>
+      <c r="B78" s="34"/>
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -2935,7 +3007,7 @@
     </row>
     <row r="79" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
-      <c r="B79" s="33"/>
+      <c r="B79" s="34"/>
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -2944,7 +3016,7 @@
     </row>
     <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
-      <c r="B80" s="33"/>
+      <c r="B80" s="34"/>
       <c r="C80" s="7"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -2953,7 +3025,7 @@
     </row>
     <row r="81" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
-      <c r="B81" s="34"/>
+      <c r="B81" s="35"/>
       <c r="C81" s="9"/>
       <c r="D81" s="8"/>
       <c r="E81" s="10"/>
@@ -2970,22 +3042,22 @@
       <c r="C82" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D82" s="27">
+      <c r="D82" s="28">
         <f>SUM(C77:C81)</f>
         <v>0</v>
       </c>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="29"/>
     </row>
     <row r="83" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="39" t="s">
+      <c r="A83" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="40"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="12">
         <f>MROUND(SUM(C6:C82) /60,0.2)</f>
-        <v>32.800000000000004</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="18"/>
@@ -3045,24 +3117,25 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C77:C81 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51 C71:C75 C65:C69 C60:C63 C57:C58 C53:C55" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C77:C81 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51 C71:C75 C53:C55 C60:C63 C57:C58 C65:C69" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B77:B81 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51 B71:B75 B65:B69 B60:B63 B57:B58 B53:B55" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B77:B81 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51 B71:B75 B53:B55 B60:B63 B57:B58 B65:B69" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" xr:uid="{48F1459F-A9D8-4CFC-BB03-37B9BE21D6DE}"/>
+    <hyperlink ref="G69" r:id="rId2" xr:uid="{93681196-2DD2-4E71-B42F-AE88441C8C0B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Etml_font,Normal"&amp;22ETML&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;14&amp;D&amp;R&amp;14Journal</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId3"/>
+  <legacyDrawingHF r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3077,7 +3150,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A77:E81 A83:E1048576 A44:E44 A41:E42 A46:E51 A71:E75 A65:E69 A57:E58 A53:E55 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 G83:G1048576 A60:E63 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A59:D59 A64:D64 A70:D70 A76:D76 A82:D82</xm:sqref>
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A77:E81 A83:E1048576 A44:E44 A41:E42 A46:E51 A71:E75 A60:E63 A57:E58 A53:E55 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A59:D59 A64:D64 A70:D70 A76:D76 A82:D82 G83:G1048576 A65:E69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="66" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
@@ -3489,6 +3562,20 @@
           <xm:sqref>F57:F58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F60)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F60 F61:G62 F63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="62" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
@@ -3557,20 +3644,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>F46:G51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F60)))</xm:f>
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F61:G62 F60 F63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="18" operator="containsText" id="{FBCB4E68-F50D-4BE4-8CEE-A9CE7EAE06EE}">
@@ -3830,7 +3903,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E83:E1048576 E27:E29 E23:E25 E77:E81 E31:E39 E41:E42 E44 E46:E51 E71:E75 E65:E69 E60:E63 E57:E58 E53:E55</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E83:E1048576 E27:E29 E23:E25 E77:E81 E31:E39 E41:E42 E44 E46:E51 E71:E75 E53:E55 E60:E63 E57:E58 E65:E69</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\Trimestre_2\Craft-Me-Up\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\CraftMeUp\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B84283-DCDF-4660-B876-1EAF2FD733B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A3B77B-B373-4D0F-BEA4-F5A5137E6DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Restrictions" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$82</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="130">
   <si>
     <t>Experts </t>
   </si>
@@ -416,6 +416,21 @@
   </si>
   <si>
     <t>https://github.com/Jonathan150408/Craft-Me-Up/issues/7</t>
+  </si>
+  <si>
+    <t>Implementing the pseudo-random map</t>
+  </si>
+  <si>
+    <t>I made it so that isntead of being a grid of 8x8 chunks of 8x8 tiles, it's 16x16 chunks of 16x16 tiles, as that looked better</t>
+  </si>
+  <si>
+    <t>Writing 2 new issues (#9 and #10)</t>
+  </si>
+  <si>
+    <t>Implementing game window scale</t>
+  </si>
+  <si>
+    <t>Working on the biomes</t>
   </si>
 </sst>
 </file>
@@ -728,23 +743,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -752,6 +750,12 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -769,18 +773,36 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1518,13 +1540,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
+      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1544,65 +1566,65 @@
       <c r="A1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="37"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1631,7 +1653,7 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="28">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1654,7 +1676,7 @@
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1673,7 +1695,7 @@
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1700,19 +1722,19 @@
       <c r="C9" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="39">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="28">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1733,7 +1755,7 @@
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
@@ -1754,7 +1776,7 @@
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
@@ -1775,7 +1797,7 @@
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
@@ -1794,7 +1816,7 @@
       <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
@@ -1821,19 +1843,19 @@
       <c r="C15" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="39">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="28">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
@@ -1856,7 +1878,7 @@
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
@@ -1877,7 +1899,7 @@
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
@@ -1904,19 +1926,19 @@
       <c r="C19" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="39">
         <f>SUM(C16:C18)</f>
         <v>145</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="28">
         <v>45972</v>
       </c>
       <c r="C20" s="5"/>
@@ -1937,7 +1959,7 @@
       <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="7">
         <v>105</v>
       </c>
@@ -1964,19 +1986,19 @@
       <c r="C22" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="39">
         <f>SUM(C20:C21)</f>
         <v>105</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="28">
         <v>45978</v>
       </c>
       <c r="C23" s="5">
@@ -1999,7 +2021,7 @@
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="7">
         <v>10</v>
       </c>
@@ -2018,7 +2040,7 @@
       <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="9">
         <v>25</v>
       </c>
@@ -2045,19 +2067,19 @@
       <c r="C26" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="39">
         <f>SUM(C23:C25)</f>
         <v>140</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
     </row>
     <row r="27" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="28">
         <v>45979</v>
       </c>
       <c r="C27" s="5">
@@ -2080,7 +2102,7 @@
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="7">
         <v>45</v>
       </c>
@@ -2101,7 +2123,7 @@
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="7">
         <v>10</v>
       </c>
@@ -2126,19 +2148,19 @@
       <c r="C30" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="39">
         <f>SUM(C27:C29)</f>
         <v>155</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="28">
         <v>45985</v>
       </c>
       <c r="C31" s="5">
@@ -2159,7 +2181,7 @@
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="7">
         <v>20</v>
       </c>
@@ -2180,7 +2202,7 @@
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="34"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="7">
         <v>30</v>
       </c>
@@ -2199,7 +2221,7 @@
       <c r="A34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="34"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="7">
         <v>15</v>
       </c>
@@ -2218,7 +2240,7 @@
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="7">
         <v>10</v>
       </c>
@@ -2237,7 +2259,7 @@
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="7">
         <v>10</v>
       </c>
@@ -2256,7 +2278,7 @@
       <c r="A37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="34"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="7">
         <v>30</v>
       </c>
@@ -2275,7 +2297,7 @@
       <c r="A38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="7">
         <v>5</v>
       </c>
@@ -2294,7 +2316,7 @@
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="34"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="7">
         <v>10</v>
       </c>
@@ -2321,19 +2343,19 @@
       <c r="C40" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="39">
         <f>SUM(C31:C39)</f>
         <v>140</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="40"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B41" s="28">
         <v>45986</v>
       </c>
       <c r="C41" s="5">
@@ -2354,7 +2376,7 @@
       <c r="A42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="34"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="7">
         <v>175</v>
       </c>
@@ -2381,13 +2403,13 @@
       <c r="C43" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="28">
+      <c r="D43" s="39">
         <f>SUM(C41:C42)</f>
         <v>190</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="29"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="40"/>
     </row>
     <row r="44" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -2422,19 +2444,19 @@
       <c r="C45" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D45" s="39">
         <f>SUM(C44:C44)</f>
         <v>140</v>
       </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="40"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="33">
+      <c r="B46" s="28">
         <v>45993</v>
       </c>
       <c r="C46" s="5">
@@ -2455,7 +2477,7 @@
       <c r="A47" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="34"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="7">
         <v>75</v>
       </c>
@@ -2474,7 +2496,7 @@
       <c r="A48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="34"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="7">
         <v>15</v>
       </c>
@@ -2493,7 +2515,7 @@
       <c r="A49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="34"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="7">
         <v>10</v>
       </c>
@@ -2512,7 +2534,7 @@
       <c r="A50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="34"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="7">
         <v>10</v>
       </c>
@@ -2531,7 +2553,7 @@
       <c r="A51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="34"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="7">
         <v>35</v>
       </c>
@@ -2556,19 +2578,19 @@
       <c r="C52" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="28">
+      <c r="D52" s="39">
         <f>SUM(C46:C51)</f>
         <v>190</v>
       </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="29"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="40"/>
     </row>
     <row r="53" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="33">
+      <c r="B53" s="28">
         <v>45999</v>
       </c>
       <c r="C53" s="5">
@@ -2591,7 +2613,7 @@
       <c r="A54" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="34"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="7">
         <v>15</v>
       </c>
@@ -2610,7 +2632,7 @@
       <c r="A55" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="34"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="7">
         <v>65</v>
       </c>
@@ -2637,19 +2659,19 @@
       <c r="C56" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="28">
+      <c r="D56" s="39">
         <f>SUM(C53:C55)</f>
         <v>140</v>
       </c>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="40"/>
     </row>
     <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B57" s="28">
         <v>46006</v>
       </c>
       <c r="C57" s="5">
@@ -2672,7 +2694,7 @@
       <c r="A58" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="34"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="7">
         <v>125</v>
       </c>
@@ -2699,19 +2721,19 @@
       <c r="C59" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="28">
+      <c r="D59" s="39">
         <f>SUM(C57:C58)</f>
         <v>140</v>
       </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="29"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="40"/>
     </row>
     <row r="60" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="33">
+      <c r="B60" s="28">
         <v>46007</v>
       </c>
       <c r="C60" s="5">
@@ -2734,7 +2756,7 @@
       <c r="A61" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="34"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="7">
         <v>10</v>
       </c>
@@ -2753,7 +2775,7 @@
       <c r="A62" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="34"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="7">
         <v>45</v>
       </c>
@@ -2772,7 +2794,7 @@
       <c r="A63" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="34"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="7">
         <v>65</v>
       </c>
@@ -2799,19 +2821,19 @@
       <c r="C64" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="28">
+      <c r="D64" s="39">
         <f>SUM(C60:C63)</f>
         <v>180</v>
       </c>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="40"/>
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="33">
+      <c r="B65" s="28">
         <v>46027</v>
       </c>
       <c r="C65" s="5">
@@ -2832,7 +2854,7 @@
       <c r="A66" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="34"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="7">
         <v>10</v>
       </c>
@@ -2851,7 +2873,7 @@
       <c r="A67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="34"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="7">
         <v>10</v>
       </c>
@@ -2870,7 +2892,7 @@
       <c r="A68" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="34"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="7">
         <v>45</v>
       </c>
@@ -2889,7 +2911,7 @@
       <c r="A69" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="34"/>
+      <c r="B69" s="29"/>
       <c r="C69" s="7">
         <v>70</v>
       </c>
@@ -2916,81 +2938,125 @@
       <c r="C70" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D70" s="28">
+      <c r="D70" s="39">
         <f>SUM(C65:C69)</f>
         <v>145</v>
       </c>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="29"/>
-    </row>
-    <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="19"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="40"/>
+    </row>
+    <row r="71" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="28">
+        <v>46042</v>
+      </c>
+      <c r="C71" s="5">
+        <v>135</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="22"/>
+      <c r="A72" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="29"/>
+      <c r="C72" s="7">
+        <v>5</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="23">
+        <v>0.44097222222222227</v>
+      </c>
       <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="7"/>
+      <c r="A73" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="29"/>
+      <c r="C73" s="7">
+        <v>40</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="23">
+        <v>0.46527777777777773</v>
+      </c>
       <c r="G73" s="19"/>
     </row>
-    <row r="74" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="7"/>
+    <row r="74" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="29"/>
+      <c r="C74" s="7">
+        <v>15</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="23">
+        <v>0.47569444444444442</v>
+      </c>
       <c r="G74" s="19"/>
     </row>
     <row r="75" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="9"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="19"/>
-    </row>
-    <row r="76" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="11" t="s">
+      <c r="A75" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B75" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C75" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="28">
-        <f>SUM(C71:C75)</f>
-        <v>0</v>
-      </c>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="29"/>
+      <c r="D75" s="39">
+        <f>SUM(C71:C74)</f>
+        <v>195</v>
+      </c>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="40"/>
+    </row>
+    <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="19"/>
     </row>
     <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="5"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="22"/>
@@ -2998,93 +3064,91 @@
     </row>
     <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
-      <c r="B78" s="34"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="22"/>
+      <c r="F78" s="7"/>
       <c r="G78" s="19"/>
     </row>
     <row r="79" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
-      <c r="B79" s="34"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="7"/>
       <c r="G79" s="19"/>
     </row>
-    <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="7"/>
+    <row r="80" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="9"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="9"/>
       <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
+      <c r="E80" s="10"/>
       <c r="F80" s="7"/>
       <c r="G80" s="19"/>
     </row>
     <row r="81" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="19"/>
-    </row>
-    <row r="82" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="11" t="s">
+      <c r="A81" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B81" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C81" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D82" s="28">
-        <f>SUM(C77:C81)</f>
+      <c r="D81" s="39">
+        <f>SUM(C76:C80)</f>
         <v>0</v>
       </c>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="29"/>
-    </row>
-    <row r="83" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="40" t="s">
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="40"/>
+    </row>
+    <row r="82" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="41"/>
-      <c r="C83" s="12">
-        <f>MROUND(SUM(C6:C82) /60,0.2)</f>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="14"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="12">
+        <f>MROUND(SUM(C6:C81) /60,0.2)</f>
+        <v>38.400000000000006</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="14"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="15"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-    </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -3094,33 +3158,26 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B63"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C77:C81 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51 C71:C75 C53:C55 C60:C63 C57:C58 C65:C69" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C76:C80 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51 C71:C74 C53:C55 C60:C63 C57:C58 C65:C69" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B77:B81 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51 B71:B75 B53:B55 B60:B63 B57:B58 B65:B69" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B76:B80 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51 B71:B74 B53:B55 B60:B63 B57:B58 B65:B69" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
@@ -3140,7 +3197,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3150,10 +3207,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A77:E81 A83:E1048576 A44:E44 A41:E42 A46:E51 A71:E75 A60:E63 A57:E58 A53:E55 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A59:D59 A64:D64 A70:D70 A76:D76 A82:D82 G83:G1048576 A65:E69</xm:sqref>
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A76:E80 A82:E1048576 A44:E44 A41:E42 A46:E51 A65:E69 A60:E63 A57:E58 A53:E55 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A59:D59 A64:D64 A70:D70 A75:D75 A81:D81 G82:G1048576 A71:E74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3163,7 +3220,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3173,7 +3230,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3183,10 +3240,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E77:E81 E83:E1048576</xm:sqref>
+          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E76:E80 E82:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3196,7 +3253,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3206,7 +3263,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3219,7 +3276,7 @@
           <xm:sqref>E41:E42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
+          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3229,7 +3286,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
+          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3239,7 +3296,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
+          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3252,7 +3309,7 @@
           <xm:sqref>E44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3262,7 +3319,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3272,7 +3329,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
+          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3285,7 +3342,7 @@
           <xm:sqref>E46:E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{38CC099F-2CFB-4F51-BCC6-9A8C062F12D6}">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{38CC099F-2CFB-4F51-BCC6-9A8C062F12D6}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3295,7 +3352,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{97B7369B-F3E2-421C-8B11-B917735F9E01}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{97B7369B-F3E2-421C-8B11-B917735F9E01}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3305,7 +3362,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{9BE9A0C0-12EE-4A06-AA91-2B2C7773C591}">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{9BE9A0C0-12EE-4A06-AA91-2B2C7773C591}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3318,7 +3375,7 @@
           <xm:sqref>E53:E55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{CE91AE07-0A4B-4CA1-864E-4494D1FD3F2D}">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{CE91AE07-0A4B-4CA1-864E-4494D1FD3F2D}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3328,7 +3385,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{E33B63BE-9C2D-46FB-840B-160E77C144D1}">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{E33B63BE-9C2D-46FB-840B-160E77C144D1}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3338,7 +3395,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{06F1F730-9D3E-44F6-9858-23332EAE481C}">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{06F1F730-9D3E-44F6-9858-23332EAE481C}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3351,7 +3408,7 @@
           <xm:sqref>E57:E58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{6138D6EC-9477-4522-A720-100D44F804C5}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{6138D6EC-9477-4522-A720-100D44F804C5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3361,7 +3418,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{7FB697E4-A1F6-44CC-8422-CFE46191EC29}">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{7FB697E4-A1F6-44CC-8422-CFE46191EC29}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3371,7 +3428,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{F3D48842-32E0-470D-8962-C942EB8B670B}">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{F3D48842-32E0-470D-8962-C942EB8B670B}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3384,7 +3441,7 @@
           <xm:sqref>E60:E63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{CF4E2A7B-2831-4A8E-8CB0-05A3819B6512}">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{CF4E2A7B-2831-4A8E-8CB0-05A3819B6512}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3394,7 +3451,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{5A6DBF38-AB31-41CF-92EB-6F71330B8A51}">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5A6DBF38-AB31-41CF-92EB-6F71330B8A51}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3404,7 +3461,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{806E81D0-33D7-43D5-9F66-9ACF5303AA2B}">
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{806E81D0-33D7-43D5-9F66-9ACF5303AA2B}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3417,7 +3474,7 @@
           <xm:sqref>E65:E69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{EC003FB1-6A08-40D6-88B1-588BCE936C35}">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{EC003FB1-6A08-40D6-88B1-588BCE936C35}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3427,7 +3484,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{CCF6CA8D-69A5-48BE-8938-2E3B52B06A90}">
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{CCF6CA8D-69A5-48BE-8938-2E3B52B06A90}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3437,7 +3494,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{5E85ED66-7E81-44BB-AFFF-3FBE898F7448}">
+          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{5E85ED66-7E81-44BB-AFFF-3FBE898F7448}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3447,10 +3504,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E71:E75</xm:sqref>
+          <xm:sqref>E71:E74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="63" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <x14:cfRule type="containsText" priority="64" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3464,7 +3521,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="62" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3478,7 +3535,7 @@
           <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3492,7 +3549,7 @@
           <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F23)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3506,7 +3563,7 @@
           <xm:sqref>F23 F24:G24 F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F27)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3520,7 +3577,7 @@
           <xm:sqref>F27:F28 F29:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="38" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
+          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F44)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3534,7 +3591,7 @@
           <xm:sqref>F44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{2CEED9A6-BF96-4A7D-A6A3-A1CBCB1BBB33}">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{2CEED9A6-BF96-4A7D-A6A3-A1CBCB1BBB33}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F53)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3548,7 +3605,7 @@
           <xm:sqref>F53 F54:G54 F55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{9846E030-D336-4ABF-8549-0B217B1EE9C0}">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{9846E030-D336-4ABF-8549-0B217B1EE9C0}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F57)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3562,7 +3619,7 @@
           <xm:sqref>F57:F58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F60)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3576,7 +3633,7 @@
           <xm:sqref>F60 F61:G62 F63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="62" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="63" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3590,7 +3647,7 @@
           <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F31)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3604,7 +3661,7 @@
           <xm:sqref>F31:G31 F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="46" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
+          <x14:cfRule type="containsText" priority="47" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F33)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3618,7 +3675,7 @@
           <xm:sqref>F33:G38 F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
+          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F41)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3632,7 +3689,7 @@
           <xm:sqref>F41:G41 F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="26" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
+          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F46)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3646,7 +3703,7 @@
           <xm:sqref>F46:G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{FBCB4E68-F50D-4BE4-8CEE-A9CE7EAE06EE}">
+          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{FBCB4E68-F50D-4BE4-8CEE-A9CE7EAE06EE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F65)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3660,7 +3717,7 @@
           <xm:sqref>F65:G69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="22" operator="containsText" id="{A87BC3C4-539A-4D6D-94C0-DF4DFEA06C8A}">
+          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{A87BC3C4-539A-4D6D-94C0-DF4DFEA06C8A}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F71)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3671,11 +3728,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F71:G75</xm:sqref>
+          <xm:sqref>F72:G74 F71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="56" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F77)))</xm:f>
+          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F76)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3685,10 +3742,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F77:G81</xm:sqref>
+          <xm:sqref>F76:G80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+          <x14:cfRule type="cellIs" priority="56" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3701,7 +3758,7 @@
           <xm:sqref>G11:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3714,7 +3771,7 @@
           <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3727,7 +3784,7 @@
           <xm:sqref>G16:G18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
+          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3740,7 +3797,7 @@
           <xm:sqref>G20:G21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
+          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3753,7 +3810,7 @@
           <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
+          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3766,7 +3823,7 @@
           <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
+          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3779,7 +3836,7 @@
           <xm:sqref>G27:G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
+          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3792,7 +3849,7 @@
           <xm:sqref>G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
+          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3805,7 +3862,7 @@
           <xm:sqref>G39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
+          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3818,7 +3875,7 @@
           <xm:sqref>G42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
+          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3831,7 +3888,7 @@
           <xm:sqref>G44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{7506C776-F73B-475A-A848-0E98C716D28F}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{7506C776-F73B-475A-A848-0E98C716D28F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3844,7 +3901,7 @@
           <xm:sqref>G53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{EEDBCFEE-8EE0-4370-A603-3DD0D0A3C004}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{EEDBCFEE-8EE0-4370-A603-3DD0D0A3C004}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3857,7 +3914,7 @@
           <xm:sqref>G55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{EBD16DC6-D1FA-4FC5-B74B-CA3CF0413675}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{EBD16DC6-D1FA-4FC5-B74B-CA3CF0413675}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3870,7 +3927,7 @@
           <xm:sqref>G57:G58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{CB5C53FD-3D5D-4030-A78E-D6ACDDA5D5F7}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{CB5C53FD-3D5D-4030-A78E-D6ACDDA5D5F7}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3883,7 +3940,7 @@
           <xm:sqref>G60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{28414CE1-4551-493E-98F2-E4708C3326DE}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{28414CE1-4551-493E-98F2-E4708C3326DE}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3894,6 +3951,19 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>G63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{19A160C2-6897-43F9-AB25-0B60E506490B}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G71</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3903,7 +3973,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E83:E1048576 E27:E29 E23:E25 E77:E81 E31:E39 E41:E42 E44 E46:E51 E71:E75 E53:E55 E60:E63 E57:E58 E65:E69</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E82:E1048576 E27:E29 E23:E25 E76:E80 E31:E39 E41:E42 E44 E46:E51 E71:E74 E53:E55 E60:E63 E57:E58 E65:E69</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3939,26 +4009,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -4201,10 +4251,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4221,20 +4302,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\CraftMeUp\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A3B77B-B373-4D0F-BEA4-F5A5137E6DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B8BF37-5B30-4232-8EB3-E8FD28225D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Restrictions" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$96</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="138">
   <si>
     <t>Experts </t>
   </si>
@@ -298,9 +298,6 @@
     <t>Project Manager(s)</t>
   </si>
   <si>
-    <t>S. Oliveira and G. Bianco</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -431,13 +428,40 @@
   </si>
   <si>
     <t>Working on the biomes</t>
+  </si>
+  <si>
+    <t>S. Oliveira, G. Bianco and G Charmier</t>
+  </si>
+  <si>
+    <t>Fixing an issue with camera clamping causing an error</t>
+  </si>
+  <si>
+    <t>There are some issues to fix with zooming out causing lag, but that will be fixed later</t>
+  </si>
+  <si>
+    <t>Implementing the settings</t>
+  </si>
+  <si>
+    <t>Fixing the main menu scale</t>
+  </si>
+  <si>
+    <t>Making the settings save</t>
+  </si>
+  <si>
+    <t>So far, only GAMESPEED has a setting, but that'll change later on.</t>
+  </si>
+  <si>
+    <t>Fixing some render-based lag</t>
+  </si>
+  <si>
+    <t>Changing how biomes render</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Century Gothic"/>
@@ -478,6 +502,11 @@
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -648,7 +677,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -743,6 +772,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -750,12 +796,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -773,21 +813,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -795,7 +830,105 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="76">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1540,13 +1673,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomRight" activeCell="D83" sqref="D83:G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1566,94 +1699,94 @@
       <c r="A1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="33" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37" t="s">
+      <c r="B3" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="38"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="38"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="33">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1676,7 +1809,7 @@
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1695,7 +1828,7 @@
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1714,27 +1847,27 @@
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="39">
+      <c r="D9" s="28">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="33">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1755,7 +1888,7 @@
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
@@ -1776,7 +1909,7 @@
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
@@ -1797,7 +1930,7 @@
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
@@ -1816,7 +1949,7 @@
       <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
@@ -1835,27 +1968,27 @@
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="C15" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="39">
+        <v>94</v>
+      </c>
+      <c r="D15" s="28">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="33">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
@@ -1878,7 +2011,7 @@
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
@@ -1899,7 +2032,7 @@
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
@@ -1918,27 +2051,27 @@
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="39">
+        <v>94</v>
+      </c>
+      <c r="D19" s="28">
         <f>SUM(C16:C18)</f>
         <v>145</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="33">
         <v>45972</v>
       </c>
       <c r="C20" s="5"/>
@@ -1959,7 +2092,7 @@
       <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="7">
         <v>105</v>
       </c>
@@ -1978,27 +2111,27 @@
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="39">
+        <v>94</v>
+      </c>
+      <c r="D22" s="28">
         <f>SUM(C20:C21)</f>
         <v>105</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="33">
         <v>45978</v>
       </c>
       <c r="C23" s="5">
@@ -2021,7 +2154,7 @@
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="29"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="7">
         <v>10</v>
       </c>
@@ -2040,7 +2173,7 @@
       <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="29"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="9">
         <v>25</v>
       </c>
@@ -2059,27 +2192,27 @@
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="39">
+        <v>94</v>
+      </c>
+      <c r="D26" s="28">
         <f>SUM(C23:C25)</f>
         <v>140</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="33">
         <v>45979</v>
       </c>
       <c r="C27" s="5">
@@ -2102,7 +2235,7 @@
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="7">
         <v>45</v>
       </c>
@@ -2123,7 +2256,7 @@
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="7">
         <v>10</v>
       </c>
@@ -2140,27 +2273,27 @@
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="39">
+        <v>94</v>
+      </c>
+      <c r="D30" s="28">
         <f>SUM(C27:C29)</f>
         <v>155</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="33">
         <v>45985</v>
       </c>
       <c r="C31" s="5">
@@ -2181,7 +2314,7 @@
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="7">
         <v>20</v>
       </c>
@@ -2202,7 +2335,7 @@
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="7">
         <v>30</v>
       </c>
@@ -2221,7 +2354,7 @@
       <c r="A34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="7">
         <v>15</v>
       </c>
@@ -2240,7 +2373,7 @@
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="7">
         <v>10</v>
       </c>
@@ -2259,7 +2392,7 @@
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="7">
         <v>10</v>
       </c>
@@ -2278,7 +2411,7 @@
       <c r="A37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="7">
         <v>30</v>
       </c>
@@ -2297,7 +2430,7 @@
       <c r="A38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="7">
         <v>5</v>
       </c>
@@ -2316,7 +2449,7 @@
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="7">
         <v>10</v>
       </c>
@@ -2335,27 +2468,27 @@
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="39">
+        <v>94</v>
+      </c>
+      <c r="D40" s="28">
         <f>SUM(C31:C39)</f>
         <v>140</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="40"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="33">
         <v>45986</v>
       </c>
       <c r="C41" s="5">
@@ -2376,7 +2509,7 @@
       <c r="A42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="7">
         <v>175</v>
       </c>
@@ -2395,21 +2528,21 @@
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="39">
+        <v>94</v>
+      </c>
+      <c r="D43" s="28">
         <f>SUM(C41:C42)</f>
         <v>190</v>
       </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="40"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -2436,27 +2569,27 @@
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="39">
+        <v>94</v>
+      </c>
+      <c r="D45" s="28">
         <f>SUM(C44:C44)</f>
         <v>140</v>
       </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="33">
         <v>45993</v>
       </c>
       <c r="C46" s="5">
@@ -2477,7 +2610,7 @@
       <c r="A47" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="7">
         <v>75</v>
       </c>
@@ -2496,7 +2629,7 @@
       <c r="A48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="7">
         <v>15</v>
       </c>
@@ -2515,7 +2648,7 @@
       <c r="A49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="29"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="7">
         <v>10</v>
       </c>
@@ -2534,7 +2667,7 @@
       <c r="A50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="29"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="7">
         <v>10</v>
       </c>
@@ -2553,7 +2686,7 @@
       <c r="A51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="29"/>
+      <c r="B51" s="34"/>
       <c r="C51" s="7">
         <v>35</v>
       </c>
@@ -2570,27 +2703,27 @@
     </row>
     <row r="52" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="39">
+        <v>94</v>
+      </c>
+      <c r="D52" s="28">
         <f>SUM(C46:C51)</f>
         <v>190</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="40"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29"/>
     </row>
     <row r="53" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="28">
+      <c r="B53" s="33">
         <v>45999</v>
       </c>
       <c r="C53" s="5">
@@ -2613,7 +2746,7 @@
       <c r="A54" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="7">
         <v>15</v>
       </c>
@@ -2632,7 +2765,7 @@
       <c r="A55" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="29"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="7">
         <v>65</v>
       </c>
@@ -2651,27 +2784,27 @@
     </row>
     <row r="56" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="39">
+        <v>94</v>
+      </c>
+      <c r="D56" s="28">
         <f>SUM(C53:C55)</f>
         <v>140</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="40"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="28">
+      <c r="B57" s="33">
         <v>46006</v>
       </c>
       <c r="C57" s="5">
@@ -2694,7 +2827,7 @@
       <c r="A58" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="29"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="7">
         <v>125</v>
       </c>
@@ -2713,34 +2846,34 @@
     </row>
     <row r="59" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="39">
+        <v>94</v>
+      </c>
+      <c r="D59" s="28">
         <f>SUM(C57:C58)</f>
         <v>140</v>
       </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="40"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="29"/>
     </row>
     <row r="60" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="28">
+      <c r="B60" s="33">
         <v>46007</v>
       </c>
       <c r="C60" s="5">
         <v>60</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>9</v>
@@ -2749,19 +2882,19 @@
         <v>0.375</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="29"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="7">
         <v>10</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>9</v>
@@ -2775,12 +2908,12 @@
       <c r="A62" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="29"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="7">
         <v>45</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>9</v>
@@ -2794,12 +2927,12 @@
       <c r="A63" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="29"/>
+      <c r="B63" s="34"/>
       <c r="C63" s="7">
         <v>65</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>9</v>
@@ -2808,39 +2941,39 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" s="39">
+        <v>94</v>
+      </c>
+      <c r="D64" s="28">
         <f>SUM(C60:C63)</f>
         <v>180</v>
       </c>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="40"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="29"/>
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="28">
+      <c r="B65" s="33">
         <v>46027</v>
       </c>
       <c r="C65" s="5">
         <v>10</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>9</v>
@@ -2854,12 +2987,12 @@
       <c r="A66" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="29"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="7">
         <v>10</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>9</v>
@@ -2873,12 +3006,12 @@
       <c r="A67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="29"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="7">
         <v>10</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>9</v>
@@ -2892,12 +3025,12 @@
       <c r="A68" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="29"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="7">
         <v>45</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>9</v>
@@ -2911,12 +3044,12 @@
       <c r="A69" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="29"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="7">
         <v>70</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>9</v>
@@ -2925,39 +3058,39 @@
         <v>0.65625</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D70" s="39">
+        <v>94</v>
+      </c>
+      <c r="D70" s="28">
         <f>SUM(C65:C69)</f>
         <v>145</v>
       </c>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="40"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="29"/>
     </row>
     <row r="71" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="28">
+      <c r="B71" s="33">
         <v>46042</v>
       </c>
       <c r="C71" s="5">
         <v>135</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>9</v>
@@ -2966,19 +3099,19 @@
         <v>0.4375</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="29"/>
+      <c r="B72" s="34"/>
       <c r="C72" s="7">
         <v>5</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>9</v>
@@ -2992,12 +3125,12 @@
       <c r="A73" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="29"/>
+      <c r="B73" s="34"/>
       <c r="C73" s="7">
         <v>40</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>9</v>
@@ -3011,12 +3144,12 @@
       <c r="A74" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="29"/>
+      <c r="B74" s="34"/>
       <c r="C74" s="7">
         <v>15</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>20</v>
@@ -3028,127 +3161,342 @@
     </row>
     <row r="75" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D75" s="39">
+        <v>94</v>
+      </c>
+      <c r="D75" s="28">
         <f>SUM(C71:C74)</f>
         <v>195</v>
       </c>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="40"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="29"/>
     </row>
     <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="19"/>
-    </row>
-    <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="19"/>
+      <c r="A76" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="33">
+        <v>46049</v>
+      </c>
+      <c r="C76" s="7">
+        <v>15</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="23">
+        <v>0.34375</v>
+      </c>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="34"/>
+      <c r="C77" s="7">
+        <v>25</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="23">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="19"/>
-    </row>
-    <row r="79" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="19"/>
-    </row>
-    <row r="80" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="19"/>
-    </row>
-    <row r="81" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B81" s="17" t="s">
+      <c r="A78" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="34"/>
+      <c r="C78" s="7">
+        <v>10</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="23">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="34"/>
+      <c r="C79" s="7">
+        <v>65</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="23">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="34"/>
+      <c r="C80" s="7">
+        <v>15</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="34"/>
+      <c r="C81" s="7">
+        <v>40</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="23">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="34"/>
+      <c r="C82" s="7">
+        <v>15</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="23">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" s="28">
+        <f>SUM(C76:C82)</f>
+        <v>185</v>
+      </c>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="29"/>
+    </row>
+    <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="19"/>
+    </row>
+    <row r="85" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="19"/>
+    </row>
+    <row r="86" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="19"/>
+    </row>
+    <row r="87" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="19"/>
+    </row>
+    <row r="88" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="9"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="19"/>
+    </row>
+    <row r="89" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="28">
+        <f>SUM(C84:C88)</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="29"/>
+    </row>
+    <row r="90" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="19"/>
+    </row>
+    <row r="91" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="19"/>
+    </row>
+    <row r="92" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="19"/>
+    </row>
+    <row r="93" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="19"/>
+    </row>
+    <row r="94" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="9"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="19"/>
+    </row>
+    <row r="95" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" s="28">
+        <f>SUM(C90:C94)</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="29"/>
+    </row>
+    <row r="96" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C81" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D81" s="39">
-        <f>SUM(C76:C80)</f>
-        <v>0</v>
-      </c>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="40"/>
-    </row>
-    <row r="82" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" s="31"/>
-      <c r="C82" s="12">
-        <f>MROUND(SUM(C6:C81) /60,0.2)</f>
-        <v>38.400000000000006</v>
-      </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="14"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="12">
+        <f>MROUND(SUM(C6:C95) /60,0.2)</f>
+        <v>41.6</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="14"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B18"/>
+  <mergeCells count="46">
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B76:B82"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -3158,26 +3506,35 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D83:G83"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C76:C80 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51 C71:C74 C53:C55 C60:C63 C57:C58 C65:C69" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C90:C94 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51 C71:C74 C53:C55 C60:C63 C57:C58 C65:C69 C84:C88 C76:C82" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B76:B80 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51 B71:B74 B53:B55 B60:B63 B57:B58 B65:B69" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B90:B94 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51 B71:B74 B53:B55 B60:B63 B57:B58 B65:B69 B84:B88 B76:B82" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
@@ -3187,7 +3544,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="32" orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Etml_font,Normal"&amp;22ETML&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;14&amp;D&amp;R&amp;14Journal</oddFooter>
@@ -3197,7 +3554,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="82" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3207,10 +3564,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A76:E80 A82:E1048576 A44:E44 A41:E42 A46:E51 A65:E69 A60:E63 A57:E58 A53:E55 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A59:D59 A64:D64 A70:D70 A75:D75 A81:D81 G82:G1048576 A71:E74</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A90:E94 A96:E1048576 A44:E44 A41:E42 A46:E51 A71:E74 A65:E69 A60:E63 A57:E58 A53:E55 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A59:D59 A64:D64 A70:D70 A75:D75 A95:D95 G96:G1048576 A84:E88 A89:D89 A83:D83 A76:E82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="81" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3220,7 +3577,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+          <x14:cfRule type="cellIs" priority="83" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3230,7 +3587,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+          <x14:cfRule type="cellIs" priority="84" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3240,10 +3597,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E76:E80 E82:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
+          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E90:E94 E96:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3253,7 +3610,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
+          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3263,7 +3620,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
+          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3276,7 +3633,7 @@
           <xm:sqref>E41:E42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
+          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3286,7 +3643,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
+          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3296,7 +3653,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
+          <x14:cfRule type="cellIs" priority="56" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3309,7 +3666,7 @@
           <xm:sqref>E44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
+          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3319,7 +3676,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
+          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3329,7 +3686,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
+          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3342,7 +3699,7 @@
           <xm:sqref>E46:E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{38CC099F-2CFB-4F51-BCC6-9A8C062F12D6}">
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{38CC099F-2CFB-4F51-BCC6-9A8C062F12D6}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3352,7 +3709,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{97B7369B-F3E2-421C-8B11-B917735F9E01}">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{97B7369B-F3E2-421C-8B11-B917735F9E01}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3362,7 +3719,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{9BE9A0C0-12EE-4A06-AA91-2B2C7773C591}">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{9BE9A0C0-12EE-4A06-AA91-2B2C7773C591}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3375,7 +3732,7 @@
           <xm:sqref>E53:E55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{CE91AE07-0A4B-4CA1-864E-4494D1FD3F2D}">
+          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{CE91AE07-0A4B-4CA1-864E-4494D1FD3F2D}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3385,7 +3742,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{E33B63BE-9C2D-46FB-840B-160E77C144D1}">
+          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{E33B63BE-9C2D-46FB-840B-160E77C144D1}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3395,7 +3752,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{06F1F730-9D3E-44F6-9858-23332EAE481C}">
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{06F1F730-9D3E-44F6-9858-23332EAE481C}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3408,7 +3765,7 @@
           <xm:sqref>E57:E58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{6138D6EC-9477-4522-A720-100D44F804C5}">
+          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{6138D6EC-9477-4522-A720-100D44F804C5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3418,7 +3775,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{7FB697E4-A1F6-44CC-8422-CFE46191EC29}">
+          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{7FB697E4-A1F6-44CC-8422-CFE46191EC29}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3428,7 +3785,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{F3D48842-32E0-470D-8962-C942EB8B670B}">
+          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{F3D48842-32E0-470D-8962-C942EB8B670B}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3441,7 +3798,7 @@
           <xm:sqref>E60:E63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{CF4E2A7B-2831-4A8E-8CB0-05A3819B6512}">
+          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{CF4E2A7B-2831-4A8E-8CB0-05A3819B6512}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3451,7 +3808,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5A6DBF38-AB31-41CF-92EB-6F71330B8A51}">
+          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{5A6DBF38-AB31-41CF-92EB-6F71330B8A51}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3461,7 +3818,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{806E81D0-33D7-43D5-9F66-9ACF5303AA2B}">
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{806E81D0-33D7-43D5-9F66-9ACF5303AA2B}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3474,7 +3831,7 @@
           <xm:sqref>E65:E69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{EC003FB1-6A08-40D6-88B1-588BCE936C35}">
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{EC003FB1-6A08-40D6-88B1-588BCE936C35}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3484,7 +3841,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{CCF6CA8D-69A5-48BE-8938-2E3B52B06A90}">
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{CCF6CA8D-69A5-48BE-8938-2E3B52B06A90}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3494,7 +3851,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{5E85ED66-7E81-44BB-AFFF-3FBE898F7448}">
+          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{5E85ED66-7E81-44BB-AFFF-3FBE898F7448}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3507,7 +3864,7 @@
           <xm:sqref>E71:E74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="64" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <x14:cfRule type="containsText" priority="78" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3521,7 +3878,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="62" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="76" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3535,7 +3892,7 @@
           <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="75" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3549,7 +3906,7 @@
           <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+          <x14:cfRule type="containsText" priority="74" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F23)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3563,7 +3920,7 @@
           <xm:sqref>F23 F24:G24 F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+          <x14:cfRule type="containsText" priority="73" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F27)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3577,7 +3934,7 @@
           <xm:sqref>F27:F28 F29:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
+          <x14:cfRule type="containsText" priority="53" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F44)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3591,7 +3948,7 @@
           <xm:sqref>F44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{2CEED9A6-BF96-4A7D-A6A3-A1CBCB1BBB33}">
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{2CEED9A6-BF96-4A7D-A6A3-A1CBCB1BBB33}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F53)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3605,7 +3962,7 @@
           <xm:sqref>F53 F54:G54 F55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{9846E030-D336-4ABF-8549-0B217B1EE9C0}">
+          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{9846E030-D336-4ABF-8549-0B217B1EE9C0}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F57)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3619,7 +3976,7 @@
           <xm:sqref>F57:F58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
+          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F60)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3633,7 +3990,21 @@
           <xm:sqref>F60 F61:G62 F63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="63" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="37" operator="containsText" id="{A87BC3C4-539A-4D6D-94C0-DF4DFEA06C8A}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F71)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F71 F72:G74</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="77" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3647,7 +4018,7 @@
           <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+          <x14:cfRule type="containsText" priority="72" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F31)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3661,7 +4032,7 @@
           <xm:sqref>F31:G31 F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="47" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
+          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F33)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3675,7 +4046,7 @@
           <xm:sqref>F33:G38 F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
+          <x14:cfRule type="containsText" priority="49" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F41)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3689,7 +4060,7 @@
           <xm:sqref>F41:G41 F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
+          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F46)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3703,7 +4074,7 @@
           <xm:sqref>F46:G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{FBCB4E68-F50D-4BE4-8CEE-A9CE7EAE06EE}">
+          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{FBCB4E68-F50D-4BE4-8CEE-A9CE7EAE06EE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F65)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3717,8 +4088,8 @@
           <xm:sqref>F65:G69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="23" operator="containsText" id="{A87BC3C4-539A-4D6D-94C0-DF4DFEA06C8A}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F71)))</xm:f>
+          <x14:cfRule type="containsText" priority="71" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F90)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3728,10 +4099,311 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F72:G74 F71</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+          <xm:sqref>F90:G94</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G11:G12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G16:G18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G20:G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="65" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G27:G28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{7506C776-F73B-475A-A848-0E98C716D28F}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{EEDBCFEE-8EE0-4370-A603-3DD0D0A3C004}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{EBD16DC6-D1FA-4FC5-B74B-CA3CF0413675}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G57:G58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{CB5C53FD-3D5D-4030-A78E-D6ACDDA5D5F7}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{28414CE1-4551-493E-98F2-E4708C3326DE}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{19A160C2-6897-43F9-AB25-0B60E506490B}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{ADE6CB81-D9D0-48F2-9C85-E16B2BF29862}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{55F477B7-B1DC-46AE-A524-88B3A20B5977}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{4C8DA778-7BD2-48DB-BF6A-9245CE0F1D9B}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E84:E88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{28C512BB-433D-4051-BC38-3184013F28AC}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F84)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F84:G88</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{B10F1EF4-4868-42BE-A41F-11E6C1FD0A51}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{1C5F2E87-DF83-463F-94BF-D106C12BBF55}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{32AD346D-2E3B-4F75-B5A5-08F8E5ECB999}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E76:E81</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{3688DB4D-873A-4169-BE4C-08434A027D62}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F76)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3742,10 +4414,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F76:G80</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="56" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+          <xm:sqref>F78:G79 F77 F76:G76 F81:G81 F80</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{00F23C9E-DDD9-4FA9-A3E8-9A0AD9758B52}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3755,10 +4427,44 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G11:G12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+          <xm:sqref>G77</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{05D29BF1-5036-4E14-BE13-0C412BA66951}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{4DFA78F5-0615-4104-9AD9-B5CC70C2141F}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{25621FE1-D458-4CA1-8338-61DA3BC6E612}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{3676A8E9-1CF5-4FD9-A556-39859711926D}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F82)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3768,10 +4474,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+          <xm:sqref>F82:G82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{F097F3F4-8FE5-45E2-8559-FEAB3C953D2F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3781,189 +4487,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G16:G18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G20:G21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G27:G28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{7506C776-F73B-475A-A848-0E98C716D28F}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{EEDBCFEE-8EE0-4370-A603-3DD0D0A3C004}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{EBD16DC6-D1FA-4FC5-B74B-CA3CF0413675}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G57:G58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{CB5C53FD-3D5D-4030-A78E-D6ACDDA5D5F7}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{28414CE1-4551-493E-98F2-E4708C3326DE}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{19A160C2-6897-43F9-AB25-0B60E506490B}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G71</xm:sqref>
+          <xm:sqref>G76:G82</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3973,7 +4497,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E82:E1048576 E27:E29 E23:E25 E76:E80 E31:E39 E41:E42 E44 E46:E51 E71:E74 E53:E55 E60:E63 E57:E58 E65:E69</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E96:E1048576 E27:E29 E23:E25 E90:E94 E31:E39 E41:E42 E44 E46:E51 E71:E74 E53:E55 E60:E63 E57:E58 E65:E69 E84:E88 E76:E82</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4009,6 +4533,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -4251,27 +4795,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4288,23 +4831,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\CraftMeUp\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B8BF37-5B30-4232-8EB3-E8FD28225D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904DC7D6-D5A6-42CA-A463-A7B526DD9173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Restrictions" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$96</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$98</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="143">
   <si>
     <t>Experts </t>
   </si>
@@ -455,6 +455,21 @@
   </si>
   <si>
     <t>Changing how biomes render</t>
+  </si>
+  <si>
+    <t>Day 17</t>
+  </si>
+  <si>
+    <t>Adding a setting to update the chunk amount</t>
+  </si>
+  <si>
+    <t>Finished a test early, so I worked on this</t>
+  </si>
+  <si>
+    <t>Day 16 Again</t>
+  </si>
+  <si>
+    <t>Day 18</t>
   </si>
 </sst>
 </file>
@@ -677,7 +692,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -772,22 +787,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -796,6 +798,12 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -813,11 +821,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -825,12 +833,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="78">
     <dxf>
       <fill>
         <patternFill>
@@ -841,6 +860,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -848,6 +888,279 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -869,20 +1182,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -898,272 +1197,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1673,13 +1706,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D83" sqref="D83:G83"/>
+      <selection pane="bottomRight" activeCell="D85" sqref="D85:G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1699,65 +1732,65 @@
       <c r="A1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="37"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1786,7 +1819,7 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="29">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1809,7 +1842,7 @@
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1828,7 +1861,7 @@
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1855,19 +1888,19 @@
       <c r="C9" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="42">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="29">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1888,7 +1921,7 @@
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
@@ -1909,7 +1942,7 @@
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
@@ -1930,7 +1963,7 @@
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
@@ -1949,7 +1982,7 @@
       <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
@@ -1976,19 +2009,19 @@
       <c r="C15" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="42">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="29">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
@@ -2011,7 +2044,7 @@
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
@@ -2032,7 +2065,7 @@
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
@@ -2059,19 +2092,19 @@
       <c r="C19" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="42">
         <f>SUM(C16:C18)</f>
         <v>145</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="29">
         <v>45972</v>
       </c>
       <c r="C20" s="5"/>
@@ -2092,7 +2125,7 @@
       <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="7">
         <v>105</v>
       </c>
@@ -2119,19 +2152,19 @@
       <c r="C22" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="42">
         <f>SUM(C20:C21)</f>
         <v>105</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="29">
         <v>45978</v>
       </c>
       <c r="C23" s="5">
@@ -2154,7 +2187,7 @@
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="7">
         <v>10</v>
       </c>
@@ -2173,7 +2206,7 @@
       <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="9">
         <v>25</v>
       </c>
@@ -2200,19 +2233,19 @@
       <c r="C26" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="42">
         <f>SUM(C23:C25)</f>
         <v>140</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="29">
         <v>45979</v>
       </c>
       <c r="C27" s="5">
@@ -2235,7 +2268,7 @@
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="7">
         <v>45</v>
       </c>
@@ -2256,7 +2289,7 @@
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="7">
         <v>10</v>
       </c>
@@ -2281,19 +2314,19 @@
       <c r="C30" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="42">
         <f>SUM(C27:C29)</f>
         <v>155</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="29">
         <v>45985</v>
       </c>
       <c r="C31" s="5">
@@ -2314,7 +2347,7 @@
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="7">
         <v>20</v>
       </c>
@@ -2335,7 +2368,7 @@
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="34"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="7">
         <v>30</v>
       </c>
@@ -2354,7 +2387,7 @@
       <c r="A34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="34"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="7">
         <v>15</v>
       </c>
@@ -2373,7 +2406,7 @@
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="7">
         <v>10</v>
       </c>
@@ -2392,7 +2425,7 @@
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="7">
         <v>10</v>
       </c>
@@ -2411,7 +2444,7 @@
       <c r="A37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="34"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="7">
         <v>30</v>
       </c>
@@ -2430,7 +2463,7 @@
       <c r="A38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="7">
         <v>5</v>
       </c>
@@ -2449,7 +2482,7 @@
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="34"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="7">
         <v>10</v>
       </c>
@@ -2476,19 +2509,19 @@
       <c r="C40" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="42">
         <f>SUM(C31:C39)</f>
         <v>140</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B41" s="29">
         <v>45986</v>
       </c>
       <c r="C41" s="5">
@@ -2509,7 +2542,7 @@
       <c r="A42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="34"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="7">
         <v>175</v>
       </c>
@@ -2536,13 +2569,13 @@
       <c r="C43" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="28">
+      <c r="D43" s="42">
         <f>SUM(C41:C42)</f>
         <v>190</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="29"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
     </row>
     <row r="44" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -2577,19 +2610,19 @@
       <c r="C45" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D45" s="42">
         <f>SUM(C44:C44)</f>
         <v>140</v>
       </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="33">
+      <c r="B46" s="29">
         <v>45993</v>
       </c>
       <c r="C46" s="5">
@@ -2610,7 +2643,7 @@
       <c r="A47" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="34"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="7">
         <v>75</v>
       </c>
@@ -2629,7 +2662,7 @@
       <c r="A48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="34"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="7">
         <v>15</v>
       </c>
@@ -2648,7 +2681,7 @@
       <c r="A49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="34"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="7">
         <v>10</v>
       </c>
@@ -2667,7 +2700,7 @@
       <c r="A50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="34"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="7">
         <v>10</v>
       </c>
@@ -2686,7 +2719,7 @@
       <c r="A51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="34"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="7">
         <v>35</v>
       </c>
@@ -2711,19 +2744,19 @@
       <c r="C52" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="28">
+      <c r="D52" s="42">
         <f>SUM(C46:C51)</f>
         <v>190</v>
       </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="29"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="43"/>
     </row>
     <row r="53" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="33">
+      <c r="B53" s="29">
         <v>45999</v>
       </c>
       <c r="C53" s="5">
@@ -2746,7 +2779,7 @@
       <c r="A54" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="34"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="7">
         <v>15</v>
       </c>
@@ -2765,7 +2798,7 @@
       <c r="A55" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="34"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="7">
         <v>65</v>
       </c>
@@ -2792,19 +2825,19 @@
       <c r="C56" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="28">
+      <c r="D56" s="42">
         <f>SUM(C53:C55)</f>
         <v>140</v>
       </c>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="43"/>
     </row>
     <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B57" s="29">
         <v>46006</v>
       </c>
       <c r="C57" s="5">
@@ -2827,7 +2860,7 @@
       <c r="A58" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="34"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="7">
         <v>125</v>
       </c>
@@ -2854,19 +2887,19 @@
       <c r="C59" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="28">
+      <c r="D59" s="42">
         <f>SUM(C57:C58)</f>
         <v>140</v>
       </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="29"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="43"/>
     </row>
     <row r="60" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="33">
+      <c r="B60" s="29">
         <v>46007</v>
       </c>
       <c r="C60" s="5">
@@ -2889,7 +2922,7 @@
       <c r="A61" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="34"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="7">
         <v>10</v>
       </c>
@@ -2908,7 +2941,7 @@
       <c r="A62" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="34"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="7">
         <v>45</v>
       </c>
@@ -2927,7 +2960,7 @@
       <c r="A63" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="34"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="7">
         <v>65</v>
       </c>
@@ -2954,19 +2987,19 @@
       <c r="C64" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="28">
+      <c r="D64" s="42">
         <f>SUM(C60:C63)</f>
         <v>180</v>
       </c>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="43"/>
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="33">
+      <c r="B65" s="29">
         <v>46027</v>
       </c>
       <c r="C65" s="5">
@@ -2987,7 +3020,7 @@
       <c r="A66" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="34"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="7">
         <v>10</v>
       </c>
@@ -3006,7 +3039,7 @@
       <c r="A67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="34"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="7">
         <v>10</v>
       </c>
@@ -3025,7 +3058,7 @@
       <c r="A68" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="34"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="7">
         <v>45</v>
       </c>
@@ -3044,7 +3077,7 @@
       <c r="A69" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="34"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="7">
         <v>70</v>
       </c>
@@ -3071,19 +3104,19 @@
       <c r="C70" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D70" s="28">
+      <c r="D70" s="42">
         <f>SUM(C65:C69)</f>
         <v>145</v>
       </c>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="29"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
     </row>
     <row r="71" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="33">
+      <c r="B71" s="29">
         <v>46042</v>
       </c>
       <c r="C71" s="5">
@@ -3106,7 +3139,7 @@
       <c r="A72" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="34"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="7">
         <v>5</v>
       </c>
@@ -3125,7 +3158,7 @@
       <c r="A73" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="34"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="7">
         <v>40</v>
       </c>
@@ -3144,7 +3177,7 @@
       <c r="A74" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="34"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="7">
         <v>15</v>
       </c>
@@ -3169,19 +3202,19 @@
       <c r="C75" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D75" s="28">
+      <c r="D75" s="42">
         <f>SUM(C71:C74)</f>
         <v>195</v>
       </c>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="29"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="43"/>
     </row>
     <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="33">
+      <c r="B76" s="29">
         <v>46049</v>
       </c>
       <c r="C76" s="7">
@@ -3202,7 +3235,7 @@
       <c r="A77" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="34"/>
+      <c r="B77" s="30"/>
       <c r="C77" s="7">
         <v>25</v>
       </c>
@@ -3223,7 +3256,7 @@
       <c r="A78" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B78" s="34"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="7">
         <v>10</v>
       </c>
@@ -3242,7 +3275,7 @@
       <c r="A79" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="34"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="7">
         <v>65</v>
       </c>
@@ -3263,7 +3296,7 @@
       <c r="A80" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="34"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="7">
         <v>15</v>
       </c>
@@ -3282,7 +3315,7 @@
       <c r="A81" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="34"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="7">
         <v>40</v>
       </c>
@@ -3301,7 +3334,7 @@
       <c r="A82" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B82" s="34"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="7">
         <v>15</v>
       </c>
@@ -3326,177 +3359,226 @@
       <c r="C83" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="28">
+      <c r="D83" s="42">
         <f>SUM(C76:C82)</f>
         <v>185</v>
       </c>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="29"/>
-    </row>
-    <row r="84" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="19"/>
-    </row>
-    <row r="85" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="19"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="43"/>
+    </row>
+    <row r="84" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="28">
+        <v>46049</v>
+      </c>
+      <c r="C84" s="5">
+        <v>25</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="23">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" s="42">
+        <f>SUM(C84:C84)</f>
+        <v>25</v>
+      </c>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="43"/>
     </row>
     <row r="86" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="7"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="5"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="7"/>
+      <c r="F86" s="22"/>
       <c r="G86" s="19"/>
     </row>
     <row r="87" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
-      <c r="B87" s="34"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
-      <c r="F87" s="7"/>
+      <c r="F87" s="22"/>
       <c r="G87" s="19"/>
     </row>
-    <row r="88" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="9"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="9"/>
+    <row r="88" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="7"/>
       <c r="D88" s="8"/>
-      <c r="E88" s="10"/>
+      <c r="E88" s="8"/>
       <c r="F88" s="7"/>
       <c r="G88" s="19"/>
     </row>
-    <row r="89" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="11" t="s">
+    <row r="89" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="19"/>
+    </row>
+    <row r="90" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="9"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="19"/>
+    </row>
+    <row r="91" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B89" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C89" s="17" t="s">
+      <c r="B91" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D89" s="28">
-        <f>SUM(C84:C88)</f>
+      <c r="D91" s="42">
+        <f>SUM(C86:C90)</f>
         <v>0</v>
       </c>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="29"/>
-    </row>
-    <row r="90" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="19"/>
-    </row>
-    <row r="91" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="19"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="43"/>
     </row>
     <row r="92" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="7"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
-      <c r="F92" s="7"/>
+      <c r="F92" s="22"/>
       <c r="G92" s="19"/>
     </row>
     <row r="93" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
-      <c r="B93" s="34"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="7"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
-      <c r="F93" s="7"/>
+      <c r="F93" s="22"/>
       <c r="G93" s="19"/>
     </row>
-    <row r="94" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="9"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="9"/>
+    <row r="94" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="7"/>
       <c r="D94" s="8"/>
-      <c r="E94" s="10"/>
+      <c r="E94" s="8"/>
       <c r="F94" s="7"/>
       <c r="G94" s="19"/>
     </row>
-    <row r="95" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="11" t="s">
+    <row r="95" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="19"/>
+    </row>
+    <row r="96" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="9"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="19"/>
+    </row>
+    <row r="97" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C95" s="17" t="s">
+      <c r="B97" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D95" s="28">
-        <f>SUM(C90:C94)</f>
+      <c r="D97" s="42">
+        <f>SUM(C92:C96)</f>
         <v>0</v>
       </c>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="29"/>
-    </row>
-    <row r="96" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="40" t="s">
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="43"/>
+    </row>
+    <row r="98" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B96" s="41"/>
-      <c r="C96" s="12">
-        <f>MROUND(SUM(C6:C95) /60,0.2)</f>
-        <v>41.6</v>
-      </c>
-      <c r="D96" s="13"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="14"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="12">
+        <f>MROUND(SUM(C6:C97) /60,0.2)</f>
+        <v>42</v>
+      </c>
+      <c r="D98" s="13"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="14"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="15"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="B76:B82"/>
+  <mergeCells count="47">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -3506,35 +3588,28 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B76:B82"/>
+    <mergeCell ref="B86:B90"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C90:C94 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51 C71:C74 C53:C55 C60:C63 C57:C58 C65:C69 C84:C88 C76:C82" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C92:C96 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51 C71:C74 C53:C55 C60:C63 C57:C58 C65:C69 C84 C76:C82 C86:C90" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B90:B94 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51 B71:B74 B53:B55 B60:B63 B57:B58 B65:B69 B84:B88 B76:B82" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B92:B96 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51 B71:B74 B53:B55 B60:B63 B57:B58 B65:B69 B84 B76:B82 B86:B90" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
@@ -3544,7 +3619,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="32" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Etml_font,Normal"&amp;22ETML&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;14&amp;D&amp;R&amp;14Journal</oddFooter>
@@ -3554,7 +3629,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="82" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="88" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3564,10 +3639,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A90:E94 A96:E1048576 A44:E44 A41:E42 A46:E51 A71:E74 A65:E69 A60:E63 A57:E58 A53:E55 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A59:D59 A64:D64 A70:D70 A75:D75 A95:D95 G96:G1048576 A84:E88 A89:D89 A83:D83 A76:E82</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="81" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A92:E96 A98:E1048576 A44:E44 A41:E42 A46:E51 A71:E74 A65:E69 A60:E63 A57:E58 A53:E55 A84:E84 A76:E82 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A59:D59 A64:D64 A70:D70 A75:D75 A83:D83 A85:D85 A97:D97 G98:G1048576 A86:E90 A91:D91</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="87" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3577,7 +3652,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="83" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+          <x14:cfRule type="cellIs" priority="89" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3587,7 +3662,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="84" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+          <x14:cfRule type="cellIs" priority="90" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3597,10 +3672,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E90:E94 E96:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
+          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E92:E96 E98:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="56" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3610,7 +3685,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
+          <x14:cfRule type="cellIs" priority="57" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3620,7 +3695,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
+          <x14:cfRule type="cellIs" priority="58" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3633,7 +3708,7 @@
           <xm:sqref>E41:E42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
+          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3643,7 +3718,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
+          <x14:cfRule type="cellIs" priority="61" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3653,7 +3728,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="56" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
+          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3666,7 +3741,7 @@
           <xm:sqref>E44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
+          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3676,7 +3751,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
+          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3686,7 +3761,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
+          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3699,7 +3774,7 @@
           <xm:sqref>E46:E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{38CC099F-2CFB-4F51-BCC6-9A8C062F12D6}">
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{38CC099F-2CFB-4F51-BCC6-9A8C062F12D6}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3709,7 +3784,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{97B7369B-F3E2-421C-8B11-B917735F9E01}">
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{97B7369B-F3E2-421C-8B11-B917735F9E01}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3719,7 +3794,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{9BE9A0C0-12EE-4A06-AA91-2B2C7773C591}">
+          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{9BE9A0C0-12EE-4A06-AA91-2B2C7773C591}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3732,7 +3807,7 @@
           <xm:sqref>E53:E55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{CE91AE07-0A4B-4CA1-864E-4494D1FD3F2D}">
+          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{CE91AE07-0A4B-4CA1-864E-4494D1FD3F2D}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3742,7 +3817,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{E33B63BE-9C2D-46FB-840B-160E77C144D1}">
+          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{E33B63BE-9C2D-46FB-840B-160E77C144D1}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3752,7 +3827,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{06F1F730-9D3E-44F6-9858-23332EAE481C}">
+          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{06F1F730-9D3E-44F6-9858-23332EAE481C}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3765,7 +3840,7 @@
           <xm:sqref>E57:E58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{6138D6EC-9477-4522-A720-100D44F804C5}">
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{6138D6EC-9477-4522-A720-100D44F804C5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3775,7 +3850,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{7FB697E4-A1F6-44CC-8422-CFE46191EC29}">
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{7FB697E4-A1F6-44CC-8422-CFE46191EC29}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3785,7 +3860,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{F3D48842-32E0-470D-8962-C942EB8B670B}">
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{F3D48842-32E0-470D-8962-C942EB8B670B}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3798,7 +3873,7 @@
           <xm:sqref>E60:E63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{CF4E2A7B-2831-4A8E-8CB0-05A3819B6512}">
+          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{CF4E2A7B-2831-4A8E-8CB0-05A3819B6512}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3808,7 +3883,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{5A6DBF38-AB31-41CF-92EB-6F71330B8A51}">
+          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{5A6DBF38-AB31-41CF-92EB-6F71330B8A51}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3818,7 +3893,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{806E81D0-33D7-43D5-9F66-9ACF5303AA2B}">
+          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{806E81D0-33D7-43D5-9F66-9ACF5303AA2B}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3831,7 +3906,7 @@
           <xm:sqref>E65:E69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{EC003FB1-6A08-40D6-88B1-588BCE936C35}">
+          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{EC003FB1-6A08-40D6-88B1-588BCE936C35}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3841,7 +3916,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{CCF6CA8D-69A5-48BE-8938-2E3B52B06A90}">
+          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{CCF6CA8D-69A5-48BE-8938-2E3B52B06A90}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3851,7 +3926,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{5E85ED66-7E81-44BB-AFFF-3FBE898F7448}">
+          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{5E85ED66-7E81-44BB-AFFF-3FBE898F7448}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3864,7 +3939,73 @@
           <xm:sqref>E71:E74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="78" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{05D29BF1-5036-4E14-BE13-0C412BA66951}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{4DFA78F5-0615-4104-9AD9-B5CC70C2141F}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{25621FE1-D458-4CA1-8338-61DA3BC6E612}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E76:E82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{ADE6CB81-D9D0-48F2-9C85-E16B2BF29862}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{55F477B7-B1DC-46AE-A524-88B3A20B5977}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{4C8DA778-7BD2-48DB-BF6A-9245CE0F1D9B}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="84" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3878,7 +4019,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="76" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="82" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3892,7 +4033,7 @@
           <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="75" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="81" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3906,7 +4047,7 @@
           <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="74" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+          <x14:cfRule type="containsText" priority="80" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F23)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3920,7 +4061,7 @@
           <xm:sqref>F23 F24:G24 F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="73" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+          <x14:cfRule type="containsText" priority="79" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F27)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3934,7 +4075,7 @@
           <xm:sqref>F27:F28 F29:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="53" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
+          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F44)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3948,7 +4089,7 @@
           <xm:sqref>F44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{2CEED9A6-BF96-4A7D-A6A3-A1CBCB1BBB33}">
+          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{2CEED9A6-BF96-4A7D-A6A3-A1CBCB1BBB33}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F53)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3962,7 +4103,7 @@
           <xm:sqref>F53 F54:G54 F55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{9846E030-D336-4ABF-8549-0B217B1EE9C0}">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{9846E030-D336-4ABF-8549-0B217B1EE9C0}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F57)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3976,7 +4117,7 @@
           <xm:sqref>F57:F58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="29" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
+          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F60)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -3990,7 +4131,7 @@
           <xm:sqref>F60 F61:G62 F63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="37" operator="containsText" id="{A87BC3C4-539A-4D6D-94C0-DF4DFEA06C8A}">
+          <x14:cfRule type="containsText" priority="43" operator="containsText" id="{A87BC3C4-539A-4D6D-94C0-DF4DFEA06C8A}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F71)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4004,7 +4145,7 @@
           <xm:sqref>F71 F72:G74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="77" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="83" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4018,7 +4159,7 @@
           <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="72" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+          <x14:cfRule type="containsText" priority="78" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F31)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4032,7 +4173,7 @@
           <xm:sqref>F31:G31 F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="61" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
+          <x14:cfRule type="containsText" priority="67" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F33)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4046,7 +4187,7 @@
           <xm:sqref>F33:G38 F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="49" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
+          <x14:cfRule type="containsText" priority="55" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F41)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4060,7 +4201,7 @@
           <xm:sqref>F41:G41 F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
+          <x14:cfRule type="containsText" priority="47" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F46)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4074,7 +4215,7 @@
           <xm:sqref>F46:G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{FBCB4E68-F50D-4BE4-8CEE-A9CE7EAE06EE}">
+          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{FBCB4E68-F50D-4BE4-8CEE-A9CE7EAE06EE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F65)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4088,8 +4229,8 @@
           <xm:sqref>F65:G69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="71" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F90)))</xm:f>
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{3688DB4D-873A-4169-BE4C-08434A027D62}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F76)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4099,10 +4240,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F90:G94</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+          <xm:sqref>F76:G76 F77 F78:G79 F80</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{3676A8E9-1CF5-4FD9-A556-39859711926D}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F81)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4112,251 +4254,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G11:G12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G16:G18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G20:G21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="65" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G27:G28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{7506C776-F73B-475A-A848-0E98C716D28F}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{EEDBCFEE-8EE0-4370-A603-3DD0D0A3C004}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{EBD16DC6-D1FA-4FC5-B74B-CA3CF0413675}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G57:G58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{CB5C53FD-3D5D-4030-A78E-D6ACDDA5D5F7}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{28414CE1-4551-493E-98F2-E4708C3326DE}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{19A160C2-6897-43F9-AB25-0B60E506490B}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G71</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{ADE6CB81-D9D0-48F2-9C85-E16B2BF29862}">
-            <xm:f>Restrictions!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{55F477B7-B1DC-46AE-A524-88B3A20B5977}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{4C8DA778-7BD2-48DB-BF6A-9245CE0F1D9B}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E84:E88</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{28C512BB-433D-4051-BC38-3184013F28AC}">
+          <xm:sqref>F81:G82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{28C512BB-433D-4051-BC38-3184013F28AC}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F84)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4367,10 +4268,285 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F84:G88</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{B10F1EF4-4868-42BE-A41F-11E6C1FD0A51}">
+          <xm:sqref>F84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="77" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F92)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F92:G96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="76" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G11:G12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="75" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="74" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G16:G18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="73" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G20:G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="71" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G27:G28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{7506C776-F73B-475A-A848-0E98C716D28F}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{EEDBCFEE-8EE0-4370-A603-3DD0D0A3C004}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{EBD16DC6-D1FA-4FC5-B74B-CA3CF0413675}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G57:G58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{CB5C53FD-3D5D-4030-A78E-D6ACDDA5D5F7}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{28414CE1-4551-493E-98F2-E4708C3326DE}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{19A160C2-6897-43F9-AB25-0B60E506490B}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{F097F3F4-8FE5-45E2-8559-FEAB3C953D2F}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G76:G82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{1CA0FC1F-6CFD-462C-912C-B25E380596FE}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,G84)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{5807043D-1F29-422E-BEA0-1A1F24E45DE5}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{8A959092-8A6B-4A91-99D1-8110E43AA729}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4380,7 +4556,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{1C5F2E87-DF83-463F-94BF-D106C12BBF55}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{F801D24C-AFDA-4757-9BC6-FB24B4DE466D}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4390,7 +4566,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{32AD346D-2E3B-4F75-B5A5-08F8E5ECB999}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{8CF84F96-ED65-491E-B676-DA2F761CE9EB}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4400,11 +4576,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E76:E81</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{3688DB4D-873A-4169-BE4C-08434A027D62}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F76)))</xm:f>
+          <xm:sqref>E86:E90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{62C04585-298E-46F6-A3FE-D1D6BEA55A91}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F86)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4414,80 +4590,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F78:G79 F77 F76:G76 F81:G81 F80</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{00F23C9E-DDD9-4FA9-A3E8-9A0AD9758B52}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G77</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{05D29BF1-5036-4E14-BE13-0C412BA66951}">
-            <xm:f>Restrictions!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{4DFA78F5-0615-4104-9AD9-B5CC70C2141F}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{25621FE1-D458-4CA1-8338-61DA3BC6E612}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E82</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{3676A8E9-1CF5-4FD9-A556-39859711926D}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F82)))</xm:f>
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F82:G82</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{F097F3F4-8FE5-45E2-8559-FEAB3C953D2F}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G76:G82</xm:sqref>
+          <xm:sqref>F86:G90</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4497,7 +4600,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E96:E1048576 E27:E29 E23:E25 E90:E94 E31:E39 E41:E42 E44 E46:E51 E71:E74 E53:E55 E60:E63 E57:E58 E65:E69 E84:E88 E76:E82</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E98:E1048576 E27:E29 E23:E25 E92:E96 E31:E39 E41:E42 E44 E46:E51 E71:E74 E53:E55 E60:E63 E57:E58 E65:E69 E84 E76:E82 E86:E90</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4533,26 +4636,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -4795,10 +4878,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4815,20 +4929,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\CraftMeUp\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904DC7D6-D5A6-42CA-A463-A7B526DD9173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FF6F03-4927-4E56-BD8F-F918709B064A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,10 +466,10 @@
     <t>Finished a test early, so I worked on this</t>
   </si>
   <si>
-    <t>Day 16 Again</t>
-  </si>
-  <si>
     <t>Day 18</t>
+  </si>
+  <si>
+    <t>Fixed obstacle generation</t>
   </si>
 </sst>
 </file>
@@ -692,7 +692,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -787,9 +787,22 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -798,12 +811,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -821,35 +828,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="82">
     <dxf>
       <fill>
         <patternFill>
@@ -860,6 +856,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1155,6 +1158,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1712,7 +1736,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D85" sqref="D85:G85"/>
+      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1732,35 +1756,35 @@
       <c r="A1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
@@ -1770,27 +1794,27 @@
         <v>129</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="39"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="39"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1819,7 +1843,7 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="33">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1842,7 +1866,7 @@
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1861,7 +1885,7 @@
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1888,19 +1912,19 @@
       <c r="C9" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="28">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="33">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1921,7 +1945,7 @@
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
@@ -1942,7 +1966,7 @@
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
@@ -1963,7 +1987,7 @@
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
@@ -1982,7 +2006,7 @@
       <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
@@ -2009,19 +2033,19 @@
       <c r="C15" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="28">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="33">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
@@ -2044,7 +2068,7 @@
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
@@ -2065,7 +2089,7 @@
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
@@ -2092,19 +2116,19 @@
       <c r="C19" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="28">
         <f>SUM(C16:C18)</f>
         <v>145</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="33">
         <v>45972</v>
       </c>
       <c r="C20" s="5"/>
@@ -2125,7 +2149,7 @@
       <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="7">
         <v>105</v>
       </c>
@@ -2152,19 +2176,19 @@
       <c r="C22" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="28">
         <f>SUM(C20:C21)</f>
         <v>105</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="33">
         <v>45978</v>
       </c>
       <c r="C23" s="5">
@@ -2187,7 +2211,7 @@
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="30"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="7">
         <v>10</v>
       </c>
@@ -2206,7 +2230,7 @@
       <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="30"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="9">
         <v>25</v>
       </c>
@@ -2233,19 +2257,19 @@
       <c r="C26" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="28">
         <f>SUM(C23:C25)</f>
         <v>140</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="33">
         <v>45979</v>
       </c>
       <c r="C27" s="5">
@@ -2268,7 +2292,7 @@
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="7">
         <v>45</v>
       </c>
@@ -2289,7 +2313,7 @@
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="30"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="7">
         <v>10</v>
       </c>
@@ -2314,19 +2338,19 @@
       <c r="C30" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="28">
         <f>SUM(C27:C29)</f>
         <v>155</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="33">
         <v>45985</v>
       </c>
       <c r="C31" s="5">
@@ -2347,7 +2371,7 @@
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="30"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="7">
         <v>20</v>
       </c>
@@ -2368,7 +2392,7 @@
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="30"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="7">
         <v>30</v>
       </c>
@@ -2387,7 +2411,7 @@
       <c r="A34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="30"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="7">
         <v>15</v>
       </c>
@@ -2406,7 +2430,7 @@
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="30"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="7">
         <v>10</v>
       </c>
@@ -2425,7 +2449,7 @@
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="30"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="7">
         <v>10</v>
       </c>
@@ -2444,7 +2468,7 @@
       <c r="A37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="30"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="7">
         <v>30</v>
       </c>
@@ -2463,7 +2487,7 @@
       <c r="A38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="30"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="7">
         <v>5</v>
       </c>
@@ -2482,7 +2506,7 @@
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="30"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="7">
         <v>10</v>
       </c>
@@ -2509,19 +2533,19 @@
       <c r="C40" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="28">
         <f>SUM(C31:C39)</f>
         <v>140</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="29">
+      <c r="B41" s="33">
         <v>45986</v>
       </c>
       <c r="C41" s="5">
@@ -2542,7 +2566,7 @@
       <c r="A42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="30"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="7">
         <v>175</v>
       </c>
@@ -2569,13 +2593,13 @@
       <c r="C43" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="42">
+      <c r="D43" s="28">
         <f>SUM(C41:C42)</f>
         <v>190</v>
       </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="43"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -2610,19 +2634,19 @@
       <c r="C45" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D45" s="28">
         <f>SUM(C44:C44)</f>
         <v>140</v>
       </c>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="29"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="33">
         <v>45993</v>
       </c>
       <c r="C46" s="5">
@@ -2643,7 +2667,7 @@
       <c r="A47" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="30"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="7">
         <v>75</v>
       </c>
@@ -2662,7 +2686,7 @@
       <c r="A48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="30"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="7">
         <v>15</v>
       </c>
@@ -2681,7 +2705,7 @@
       <c r="A49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="30"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="7">
         <v>10</v>
       </c>
@@ -2700,7 +2724,7 @@
       <c r="A50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="30"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="7">
         <v>10</v>
       </c>
@@ -2719,7 +2743,7 @@
       <c r="A51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="30"/>
+      <c r="B51" s="34"/>
       <c r="C51" s="7">
         <v>35</v>
       </c>
@@ -2744,19 +2768,19 @@
       <c r="C52" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="42">
+      <c r="D52" s="28">
         <f>SUM(C46:C51)</f>
         <v>190</v>
       </c>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="43"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29"/>
     </row>
     <row r="53" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="29">
+      <c r="B53" s="33">
         <v>45999</v>
       </c>
       <c r="C53" s="5">
@@ -2779,7 +2803,7 @@
       <c r="A54" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="30"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="7">
         <v>15</v>
       </c>
@@ -2798,7 +2822,7 @@
       <c r="A55" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="30"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="7">
         <v>65</v>
       </c>
@@ -2825,19 +2849,19 @@
       <c r="C56" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="42">
+      <c r="D56" s="28">
         <f>SUM(C53:C55)</f>
         <v>140</v>
       </c>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="43"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="29">
+      <c r="B57" s="33">
         <v>46006</v>
       </c>
       <c r="C57" s="5">
@@ -2860,7 +2884,7 @@
       <c r="A58" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="30"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="7">
         <v>125</v>
       </c>
@@ -2887,19 +2911,19 @@
       <c r="C59" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="42">
+      <c r="D59" s="28">
         <f>SUM(C57:C58)</f>
         <v>140</v>
       </c>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="43"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="29"/>
     </row>
     <row r="60" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="29">
+      <c r="B60" s="33">
         <v>46007</v>
       </c>
       <c r="C60" s="5">
@@ -2922,7 +2946,7 @@
       <c r="A61" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="30"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="7">
         <v>10</v>
       </c>
@@ -2941,7 +2965,7 @@
       <c r="A62" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="30"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="7">
         <v>45</v>
       </c>
@@ -2960,7 +2984,7 @@
       <c r="A63" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="30"/>
+      <c r="B63" s="34"/>
       <c r="C63" s="7">
         <v>65</v>
       </c>
@@ -2987,19 +3011,19 @@
       <c r="C64" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="42">
+      <c r="D64" s="28">
         <f>SUM(C60:C63)</f>
         <v>180</v>
       </c>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="43"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="29"/>
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="29">
+      <c r="B65" s="33">
         <v>46027</v>
       </c>
       <c r="C65" s="5">
@@ -3020,7 +3044,7 @@
       <c r="A66" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="30"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="7">
         <v>10</v>
       </c>
@@ -3039,7 +3063,7 @@
       <c r="A67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="30"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="7">
         <v>10</v>
       </c>
@@ -3058,7 +3082,7 @@
       <c r="A68" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="30"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="7">
         <v>45</v>
       </c>
@@ -3077,7 +3101,7 @@
       <c r="A69" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="30"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="7">
         <v>70</v>
       </c>
@@ -3104,19 +3128,19 @@
       <c r="C70" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D70" s="42">
+      <c r="D70" s="28">
         <f>SUM(C65:C69)</f>
         <v>145</v>
       </c>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="43"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="29"/>
     </row>
     <row r="71" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="29">
+      <c r="B71" s="33">
         <v>46042</v>
       </c>
       <c r="C71" s="5">
@@ -3139,7 +3163,7 @@
       <c r="A72" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="30"/>
+      <c r="B72" s="34"/>
       <c r="C72" s="7">
         <v>5</v>
       </c>
@@ -3158,7 +3182,7 @@
       <c r="A73" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="30"/>
+      <c r="B73" s="34"/>
       <c r="C73" s="7">
         <v>40</v>
       </c>
@@ -3177,7 +3201,7 @@
       <c r="A74" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="30"/>
+      <c r="B74" s="34"/>
       <c r="C74" s="7">
         <v>15</v>
       </c>
@@ -3202,19 +3226,19 @@
       <c r="C75" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D75" s="42">
+      <c r="D75" s="28">
         <f>SUM(C71:C74)</f>
         <v>195</v>
       </c>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="43"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="29"/>
     </row>
     <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="29">
+      <c r="B76" s="33">
         <v>46049</v>
       </c>
       <c r="C76" s="7">
@@ -3235,7 +3259,7 @@
       <c r="A77" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="30"/>
+      <c r="B77" s="34"/>
       <c r="C77" s="7">
         <v>25</v>
       </c>
@@ -3256,7 +3280,7 @@
       <c r="A78" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B78" s="30"/>
+      <c r="B78" s="34"/>
       <c r="C78" s="7">
         <v>10</v>
       </c>
@@ -3275,7 +3299,7 @@
       <c r="A79" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="30"/>
+      <c r="B79" s="34"/>
       <c r="C79" s="7">
         <v>65</v>
       </c>
@@ -3296,7 +3320,7 @@
       <c r="A80" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="30"/>
+      <c r="B80" s="34"/>
       <c r="C80" s="7">
         <v>15</v>
       </c>
@@ -3315,7 +3339,7 @@
       <c r="A81" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="30"/>
+      <c r="B81" s="34"/>
       <c r="C81" s="7">
         <v>40</v>
       </c>
@@ -3330,11 +3354,11 @@
       </c>
       <c r="G81" s="8"/>
     </row>
-    <row r="82" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B82" s="30"/>
+      <c r="B82" s="34"/>
       <c r="C82" s="7">
         <v>15</v>
       </c>
@@ -3349,68 +3373,67 @@
       </c>
       <c r="G82" s="8"/>
     </row>
-    <row r="83" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D83" s="42">
-        <f>SUM(C76:C82)</f>
-        <v>185</v>
-      </c>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="43"/>
+    <row r="83" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="34"/>
+      <c r="C83" s="7">
+        <v>25</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="23">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="84" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="28">
-        <v>46049</v>
-      </c>
-      <c r="C84" s="5">
-        <v>25</v>
+      <c r="B84" s="35"/>
+      <c r="C84" s="7">
+        <v>5</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F84" s="23">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>140</v>
-      </c>
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="G84" s="8"/>
     </row>
     <row r="85" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>95</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D85" s="42">
-        <f>SUM(C84:C84)</f>
-        <v>25</v>
-      </c>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="43"/>
+      <c r="D85" s="28">
+        <f>SUM(C76:C84)</f>
+        <v>215</v>
+      </c>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="29"/>
     </row>
     <row r="86" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="29"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="5"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -3419,7 +3442,7 @@
     </row>
     <row r="87" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
-      <c r="B87" s="30"/>
+      <c r="B87" s="34"/>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -3428,7 +3451,7 @@
     </row>
     <row r="88" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
-      <c r="B88" s="30"/>
+      <c r="B88" s="34"/>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -3437,7 +3460,7 @@
     </row>
     <row r="89" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
-      <c r="B89" s="30"/>
+      <c r="B89" s="34"/>
       <c r="C89" s="7"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -3446,7 +3469,7 @@
     </row>
     <row r="90" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
-      <c r="B90" s="33"/>
+      <c r="B90" s="35"/>
       <c r="C90" s="9"/>
       <c r="D90" s="8"/>
       <c r="E90" s="10"/>
@@ -3463,17 +3486,17 @@
       <c r="C91" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D91" s="42">
+      <c r="D91" s="28">
         <f>SUM(C86:C90)</f>
         <v>0</v>
       </c>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="43"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="29"/>
     </row>
     <row r="92" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="29"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="5"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -3482,7 +3505,7 @@
     </row>
     <row r="93" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
-      <c r="B93" s="30"/>
+      <c r="B93" s="34"/>
       <c r="C93" s="7"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -3491,7 +3514,7 @@
     </row>
     <row r="94" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
-      <c r="B94" s="30"/>
+      <c r="B94" s="34"/>
       <c r="C94" s="7"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -3500,7 +3523,7 @@
     </row>
     <row r="95" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
-      <c r="B95" s="30"/>
+      <c r="B95" s="34"/>
       <c r="C95" s="7"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -3509,7 +3532,7 @@
     </row>
     <row r="96" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
-      <c r="B96" s="33"/>
+      <c r="B96" s="35"/>
       <c r="C96" s="9"/>
       <c r="D96" s="8"/>
       <c r="E96" s="10"/>
@@ -3521,24 +3544,24 @@
         <v>95</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C97" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D97" s="42">
+      <c r="D97" s="28">
         <f>SUM(C92:C96)</f>
         <v>0</v>
       </c>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="43"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="29"/>
     </row>
     <row r="98" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B98" s="32"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="12">
         <f>MROUND(SUM(C6:C97) /60,0.2)</f>
         <v>42</v>
@@ -3555,7 +3578,38 @@
       <c r="A100" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="46">
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D30:G30"/>
@@ -3570,46 +3624,14 @@
     <mergeCell ref="D59:G59"/>
     <mergeCell ref="D64:G64"/>
     <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D83:G83"/>
     <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B76:B82"/>
-    <mergeCell ref="B86:B90"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C92:C96 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51 C71:C74 C53:C55 C60:C63 C57:C58 C65:C69 C84 C76:C82 C86:C90" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C92:C96 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51 C71:C74 C53:C55 C60:C63 C57:C58 C65:C69 C86:C90 C76:C82 C83:C84" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B92:B96 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51 B71:B74 B53:B55 B60:B63 B57:B58 B65:B69 B84 B76:B82 B86:B90" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B92:B96 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51 B71:B74 B53:B55 B60:B63 B57:B58 B65:B69 B86:B90 B76" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
@@ -3629,7 +3651,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="88" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="93" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3639,10 +3661,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A92:E96 A98:E1048576 A44:E44 A41:E42 A46:E51 A71:E74 A65:E69 A60:E63 A57:E58 A53:E55 A84:E84 A76:E82 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A59:D59 A64:D64 A70:D70 A75:D75 A83:D83 A85:D85 A97:D97 G98:G1048576 A86:E90 A91:D91</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="87" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A92:E96 A98:E1048576 A44:E44 A41:E42 A46:E51 A71:E74 A65:E69 A60:E63 A57:E58 A53:E55 A86:E90 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A59:D59 A64:D64 A70:D70 A75:D75 A85:D85 A91:D91 A97:D97 G98:G1048576 A76:E76 A77:A84 C77:E84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="92" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3652,7 +3674,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="89" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+          <x14:cfRule type="cellIs" priority="94" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3662,7 +3684,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="90" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+          <x14:cfRule type="cellIs" priority="95" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3675,7 +3697,7 @@
           <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E92:E96 E98:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="56" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
+          <x14:cfRule type="cellIs" priority="61" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3685,7 +3707,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="57" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
+          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3695,7 +3717,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="58" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
+          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3708,7 +3730,7 @@
           <xm:sqref>E41:E42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
+          <x14:cfRule type="cellIs" priority="65" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3718,7 +3740,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="61" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
+          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3728,7 +3750,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
+          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3741,7 +3763,7 @@
           <xm:sqref>E44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
+          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3751,7 +3773,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
+          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3761,7 +3783,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
+          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3774,7 +3796,7 @@
           <xm:sqref>E46:E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{38CC099F-2CFB-4F51-BCC6-9A8C062F12D6}">
+          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{38CC099F-2CFB-4F51-BCC6-9A8C062F12D6}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3784,7 +3806,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{97B7369B-F3E2-421C-8B11-B917735F9E01}">
+          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{97B7369B-F3E2-421C-8B11-B917735F9E01}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3794,7 +3816,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{9BE9A0C0-12EE-4A06-AA91-2B2C7773C591}">
+          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{9BE9A0C0-12EE-4A06-AA91-2B2C7773C591}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3807,7 +3829,7 @@
           <xm:sqref>E53:E55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{CE91AE07-0A4B-4CA1-864E-4494D1FD3F2D}">
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{CE91AE07-0A4B-4CA1-864E-4494D1FD3F2D}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3817,7 +3839,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{E33B63BE-9C2D-46FB-840B-160E77C144D1}">
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{E33B63BE-9C2D-46FB-840B-160E77C144D1}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3827,7 +3849,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{06F1F730-9D3E-44F6-9858-23332EAE481C}">
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{06F1F730-9D3E-44F6-9858-23332EAE481C}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3840,7 +3862,7 @@
           <xm:sqref>E57:E58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{6138D6EC-9477-4522-A720-100D44F804C5}">
+          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{6138D6EC-9477-4522-A720-100D44F804C5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3850,7 +3872,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{7FB697E4-A1F6-44CC-8422-CFE46191EC29}">
+          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{7FB697E4-A1F6-44CC-8422-CFE46191EC29}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3860,7 +3882,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{F3D48842-32E0-470D-8962-C942EB8B670B}">
+          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{F3D48842-32E0-470D-8962-C942EB8B670B}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3873,7 +3895,7 @@
           <xm:sqref>E60:E63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{CF4E2A7B-2831-4A8E-8CB0-05A3819B6512}">
+          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{CF4E2A7B-2831-4A8E-8CB0-05A3819B6512}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3883,7 +3905,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{5A6DBF38-AB31-41CF-92EB-6F71330B8A51}">
+          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{5A6DBF38-AB31-41CF-92EB-6F71330B8A51}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3893,7 +3915,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{806E81D0-33D7-43D5-9F66-9ACF5303AA2B}">
+          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{806E81D0-33D7-43D5-9F66-9ACF5303AA2B}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3906,7 +3928,7 @@
           <xm:sqref>E65:E69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{EC003FB1-6A08-40D6-88B1-588BCE936C35}">
+          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{EC003FB1-6A08-40D6-88B1-588BCE936C35}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3916,7 +3938,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{CCF6CA8D-69A5-48BE-8938-2E3B52B06A90}">
+          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{CCF6CA8D-69A5-48BE-8938-2E3B52B06A90}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3926,7 +3948,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{5E85ED66-7E81-44BB-AFFF-3FBE898F7448}">
+          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{5E85ED66-7E81-44BB-AFFF-3FBE898F7448}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3939,7 +3961,7 @@
           <xm:sqref>E71:E74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{05D29BF1-5036-4E14-BE13-0C412BA66951}">
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{05D29BF1-5036-4E14-BE13-0C412BA66951}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3949,7 +3971,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{4DFA78F5-0615-4104-9AD9-B5CC70C2141F}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{4DFA78F5-0615-4104-9AD9-B5CC70C2141F}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3959,7 +3981,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="11" operator="equal" id="{25621FE1-D458-4CA1-8338-61DA3BC6E612}">
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{25621FE1-D458-4CA1-8338-61DA3BC6E612}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3972,7 +3994,7 @@
           <xm:sqref>E76:E82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{ADE6CB81-D9D0-48F2-9C85-E16B2BF29862}">
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{ADE6CB81-D9D0-48F2-9C85-E16B2BF29862}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3982,7 +4004,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{55F477B7-B1DC-46AE-A524-88B3A20B5977}">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{55F477B7-B1DC-46AE-A524-88B3A20B5977}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3992,7 +4014,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{4C8DA778-7BD2-48DB-BF6A-9245CE0F1D9B}">
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{4C8DA778-7BD2-48DB-BF6A-9245CE0F1D9B}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4002,10 +4024,43 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E84</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="84" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <xm:sqref>E83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{8A959092-8A6B-4A91-99D1-8110E43AA729}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{F801D24C-AFDA-4757-9BC6-FB24B4DE466D}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{8CF84F96-ED65-491E-B676-DA2F761CE9EB}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E86:E90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="89" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4019,7 +4074,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="82" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="87" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4033,7 +4088,7 @@
           <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="81" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="86" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4047,7 +4102,7 @@
           <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="80" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+          <x14:cfRule type="containsText" priority="85" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F23)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4061,7 +4116,7 @@
           <xm:sqref>F23 F24:G24 F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="79" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+          <x14:cfRule type="containsText" priority="84" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F27)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4075,7 +4130,7 @@
           <xm:sqref>F27:F28 F29:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="59" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
+          <x14:cfRule type="containsText" priority="64" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F44)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4089,7 +4144,7 @@
           <xm:sqref>F44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{2CEED9A6-BF96-4A7D-A6A3-A1CBCB1BBB33}">
+          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{2CEED9A6-BF96-4A7D-A6A3-A1CBCB1BBB33}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F53)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4103,7 +4158,7 @@
           <xm:sqref>F53 F54:G54 F55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="31" operator="containsText" id="{9846E030-D336-4ABF-8549-0B217B1EE9C0}">
+          <x14:cfRule type="containsText" priority="36" operator="containsText" id="{9846E030-D336-4ABF-8549-0B217B1EE9C0}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F57)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4117,7 +4172,7 @@
           <xm:sqref>F57:F58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="35" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
+          <x14:cfRule type="containsText" priority="40" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F60)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4131,7 +4186,7 @@
           <xm:sqref>F60 F61:G62 F63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="43" operator="containsText" id="{A87BC3C4-539A-4D6D-94C0-DF4DFEA06C8A}">
+          <x14:cfRule type="containsText" priority="48" operator="containsText" id="{A87BC3C4-539A-4D6D-94C0-DF4DFEA06C8A}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F71)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4145,7 +4200,7 @@
           <xm:sqref>F71 F72:G74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="83" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="88" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4159,7 +4214,7 @@
           <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="78" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+          <x14:cfRule type="containsText" priority="83" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F31)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4173,7 +4228,7 @@
           <xm:sqref>F31:G31 F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="67" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
+          <x14:cfRule type="containsText" priority="72" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F33)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4187,7 +4242,7 @@
           <xm:sqref>F33:G38 F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="55" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
+          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F41)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4201,7 +4256,7 @@
           <xm:sqref>F41:G41 F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="47" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
+          <x14:cfRule type="containsText" priority="52" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F46)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4215,7 +4270,7 @@
           <xm:sqref>F46:G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="39" operator="containsText" id="{FBCB4E68-F50D-4BE4-8CEE-A9CE7EAE06EE}">
+          <x14:cfRule type="containsText" priority="44" operator="containsText" id="{FBCB4E68-F50D-4BE4-8CEE-A9CE7EAE06EE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F65)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4229,7 +4284,7 @@
           <xm:sqref>F65:G69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{3688DB4D-873A-4169-BE4C-08434A027D62}">
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{3688DB4D-873A-4169-BE4C-08434A027D62}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F76)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4243,7 +4298,7 @@
           <xm:sqref>F76:G76 F77 F78:G79 F80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{3676A8E9-1CF5-4FD9-A556-39859711926D}">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{3676A8E9-1CF5-4FD9-A556-39859711926D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F81)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4257,7 +4312,329 @@
           <xm:sqref>F81:G82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{28C512BB-433D-4051-BC38-3184013F28AC}">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{1CA0FC1F-6CFD-462C-912C-B25E380596FE}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F83)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F83:G83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{62C04585-298E-46F6-A3FE-D1D6BEA55A91}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F86)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F86:G90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="82" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F92)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F92:G96</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="81" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G11:G12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="80" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="79" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G16:G18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="78" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G20:G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="77" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="76" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="75" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G27:G28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="74" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="59" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="58" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="57" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{7506C776-F73B-475A-A848-0E98C716D28F}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{EEDBCFEE-8EE0-4370-A603-3DD0D0A3C004}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{EBD16DC6-D1FA-4FC5-B74B-CA3CF0413675}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G57:G58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{CB5C53FD-3D5D-4030-A78E-D6ACDDA5D5F7}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{28414CE1-4551-493E-98F2-E4708C3326DE}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{19A160C2-6897-43F9-AB25-0B60E506490B}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{F097F3F4-8FE5-45E2-8559-FEAB3C953D2F}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G76:G82</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{5807043D-1F29-422E-BEA0-1A1F24E45DE5}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{42B27148-AE7C-4BA1-B993-B3037B69F92A}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{CAD63670-76D8-46C3-9428-FF1328E16D90}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{5EE1483C-C8AF-4BC8-96C2-1FBDBB50C066}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{94391AE6-F1AE-42D1-AF78-4812D68E41C4}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F84)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4271,8 +4648,7 @@
           <xm:sqref>F84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="77" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F92)))</xm:f>
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{C198F442-0CED-465D-B844-BD476FA91AED}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4282,315 +4658,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F92:G96</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="76" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G11:G12</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="75" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="74" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G16:G18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="73" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G20:G21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="71" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G27:G28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{7506C776-F73B-475A-A848-0E98C716D28F}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{EEDBCFEE-8EE0-4370-A603-3DD0D0A3C004}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{EBD16DC6-D1FA-4FC5-B74B-CA3CF0413675}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G57:G58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{CB5C53FD-3D5D-4030-A78E-D6ACDDA5D5F7}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G60</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{28414CE1-4551-493E-98F2-E4708C3326DE}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{19A160C2-6897-43F9-AB25-0B60E506490B}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G71</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{F097F3F4-8FE5-45E2-8559-FEAB3C953D2F}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G76:G82</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{1CA0FC1F-6CFD-462C-912C-B25E380596FE}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,G84)))</xm:f>
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
           <xm:sqref>G84</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{5807043D-1F29-422E-BEA0-1A1F24E45DE5}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G84</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{8A959092-8A6B-4A91-99D1-8110E43AA729}">
-            <xm:f>Restrictions!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{F801D24C-AFDA-4757-9BC6-FB24B4DE466D}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{8CF84F96-ED65-491E-B676-DA2F761CE9EB}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E86:E90</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{62C04585-298E-46F6-A3FE-D1D6BEA55A91}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F86)))</xm:f>
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F86:G90</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4600,7 +4668,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E98:E1048576 E27:E29 E23:E25 E92:E96 E31:E39 E41:E42 E44 E46:E51 E71:E74 E53:E55 E60:E63 E57:E58 E65:E69 E84 E76:E82 E86:E90</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E98:E1048576 E27:E29 E23:E25 E92:E96 E31:E39 E41:E42 E44 E46:E51 E71:E74 E53:E55 E60:E63 E57:E58 E65:E69 E86:E90 E76:E82 E83:E84</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4636,6 +4704,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A5B8F5EAAC22C48A11F5D9A60E6F21D" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f2b963976306cc54294b7f4545a3c6c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1b10758-7132-46a4-a2fe-7a2cf46f51f4" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5e135fa2fc1295e1586ddcd9c1a8904" ns2:_="" ns3:_="">
     <xsd:import namespace="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
@@ -4878,27 +4966,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1b10758-7132-46a4-a2fe-7a2cf46f51f4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40597E6F-FA73-4A07-893F-099FDC15B64D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4915,23 +5002,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E6F7E92-72FE-4C94-B42F-AE9EA593DE95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1b10758-7132-46a4-a2fe-7a2cf46f51f4"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38BCAAC0-9C03-42D2-8685-2E30F60CCBAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/T_CraftMeUp_NeoDarbellay.xlsx
+++ b/T_CraftMeUp_NeoDarbellay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01Modules\02Deuxieme_Annee\P_Prod\CraftMeUp\Craft-Me-Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FF6F03-4927-4E56-BD8F-F918709B064A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7A51EA-2641-485E-B2ED-30FBC6DDA677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Restrictions" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$109</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="151">
   <si>
     <t>Experts </t>
   </si>
@@ -470,6 +470,31 @@
   </si>
   <si>
     <t>Fixed obstacle generation</t>
+  </si>
+  <si>
+    <t>Fixed multiple small issues</t>
+  </si>
+  <si>
+    <t>Issues such as render order and conditional logic failing</t>
+  </si>
+  <si>
+    <t>Changed how enemy health renders</t>
+  </si>
+  <si>
+    <t>Changed how player stats render</t>
+  </si>
+  <si>
+    <t>Fixed some rendering issues</t>
+  </si>
+  <si>
+    <t>Day 19</t>
+  </si>
+  <si>
+    <t>Day 20</t>
+  </si>
+  <si>
+    <t>Reduced rendering lag as much as I could for today
+You can now start the game with 128x128 chunks, but it is incredibly laggy</t>
   </si>
 </sst>
 </file>
@@ -787,6 +812,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -803,18 +840,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -845,7 +870,7 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="83">
     <dxf>
       <fill>
         <patternFill>
@@ -863,6 +888,300 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -870,6 +1189,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -884,286 +1217,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1171,6 +1224,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1185,6 +1245,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1192,6 +1259,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1199,6 +1280,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1206,6 +1301,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1213,6 +1322,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1227,6 +1350,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1234,6 +1364,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1248,6 +1392,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1283,126 +1434,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1730,13 +1762,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomRight" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1756,10 +1788,10 @@
       <c r="A1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="32"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="38" t="s">
         <v>86</v>
       </c>
@@ -1773,10 +1805,10 @@
       <c r="A2" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="38" t="s">
         <v>0</v>
       </c>
@@ -1798,23 +1830,23 @@
         <v>87</v>
       </c>
       <c r="E3" s="39"/>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1843,7 +1875,7 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="28">
         <v>45964</v>
       </c>
       <c r="C6" s="5">
@@ -1866,7 +1898,7 @@
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="7">
         <v>35</v>
       </c>
@@ -1885,7 +1917,7 @@
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7">
         <v>60</v>
       </c>
@@ -1912,19 +1944,19 @@
       <c r="C9" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="31">
         <f>SUM(C6:C8)</f>
         <v>125</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="28">
         <v>45965</v>
       </c>
       <c r="C10" s="5">
@@ -1945,7 +1977,7 @@
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="7">
         <v>50</v>
       </c>
@@ -1966,7 +1998,7 @@
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="7">
         <v>25</v>
       </c>
@@ -1987,7 +2019,7 @@
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="7">
         <v>35</v>
       </c>
@@ -2006,7 +2038,7 @@
       <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="9">
         <v>35</v>
       </c>
@@ -2033,19 +2065,19 @@
       <c r="C15" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="31">
         <f>SUM(C10:C14)</f>
         <v>175</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="28">
         <v>45971</v>
       </c>
       <c r="C16" s="5">
@@ -2068,7 +2100,7 @@
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="7">
         <v>55</v>
       </c>
@@ -2089,7 +2121,7 @@
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="7">
         <v>45</v>
       </c>
@@ -2116,19 +2148,19 @@
       <c r="C19" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="31">
         <f>SUM(C16:C18)</f>
         <v>145</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="28">
         <v>45972</v>
       </c>
       <c r="C20" s="5"/>
@@ -2149,7 +2181,7 @@
       <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="7">
         <v>105</v>
       </c>
@@ -2176,19 +2208,19 @@
       <c r="C22" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="31">
         <f>SUM(C20:C21)</f>
         <v>105</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="28">
         <v>45978</v>
       </c>
       <c r="C23" s="5">
@@ -2211,7 +2243,7 @@
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="7">
         <v>10</v>
       </c>
@@ -2230,7 +2262,7 @@
       <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="9">
         <v>25</v>
       </c>
@@ -2257,19 +2289,19 @@
       <c r="C26" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="31">
         <f>SUM(C23:C25)</f>
         <v>140</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="28">
         <v>45979</v>
       </c>
       <c r="C27" s="5">
@@ -2292,7 +2324,7 @@
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="7">
         <v>45</v>
       </c>
@@ -2313,7 +2345,7 @@
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="7">
         <v>10</v>
       </c>
@@ -2338,19 +2370,19 @@
       <c r="C30" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="31">
         <f>SUM(C27:C29)</f>
         <v>155</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="28">
         <v>45985</v>
       </c>
       <c r="C31" s="5">
@@ -2371,7 +2403,7 @@
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="7">
         <v>20</v>
       </c>
@@ -2392,7 +2424,7 @@
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="34"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="7">
         <v>30</v>
       </c>
@@ -2411,7 +2443,7 @@
       <c r="A34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="34"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="7">
         <v>15</v>
       </c>
@@ -2430,7 +2462,7 @@
       <c r="A35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="7">
         <v>10</v>
       </c>
@@ -2449,7 +2481,7 @@
       <c r="A36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="7">
         <v>10</v>
       </c>
@@ -2468,7 +2500,7 @@
       <c r="A37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="34"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="7">
         <v>30</v>
       </c>
@@ -2487,7 +2519,7 @@
       <c r="A38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="7">
         <v>5</v>
       </c>
@@ -2506,7 +2538,7 @@
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="34"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="7">
         <v>10</v>
       </c>
@@ -2533,19 +2565,19 @@
       <c r="C40" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="31">
         <f>SUM(C31:C39)</f>
         <v>140</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B41" s="28">
         <v>45986</v>
       </c>
       <c r="C41" s="5">
@@ -2566,7 +2598,7 @@
       <c r="A42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="34"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="7">
         <v>175</v>
       </c>
@@ -2593,13 +2625,13 @@
       <c r="C43" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="28">
+      <c r="D43" s="31">
         <f>SUM(C41:C42)</f>
         <v>190</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="29"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
     </row>
     <row r="44" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
@@ -2634,19 +2666,19 @@
       <c r="C45" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D45" s="31">
         <f>SUM(C44:C44)</f>
         <v>140</v>
       </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="33">
+      <c r="B46" s="28">
         <v>45993</v>
       </c>
       <c r="C46" s="5">
@@ -2667,7 +2699,7 @@
       <c r="A47" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="34"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="7">
         <v>75</v>
       </c>
@@ -2686,7 +2718,7 @@
       <c r="A48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="34"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="7">
         <v>15</v>
       </c>
@@ -2705,7 +2737,7 @@
       <c r="A49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="34"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="7">
         <v>10</v>
       </c>
@@ -2724,7 +2756,7 @@
       <c r="A50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="34"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="7">
         <v>10</v>
       </c>
@@ -2743,7 +2775,7 @@
       <c r="A51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="34"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="7">
         <v>35</v>
       </c>
@@ -2768,19 +2800,19 @@
       <c r="C52" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="28">
+      <c r="D52" s="31">
         <f>SUM(C46:C51)</f>
         <v>190</v>
       </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="29"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="32"/>
     </row>
     <row r="53" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="33">
+      <c r="B53" s="28">
         <v>45999</v>
       </c>
       <c r="C53" s="5">
@@ -2803,7 +2835,7 @@
       <c r="A54" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="34"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="7">
         <v>15</v>
       </c>
@@ -2822,7 +2854,7 @@
       <c r="A55" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="34"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="7">
         <v>65</v>
       </c>
@@ -2849,19 +2881,19 @@
       <c r="C56" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="28">
+      <c r="D56" s="31">
         <f>SUM(C53:C55)</f>
         <v>140</v>
       </c>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="32"/>
     </row>
     <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B57" s="28">
         <v>46006</v>
       </c>
       <c r="C57" s="5">
@@ -2884,7 +2916,7 @@
       <c r="A58" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="34"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="7">
         <v>125</v>
       </c>
@@ -2911,19 +2943,19 @@
       <c r="C59" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="28">
+      <c r="D59" s="31">
         <f>SUM(C57:C58)</f>
         <v>140</v>
       </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="29"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="32"/>
     </row>
     <row r="60" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="33">
+      <c r="B60" s="28">
         <v>46007</v>
       </c>
       <c r="C60" s="5">
@@ -2946,7 +2978,7 @@
       <c r="A61" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="34"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="7">
         <v>10</v>
       </c>
@@ -2965,7 +2997,7 @@
       <c r="A62" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="34"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="7">
         <v>45</v>
       </c>
@@ -2984,7 +3016,7 @@
       <c r="A63" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="34"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="7">
         <v>65</v>
       </c>
@@ -3011,19 +3043,19 @@
       <c r="C64" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="28">
+      <c r="D64" s="31">
         <f>SUM(C60:C63)</f>
         <v>180</v>
       </c>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="32"/>
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="33">
+      <c r="B65" s="28">
         <v>46027</v>
       </c>
       <c r="C65" s="5">
@@ -3044,7 +3076,7 @@
       <c r="A66" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="34"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="7">
         <v>10</v>
       </c>
@@ -3063,7 +3095,7 @@
       <c r="A67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="34"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="7">
         <v>10</v>
       </c>
@@ -3082,7 +3114,7 @@
       <c r="A68" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="34"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="7">
         <v>45</v>
       </c>
@@ -3101,7 +3133,7 @@
       <c r="A69" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="34"/>
+      <c r="B69" s="29"/>
       <c r="C69" s="7">
         <v>70</v>
       </c>
@@ -3128,19 +3160,19 @@
       <c r="C70" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D70" s="28">
+      <c r="D70" s="31">
         <f>SUM(C65:C69)</f>
         <v>145</v>
       </c>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="29"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="32"/>
     </row>
     <row r="71" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="33">
+      <c r="B71" s="28">
         <v>46042</v>
       </c>
       <c r="C71" s="5">
@@ -3163,7 +3195,7 @@
       <c r="A72" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="34"/>
+      <c r="B72" s="29"/>
       <c r="C72" s="7">
         <v>5</v>
       </c>
@@ -3182,7 +3214,7 @@
       <c r="A73" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="34"/>
+      <c r="B73" s="29"/>
       <c r="C73" s="7">
         <v>40</v>
       </c>
@@ -3201,7 +3233,7 @@
       <c r="A74" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="34"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="7">
         <v>15</v>
       </c>
@@ -3226,19 +3258,19 @@
       <c r="C75" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D75" s="28">
+      <c r="D75" s="31">
         <f>SUM(C71:C74)</f>
         <v>195</v>
       </c>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="29"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="32"/>
     </row>
     <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="33">
+      <c r="B76" s="28">
         <v>46049</v>
       </c>
       <c r="C76" s="7">
@@ -3259,7 +3291,7 @@
       <c r="A77" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="34"/>
+      <c r="B77" s="29"/>
       <c r="C77" s="7">
         <v>25</v>
       </c>
@@ -3280,7 +3312,7 @@
       <c r="A78" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B78" s="34"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="7">
         <v>10</v>
       </c>
@@ -3299,7 +3331,7 @@
       <c r="A79" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="34"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="7">
         <v>65</v>
       </c>
@@ -3320,7 +3352,7 @@
       <c r="A80" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="34"/>
+      <c r="B80" s="29"/>
       <c r="C80" s="7">
         <v>15</v>
       </c>
@@ -3339,7 +3371,7 @@
       <c r="A81" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="34"/>
+      <c r="B81" s="29"/>
       <c r="C81" s="7">
         <v>40</v>
       </c>
@@ -3358,7 +3390,7 @@
       <c r="A82" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B82" s="34"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="7">
         <v>15</v>
       </c>
@@ -3377,7 +3409,7 @@
       <c r="A83" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="34"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="7">
         <v>25</v>
       </c>
@@ -3398,7 +3430,7 @@
       <c r="A84" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="35"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="7">
         <v>5</v>
       </c>
@@ -3423,81 +3455,127 @@
       <c r="C85" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D85" s="28">
+      <c r="D85" s="31">
         <f>SUM(C76:C84)</f>
         <v>215</v>
       </c>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="29"/>
-    </row>
-    <row r="86" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="19"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="32"/>
+    </row>
+    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="28">
+        <v>46063</v>
+      </c>
+      <c r="C86" s="5">
+        <v>10</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="23">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="87" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="19"/>
+      <c r="A87" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="29"/>
+      <c r="C87" s="7">
+        <v>55</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="23">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="G87" s="8"/>
     </row>
     <row r="88" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="7"/>
+      <c r="A88" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="29"/>
+      <c r="C88" s="7">
+        <v>40</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="23">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G88" s="19"/>
     </row>
-    <row r="89" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="19"/>
+    <row r="89" spans="1:7" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="29"/>
+      <c r="C89" s="7">
+        <v>85</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="23">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="90" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="9"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="19"/>
-    </row>
-    <row r="91" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
+      <c r="A90" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="17" t="s">
+      <c r="B90" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C90" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D91" s="28">
-        <f>SUM(C86:C90)</f>
-        <v>0</v>
-      </c>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="29"/>
+      <c r="D90" s="31">
+        <f>SUM(C86:C89)</f>
+        <v>190</v>
+      </c>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="32"/>
+    </row>
+    <row r="91" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="19"/>
     </row>
     <row r="92" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="5"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="7"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="22"/>
@@ -3505,87 +3583,203 @@
     </row>
     <row r="93" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
-      <c r="B93" s="34"/>
+      <c r="B93" s="29"/>
       <c r="C93" s="7"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
-      <c r="F93" s="22"/>
+      <c r="F93" s="7"/>
       <c r="G93" s="19"/>
     </row>
     <row r="94" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
-      <c r="B94" s="34"/>
+      <c r="B94" s="29"/>
       <c r="C94" s="7"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="7"/>
       <c r="G94" s="19"/>
     </row>
-    <row r="95" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="7"/>
+    <row r="95" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="9"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="9"/>
       <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
+      <c r="E95" s="10"/>
       <c r="F95" s="7"/>
       <c r="G95" s="19"/>
     </row>
     <row r="96" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="9"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="19"/>
-    </row>
-    <row r="97" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="11" t="s">
+      <c r="A96" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B96" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C96" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D97" s="28">
-        <f>SUM(C92:C96)</f>
+      <c r="D96" s="31">
+        <f>SUM(C91:C95)</f>
         <v>0</v>
       </c>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="29"/>
-    </row>
-    <row r="98" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="42" t="s">
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="32"/>
+    </row>
+    <row r="97" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="19"/>
+    </row>
+    <row r="98" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="19"/>
+    </row>
+    <row r="99" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="19"/>
+    </row>
+    <row r="100" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="19"/>
+    </row>
+    <row r="101" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="9"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="19"/>
+    </row>
+    <row r="102" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D102" s="31">
+        <f>SUM(C97:C101)</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="32"/>
+    </row>
+    <row r="103" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="19"/>
+    </row>
+    <row r="104" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="19"/>
+    </row>
+    <row r="105" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="19"/>
+    </row>
+    <row r="106" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="19"/>
+    </row>
+    <row r="107" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="9"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="19"/>
+    </row>
+    <row r="108" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D108" s="31">
+        <f>SUM(C103:C107)</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="32"/>
+    </row>
+    <row r="109" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B98" s="43"/>
-      <c r="C98" s="12">
-        <f>MROUND(SUM(C6:C97) /60,0.2)</f>
-        <v>42</v>
-      </c>
-      <c r="D98" s="13"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="14"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="12">
+        <f>MROUND(SUM(C6:C108) /60,0.2)</f>
+        <v>45.2</v>
+      </c>
+      <c r="D109" s="13"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="14"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="15"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B76:B84"/>
+  <mergeCells count="50">
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A109:B109"/>
     <mergeCell ref="B31:B39"/>
-    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B103:B107"/>
     <mergeCell ref="B46:B51"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B71:B74"/>
@@ -3593,7 +3787,8 @@
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B97:B101"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -3610,11 +3805,7 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D108:G108"/>
     <mergeCell ref="D52:G52"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="D45:G45"/>
@@ -3624,14 +3815,22 @@
     <mergeCell ref="D59:G59"/>
     <mergeCell ref="D64:G64"/>
     <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B76:B84"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C92:C96 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51 C71:C74 C53:C55 C60:C63 C57:C58 C65:C69 C86:C90 C76:C82 C83:C84" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="C103:C107 C27:C29 C23:C25 C16:C18 B6 C10:C14 C20:C21 C6:C8 C31:C39 C41:C42 C44 C46:C51 C71:C74 C53:C55 C60:C63 C57:C58 C65:C69 C76:C84 C86:C89 C97:C101 C91:C95" xr:uid="{345ABA8F-B69F-4AFC-9D0E-D2AB0ACDE277}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B92:B96 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51 B71:B74 B53:B55 B60:B63 B57:B58 B65:B69 B86:B90 B76" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Durée par tranche de 10min" error="Le nombre doit être de type entier" sqref="B10:B14 B16:B18 B20:B21 B103:B107 B27:B29 B23:B25 B31:B39 B41:B42 B44 B46:B51 B71:B74 B53:B55 B60:B63 B57:B58 B65:B69 B76 B86:B89 B97:B101 B91:B95" xr:uid="{7694F886-C01B-440C-B6C8-5FF698F43C26}">
       <formula1>45261</formula1>
     </dataValidation>
   </dataValidations>
@@ -3641,7 +3840,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="28" orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Etml_font,Normal"&amp;22ETML&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;14&amp;D&amp;R&amp;14Journal</oddFooter>
@@ -3651,7 +3850,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="93" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
+          <x14:cfRule type="cellIs" priority="109" operator="equal" id="{6BC2577B-BDA3-4B48-8F95-0F2177F9264F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3661,10 +3860,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A92:E96 A98:E1048576 A44:E44 A41:E42 A46:E51 A71:E74 A65:E69 A60:E63 A57:E58 A53:E55 A86:E90 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A59:D59 A64:D64 A70:D70 A75:D75 A85:D85 A91:D91 A97:D97 G98:G1048576 A76:E76 A77:A84 C77:E84</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="92" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
+          <xm:sqref>A4:E8 A10:E14 A16:E18 A20:E21 A23:E25 A27:E29 A31:E39 A103:E107 A109:E1048576 A44:E44 A41:E42 A46:E51 A71:E74 A65:E69 A60:E63 A57:E58 A53:E55 A86:E89 A76:E76 C77:E84 A97:E101 A91:E95 A1:D2 F1:F3 A3 D3 G4:G5 G7:G8 A9:D9 A15:D15 A19:D19 A22:D22 A26:D26 A30:D30 A40:D40 A43:D43 A45:D45 A52:D52 A56:D56 A59:D59 A64:D64 A70:D70 A75:D75 A77:A84 A85:D85 A90:D90 A96:D96 A102:D102 A108:D108 G109:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="108" operator="equal" id="{9C6C644F-7238-453A-BC69-B42FAB3A2FA5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3674,7 +3873,17 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="94" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
+          <x14:cfRule type="cellIs" priority="111" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="110" operator="equal" id="{6DE85145-1CAE-407F-B647-4C9B303613C7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3684,7 +3893,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="95" operator="equal" id="{29EA468D-F98D-4D41-AA55-B63DA0941363}">
+          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E103:E107 E109:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="79" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3694,10 +3906,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E8 E10:E14 E16:E18 E20:E21 E23:E25 E27:E29 E31:E39 E92:E96 E98:E1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="61" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
+          <x14:cfRule type="cellIs" priority="77" operator="equal" id="{84E995EC-6FB3-447D-B7B4-F39F6B4AAF45}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3707,7 +3916,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
+          <x14:cfRule type="cellIs" priority="78" operator="equal" id="{B6903E1B-29F5-497F-B030-3589B8B337A1}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3717,7 +3926,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{DA16BC0E-098E-492D-9DD4-7AE32F5A0B66}">
+          <xm:sqref>E41:E42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="83" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3727,10 +3939,17 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E41:E42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="65" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
+          <x14:cfRule type="cellIs" priority="82" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="81" operator="equal" id="{2763426F-5E05-4AE5-BAB9-6155B44E42F3}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3740,7 +3959,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{29283CD5-B4A3-4A92-85FA-0825B9BB0F20}">
+          <xm:sqref>E44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3750,7 +3972,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{FFFCA022-7518-426F-AC53-14AA2D86A5EB}">
+          <x14:cfRule type="cellIs" priority="71" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3760,10 +3982,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
+          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{55BA1703-E0F0-4534-AC5F-5524C52012B8}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3773,7 +3992,20 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{8AA9BDE2-93E5-4C8F-8ABB-C8A37EF6C1F7}">
+          <xm:sqref>E46:E51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{9BE9A0C0-12EE-4A06-AA91-2B2C7773C591}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{97B7369B-F3E2-421C-8B11-B917735F9E01}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3783,7 +4015,40 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{7CBCFDCF-397F-4B71-B6B1-D6B8B3D995CF}">
+          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{38CC099F-2CFB-4F51-BCC6-9A8C062F12D6}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E53:E55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{E33B63BE-9C2D-46FB-840B-160E77C144D1}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{CE91AE07-0A4B-4CA1-864E-4494D1FD3F2D}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{06F1F730-9D3E-44F6-9858-23332EAE481C}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3793,10 +4058,30 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E46:E51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{38CC099F-2CFB-4F51-BCC6-9A8C062F12D6}">
+          <xm:sqref>E57:E58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="59" operator="equal" id="{F3D48842-32E0-470D-8962-C942EB8B670B}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="58" operator="equal" id="{7FB697E4-A1F6-44CC-8422-CFE46191EC29}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="57" operator="equal" id="{6138D6EC-9477-4522-A720-100D44F804C5}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3806,7 +4091,30 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{97B7369B-F3E2-421C-8B11-B917735F9E01}">
+          <xm:sqref>E60:E63</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="61" operator="equal" id="{CF4E2A7B-2831-4A8E-8CB0-05A3819B6512}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="63" operator="equal" id="{806E81D0-33D7-43D5-9F66-9ACF5303AA2B}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{5A6DBF38-AB31-41CF-92EB-6F71330B8A51}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3816,7 +4124,20 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{9BE9A0C0-12EE-4A06-AA91-2B2C7773C591}">
+          <xm:sqref>E65:E69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{CCF6CA8D-69A5-48BE-8938-2E3B52B06A90}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{5E85ED66-7E81-44BB-AFFF-3FBE898F7448}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3826,10 +4147,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E53:E55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{CE91AE07-0A4B-4CA1-864E-4494D1FD3F2D}">
+          <x14:cfRule type="cellIs" priority="65" operator="equal" id="{EC003FB1-6A08-40D6-88B1-588BCE936C35}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3839,7 +4157,20 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{E33B63BE-9C2D-46FB-840B-160E77C144D1}">
+          <xm:sqref>E71:E74</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{5EE1483C-C8AF-4BC8-96C2-1FBDBB50C066}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="19" operator="equal" id="{CAD63670-76D8-46C3-9428-FF1328E16D90}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3849,7 +4180,40 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{06F1F730-9D3E-44F6-9858-23332EAE481C}">
+          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{42B27148-AE7C-4BA1-B993-B3037B69F92A}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E76:E84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{F801D24C-AFDA-4757-9BC6-FB24B4DE466D}">
+            <xm:f>Restrictions!$C$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{8A959092-8A6B-4A91-99D1-8110E43AA729}">
+            <xm:f>Restrictions!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{8CF84F96-ED65-491E-B676-DA2F761CE9EB}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3859,10 +4223,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E57:E58</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{6138D6EC-9477-4522-A720-100D44F804C5}">
+          <xm:sqref>E86:E89</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{92E62023-F404-4026-AD69-5B76EB0BDAE8}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3872,7 +4236,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{7FB697E4-A1F6-44CC-8422-CFE46191EC29}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{9E114EAB-BD08-4433-A88A-51FDBB871F00}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3882,7 +4246,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{F3D48842-32E0-470D-8962-C942EB8B670B}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{5CAB61E4-56FF-4285-A4C9-A33737017E3A}">
             <xm:f>Restrictions!$D$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3892,10 +4256,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E60:E63</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{CF4E2A7B-2831-4A8E-8CB0-05A3819B6512}">
+          <xm:sqref>E91:E95</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{A66F7540-0CD1-4EF9-B347-2CABE04E932F}">
             <xm:f>Restrictions!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3905,7 +4269,17 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{5A6DBF38-AB31-41CF-92EB-6F71330B8A51}">
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{59C9B578-9F2D-494D-BED9-807E89EADAB8}">
+            <xm:f>Restrictions!$D$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{E10A4C2F-1FA6-426F-A318-4C7EFBFBAD06}">
             <xm:f>Restrictions!$C$1</xm:f>
             <x14:dxf>
               <fill>
@@ -3915,152 +4289,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{806E81D0-33D7-43D5-9F66-9ACF5303AA2B}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E65:E69</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{EC003FB1-6A08-40D6-88B1-588BCE936C35}">
-            <xm:f>Restrictions!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{CCF6CA8D-69A5-48BE-8938-2E3B52B06A90}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{5E85ED66-7E81-44BB-AFFF-3FBE898F7448}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E71:E74</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{05D29BF1-5036-4E14-BE13-0C412BA66951}">
-            <xm:f>Restrictions!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{4DFA78F5-0615-4104-9AD9-B5CC70C2141F}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{25621FE1-D458-4CA1-8338-61DA3BC6E612}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E76:E82</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{ADE6CB81-D9D0-48F2-9C85-E16B2BF29862}">
-            <xm:f>Restrictions!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{55F477B7-B1DC-46AE-A524-88B3A20B5977}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{4C8DA778-7BD2-48DB-BF6A-9245CE0F1D9B}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E83</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{8A959092-8A6B-4A91-99D1-8110E43AA729}">
-            <xm:f>Restrictions!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{F801D24C-AFDA-4757-9BC6-FB24B4DE466D}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{8CF84F96-ED65-491E-B676-DA2F761CE9EB}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E86:E90</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="89" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
+          <xm:sqref>E97:E101</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="105" operator="containsText" id="{FD0F452B-B2F8-4F75-A8CD-A69AC0834E64}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F6)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4074,7 +4306,7 @@
           <xm:sqref>F6:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="87" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
+          <x14:cfRule type="containsText" priority="103" operator="containsText" id="{6407061A-B268-44CE-A52C-133739941B16}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F16)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4088,7 +4320,7 @@
           <xm:sqref>F16:F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="86" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
+          <x14:cfRule type="containsText" priority="102" operator="containsText" id="{756A584A-6AAC-4559-9F27-A59B4EFD7F34}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F20)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4102,7 +4334,7 @@
           <xm:sqref>F20:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="85" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
+          <x14:cfRule type="containsText" priority="101" operator="containsText" id="{E988FD75-2909-4816-91C7-1018002A435D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F23)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4116,7 +4348,7 @@
           <xm:sqref>F23 F24:G24 F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="84" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
+          <x14:cfRule type="containsText" priority="100" operator="containsText" id="{D5B6D5DF-9E2A-4C4B-BA82-97D983766AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F27)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4130,7 +4362,7 @@
           <xm:sqref>F27:F28 F29:G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="64" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
+          <x14:cfRule type="containsText" priority="80" operator="containsText" id="{58D84678-3AF3-4F30-A017-BCF30ADC23B9}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F44)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4144,7 +4376,7 @@
           <xm:sqref>F44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{2CEED9A6-BF96-4A7D-A6A3-A1CBCB1BBB33}">
+          <x14:cfRule type="containsText" priority="48" operator="containsText" id="{2CEED9A6-BF96-4A7D-A6A3-A1CBCB1BBB33}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F53)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4158,7 +4390,7 @@
           <xm:sqref>F53 F54:G54 F55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="36" operator="containsText" id="{9846E030-D336-4ABF-8549-0B217B1EE9C0}">
+          <x14:cfRule type="containsText" priority="52" operator="containsText" id="{9846E030-D336-4ABF-8549-0B217B1EE9C0}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F57)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4172,7 +4404,7 @@
           <xm:sqref>F57:F58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="40" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
+          <x14:cfRule type="containsText" priority="56" operator="containsText" id="{C331D7E9-51D1-4558-86A6-2DDD97E5F51B}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F60)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4186,7 +4418,7 @@
           <xm:sqref>F60 F61:G62 F63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="48" operator="containsText" id="{A87BC3C4-539A-4D6D-94C0-DF4DFEA06C8A}">
+          <x14:cfRule type="containsText" priority="64" operator="containsText" id="{A87BC3C4-539A-4D6D-94C0-DF4DFEA06C8A}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F71)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4200,7 +4432,21 @@
           <xm:sqref>F71 F72:G74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="88" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
+          <x14:cfRule type="containsText" priority="21" operator="containsText" id="{94391AE6-F1AE-42D1-AF78-4812D68E41C4}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F84)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="104" operator="containsText" id="{88417B48-EA26-4D48-9EFE-B6A1E5C426AE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F10)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4214,7 +4460,7 @@
           <xm:sqref>F10:G10 F11:F12 F13:G13 F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="83" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
+          <x14:cfRule type="containsText" priority="99" operator="containsText" id="{1555D56B-E8B5-4F0A-9D80-B2C1016EB105}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F31)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4228,7 +4474,7 @@
           <xm:sqref>F31:G31 F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="72" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
+          <x14:cfRule type="containsText" priority="88" operator="containsText" id="{F174B00B-9E6F-49FA-9EE7-95FA16CF0425}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F33)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4242,7 +4488,7 @@
           <xm:sqref>F33:G38 F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
+          <x14:cfRule type="containsText" priority="76" operator="containsText" id="{4AF076A7-8EED-499A-B340-9301C9A23B63}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F41)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4256,7 +4502,7 @@
           <xm:sqref>F41:G41 F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="52" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
+          <x14:cfRule type="containsText" priority="68" operator="containsText" id="{1E89304F-1BDF-40FA-83E9-2770D86CCD7D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F46)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4270,7 +4516,7 @@
           <xm:sqref>F46:G51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="44" operator="containsText" id="{FBCB4E68-F50D-4BE4-8CEE-A9CE7EAE06EE}">
+          <x14:cfRule type="containsText" priority="60" operator="containsText" id="{FBCB4E68-F50D-4BE4-8CEE-A9CE7EAE06EE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F65)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4284,7 +4530,7 @@
           <xm:sqref>F65:G69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{3688DB4D-873A-4169-BE4C-08434A027D62}">
+          <x14:cfRule type="containsText" priority="34" operator="containsText" id="{3688DB4D-873A-4169-BE4C-08434A027D62}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F76)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4298,7 +4544,7 @@
           <xm:sqref>F76:G76 F77 F78:G79 F80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{3676A8E9-1CF5-4FD9-A556-39859711926D}">
+          <x14:cfRule type="containsText" priority="27" operator="containsText" id="{1CA0FC1F-6CFD-462C-912C-B25E380596FE}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F81)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4309,24 +4555,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F81:G82</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{1CA0FC1F-6CFD-462C-912C-B25E380596FE}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F83)))</xm:f>
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F83:G83</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{62C04585-298E-46F6-A3FE-D1D6BEA55A91}">
+          <xm:sqref>F81:G83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{6EAE5B84-F778-418F-A1B7-BC9BA100112D}">
             <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F86)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
@@ -4337,11 +4569,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F86:G90</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="82" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F92)))</xm:f>
+          <xm:sqref>F86:G89</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{49774D53-9CD8-4DDA-86D7-61DDC39694A2}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F91)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4351,10 +4583,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F92:G96</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="81" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+          <xm:sqref>F91:G95</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{EC18E800-531E-417C-9061-1973EA038CA3}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F97)))</xm:f>
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4364,10 +4597,37 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
+          <xm:sqref>F97:G101</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="98" operator="containsText" id="{2F0F41F7-8C93-48A6-B013-C45F8E29AE34}">
+            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F103)))</xm:f>
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F103:G107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="97" operator="equal" id="{C81CB296-EBDE-4E68-996A-22E647E300C9}">
+            <xm:f>Restrictions!$B$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B0F0"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
           <xm:sqref>G11:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="80" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
+          <x14:cfRule type="cellIs" priority="96" operator="equal" id="{C6523CE4-984A-4BEA-B850-BBE212DEC1BD}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4380,7 +4640,7 @@
           <xm:sqref>G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="79" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
+          <x14:cfRule type="cellIs" priority="95" operator="equal" id="{34CA0963-7227-4B81-A491-AF5EBF6948E0}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4393,7 +4653,7 @@
           <xm:sqref>G16:G18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="78" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
+          <x14:cfRule type="cellIs" priority="94" operator="equal" id="{0137ED0B-0223-4A2D-BBA6-66B7E7B0177B}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4406,7 +4666,7 @@
           <xm:sqref>G20:G21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="77" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
+          <x14:cfRule type="cellIs" priority="93" operator="equal" id="{0559BE0C-06E8-4BF0-855B-46B347A65A43}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4419,7 +4679,7 @@
           <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="76" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
+          <x14:cfRule type="cellIs" priority="92" operator="equal" id="{A10A680C-18B8-4576-98EE-F30E41E55578}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4432,7 +4692,7 @@
           <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="75" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
+          <x14:cfRule type="cellIs" priority="91" operator="equal" id="{EE200D4C-87A3-41C0-AADC-DBA0F1BBC7B2}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4445,7 +4705,7 @@
           <xm:sqref>G27:G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="74" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
+          <x14:cfRule type="cellIs" priority="90" operator="equal" id="{11814DC1-0D86-496F-AEC1-5E73F0134CB6}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4458,7 +4718,7 @@
           <xm:sqref>G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="59" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
+          <x14:cfRule type="cellIs" priority="75" operator="equal" id="{267A3B51-36A4-44DF-B2E6-F06E71682E5F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4471,7 +4731,7 @@
           <xm:sqref>G39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="58" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
+          <x14:cfRule type="cellIs" priority="74" operator="equal" id="{0FA35E81-D3C4-44FE-9341-C74ABA01B1FF}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4484,7 +4744,7 @@
           <xm:sqref>G42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="57" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
+          <x14:cfRule type="cellIs" priority="73" operator="equal" id="{E1E75134-FA7A-4AB7-9C7B-BBBAB5BA6AE8}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4497,7 +4757,7 @@
           <xm:sqref>G44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{7506C776-F73B-475A-A848-0E98C716D28F}">
+          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{7506C776-F73B-475A-A848-0E98C716D28F}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4510,7 +4770,7 @@
           <xm:sqref>G53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{EEDBCFEE-8EE0-4370-A603-3DD0D0A3C004}">
+          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{EEDBCFEE-8EE0-4370-A603-3DD0D0A3C004}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4523,7 +4783,7 @@
           <xm:sqref>G55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{EBD16DC6-D1FA-4FC5-B74B-CA3CF0413675}">
+          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{EBD16DC6-D1FA-4FC5-B74B-CA3CF0413675}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4536,7 +4796,7 @@
           <xm:sqref>G57:G58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{CB5C53FD-3D5D-4030-A78E-D6ACDDA5D5F7}">
+          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{CB5C53FD-3D5D-4030-A78E-D6ACDDA5D5F7}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4549,7 +4809,7 @@
           <xm:sqref>G60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{28414CE1-4551-493E-98F2-E4708C3326DE}">
+          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{28414CE1-4551-493E-98F2-E4708C3326DE}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4562,7 +4822,7 @@
           <xm:sqref>G63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{19A160C2-6897-43F9-AB25-0B60E506490B}">
+          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{19A160C2-6897-43F9-AB25-0B60E506490B}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4575,7 +4835,7 @@
           <xm:sqref>G71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{F097F3F4-8FE5-45E2-8559-FEAB3C953D2F}">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{C198F442-0CED-465D-B844-BD476FA91AED}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4585,10 +4845,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G76:G82</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{5807043D-1F29-422E-BEA0-1A1F24E45DE5}">
+          <xm:sqref>G76:G84</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{B78ED6C4-4FF5-4C26-8AB0-814AD0D37A32}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4598,44 +4858,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G83</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{42B27148-AE7C-4BA1-B993-B3037B69F92A}">
-            <xm:f>Restrictions!$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{CAD63670-76D8-46C3-9428-FF1328E16D90}">
-            <xm:f>Restrictions!$C$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{5EE1483C-C8AF-4BC8-96C2-1FBDBB50C066}">
-            <xm:f>Restrictions!$D$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E84</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{94391AE6-F1AE-42D1-AF78-4812D68E41C4}">
-            <xm:f>NOT(ISERROR(SEARCH(Restrictions!$B$1,F84)))</xm:f>
+          <xm:sqref>G86:G87</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="13" operator="equal" id="{5241F369-7025-4EA1-9AA0-9B9DA72E1877}">
             <xm:f>Restrictions!$B$1</xm:f>
             <x14:dxf>
               <fill>
@@ -4645,20 +4871,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F84</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{C198F442-0CED-465D-B844-BD476FA91AED}">
-            <xm:f>Restrictions!$B$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B0F0"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G84</xm:sqref>
+          <xm:sqref>G89</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4668,7 +4881,7 @@
           <x14:formula1>
             <xm:f>Restrictions!$A$1:$D$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E98:E1048576 E27:E29 E23:E25 E92:E96 E31:E39 E41:E42 E44 E46:E51 E71:E74 E53:E55 E60:E63 E57:E58 E65:E69 E86:E90 E76:E82 E83:E84</xm:sqref>
+          <xm:sqref>E1:E4 E6:E8 E10:E14 E16:E18 E20:E21 E109:E1048576 E27:E29 E23:E25 E103:E107 E31:E39 E41:E42 E44 E46:E51 E71:E74 E53:E55 E60:E63 E57:E58 E65:E69 E76:E84 E86:E89 E97:E101 E91:E95</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
